--- a/data/02_intermediate/cleaned_Admiral_T_songs.xlsx
+++ b/data/02_intermediate/cleaned_Admiral_T_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venu t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT J'étais en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 PC Monsieur le Corbeau, Monsieur le Corbeau Monsieur le Corbeau, Kamarades ! Devinez qui vient de Mars Sopra M'Baba Leonidas Un caïd immature comme Ribéry, Anelka ou Gallas Mes favelas, que des piranhas sortis des marécages Je suis détesté car vu du ciel, je brille plus que Las Vegas Faites de la place au Kamarade, Sopra M'Baba flow d'une Kalash' Appelle moi Weezy F car t'es ma Nicki Lewinsky Minaj Oh my God, Oh my God, les MC's sont dans ma paume Ils veulent te voir de près, dis-leur qu'il leur faut un télescope J'suis trop loin pour eux mon style ne fait que les scandaliser Ramène-moi les sur ma planète que j'puisse les halaliser Plus de plomb qu'un pare balle quand je me met à débiter Ne m'appelle pas Toby, mon nom à moi c'est Sopra Kinté Fouiny j'ai trop d'appétit, laisse-moi le son que jengloutis Pendant que les autres MC's habillent leurs flows en Hello Kitty Qu'ils aillent tous vite s'abriter, je n'ferai pas de charité Je t'ai dit mon nom à moi c'est pas Toby mais Sopra Kinté You might also like Un négro dans la ville Guerlain s'arrache les cheveux, les envieux s'épilent J'arrive comme Hugo comme Katrina... Choper la vie sans morphine, j'suis Poids lourd toi t'es Taillefine Demande à La Fouine, c'est qui le dancehall King ? Ghetto Gwada raggamuffin' T'es armé, armé comme le Hezbollah, ennemis ? J'mange ça comme du chocolat Banlieue Sale animal, quand on arrive tout le monde fait la Ola On est dans le futur, toi ton flow sent le moisi On n'a pas choisi la musique, c'est elle qui nous a choisi Flow assassin meurtrier, Riner pas David Douillet 78 Banlieue Sale, Banlieue Ouest, Banlieue Ok J'ai trop de punchlines ma couillasse, j'laisse les MC's en dallo J'suis en concert au Dallas et au Skandalo On t'allume au kalash, puis roue arrière en char d'assaut Ptit narvalo du robinet, narvalo du caniveau Dans le rap j'ai aucun rivaux avec leurs phases toutes en carton Les MC pillent dans mes rimes comme si j'étais Toutankhamon On a des gueules de stre-mon et des grosses tre-mon Ma bite dans lilleton, ça fait tsss dans lil du maton On parle l'argo d'Treuil-Mon, criave les os d'tes morts Exécute quand on donne nos ordres, baise les putes comme un dinosaure J'suis avec Belzébuth, j'siffle un Nabuchodonosor J'rappe les doigts dans la gorge pour t'gerber mes meilleures ceau-mor Tu veux de l'écaille de poisson, pas besoin d'aller au port J'serre que des avions, appelle-moi l'aéroport Au pieds une paire de Dan-Jor, au bras un paquet bulgare Fais porter le voile à ta femme nous on la viole du regard Ecoute cette grosse prod sonninké, l'alcool est martiniquais Kho j'crois je vais tout niquer, toujours al comme Manu Key Flow milé millénium, le tien est sans unité J'ai la dégaine d'un cricket qui t'fout à poil brolické Canardo dans la cour des grands Banlieue Sale mec on entreprend Ta petite tête est dans mon rétro, re-fré la notre est dans ton écran Si tu rappes après moi c'est que t'as du cran, un petit conseil recule d'un cran Brolick nan j'connais pas de cran d'arrêt de Trappes à Abidjan J'ai les pieds dans le bizz' et la tête dans la tise, la tise dans la main et de l'autre je te vise Ban-Banlieue Sale Music, physique, technique, t'inquiète pas on maîtrise Déterminés comme Aboudou, mec tu piges pas le style est vaudou eh ! Même sur une chaise tu m'arrives à peine aux genoux ouais ! Haschish draham Dar el Baida 04000, Ca Bouge Pas Hautes Noues Peace, Brolik Verbal Banlieue Sale on s'enjaille ! Hautes Noues Peace Brolik Verbal, 11'43 dans le trou de balle Aujourd'hui j'suis extrait, j'vais me sauver du tribunal Haschish draham, ma tribu kiffe la pénétration anale Glenn Smith, Maysio, banlieusard qui fait danser le XXX Videur j'suis ton pire cauchemar, obligé que ça parte en bagarre Enervé j'ai pas coffré aujourd'hui, y'avait les gendarmes au parloir Regard infrarouge khoya, les lions ils chassent dans le noir Panthère perruquée j'vais te piquer, j'suis ton prédateur en Audemar J'suis avec Omar dans une impasse en X-Max Special Delivery ma grosse Bériz c'est Mad Max J'suis tellement violent pour toi espèce de petite connasse Tu vas porter un tampax toute l'année, en taule j'suis number one comme Komax Khoya, mon flow un numéro d'écrou, j'rigole quand je m'écroule J'suis complètement mahboul, y'a la départementale qui patrouille On s'envole comme les aigles royal, les eunuques n'ont plus d'couilles Bafana, Dar el Baida, un hors la loi qui passe à la fouille Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez1</t>
+          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venu t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT J'étais en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 PC Monsieur le Corbeau, Monsieur le Corbeau Monsieur le Corbeau, Kamarades ! Devinez qui vient de Mars Sopra M'Baba Leonidas Un caïd immature comme Ribéry, Anelka ou Gallas Mes favelas, que des piranhas sortis des marécages Je suis détesté car vu du ciel, je brille plus que Las Vegas Faites de la place au Kamarade, Sopra M'Baba flow d'une Kalash' Appelle moi Weezy F car t'es ma Nicki Lewinsky Minaj Oh my God, Oh my God, les MC's sont dans ma paume Ils veulent te voir de près, dis-leur qu'il leur faut un télescope J'suis trop loin pour eux mon style ne fait que les scandaliser Ramène-moi les sur ma planète que j'puisse les halaliser Plus de plomb qu'un pare balle quand je me met à débiter Ne m'appelle pas Toby, mon nom à moi c'est Sopra Kinté Fouiny j'ai trop d'appétit, laisse-moi le son que jengloutis Pendant que les autres MC's habillent leurs flows en Hello Kitty Qu'ils aillent tous vite s'abriter, je n'ferai pas de charité Je t'ai dit mon nom à moi c'est pas Toby mais Sopra Kinté Un négro dans la ville Guerlain s'arrache les cheveux, les envieux s'épilent J'arrive comme Hugo comme Katrina... Choper la vie sans morphine, j'suis Poids lourd toi t'es Taillefine Demande à La Fouine, c'est qui le dancehall King ? Ghetto Gwada raggamuffin' T'es armé, armé comme le Hezbollah, ennemis ? J'mange ça comme du chocolat Banlieue Sale animal, quand on arrive tout le monde fait la Ola On est dans le futur, toi ton flow sent le moisi On n'a pas choisi la musique, c'est elle qui nous a choisi Flow assassin meurtrier, Riner pas David Douillet 78 Banlieue Sale, Banlieue Ouest, Banlieue Ok J'ai trop de punchlines ma couillasse, j'laisse les MC's en dallo J'suis en concert au Dallas et au Skandalo On t'allume au kalash, puis roue arrière en char d'assaut Ptit narvalo du robinet, narvalo du caniveau Dans le rap j'ai aucun rivaux avec leurs phases toutes en carton Les MC pillent dans mes rimes comme si j'étais Toutankhamon On a des gueules de stre-mon et des grosses tre-mon Ma bite dans lilleton, ça fait tsss dans lil du maton On parle l'argo d'Treuil-Mon, criave les os d'tes morts Exécute quand on donne nos ordres, baise les putes comme un dinosaure J'suis avec Belzébuth, j'siffle un Nabuchodonosor J'rappe les doigts dans la gorge pour t'gerber mes meilleures ceau-mor Tu veux de l'écaille de poisson, pas besoin d'aller au port J'serre que des avions, appelle-moi l'aéroport Au pieds une paire de Dan-Jor, au bras un paquet bulgare Fais porter le voile à ta femme nous on la viole du regard Ecoute cette grosse prod sonninké, l'alcool est martiniquais Kho j'crois je vais tout niquer, toujours al comme Manu Key Flow milé millénium, le tien est sans unité J'ai la dégaine d'un cricket qui t'fout à poil brolické Canardo dans la cour des grands Banlieue Sale mec on entreprend Ta petite tête est dans mon rétro, re-fré la notre est dans ton écran Si tu rappes après moi c'est que t'as du cran, un petit conseil recule d'un cran Brolick nan j'connais pas de cran d'arrêt de Trappes à Abidjan J'ai les pieds dans le bizz' et la tête dans la tise, la tise dans la main et de l'autre je te vise Ban-Banlieue Sale Music, physique, technique, t'inquiète pas on maîtrise Déterminés comme Aboudou, mec tu piges pas le style est vaudou eh ! Même sur une chaise tu m'arrives à peine aux genoux ouais ! Haschish draham Dar el Baida 04000, Ca Bouge Pas Hautes Noues Peace, Brolik Verbal Banlieue Sale on s'enjaille ! Hautes Noues Peace Brolik Verbal, 11'43 dans le trou de balle Aujourd'hui j'suis extrait, j'vais me sauver du tribunal Haschish draham, ma tribu kiffe la pénétration anale Glenn Smith, Maysio, banlieusard qui fait danser le XXX Videur j'suis ton pire cauchemar, obligé que ça parte en bagarre Enervé j'ai pas coffré aujourd'hui, y'avait les gendarmes au parloir Regard infrarouge khoya, les lions ils chassent dans le noir Panthère perruquée j'vais te piquer, j'suis ton prédateur en Audemar J'suis avec Omar dans une impasse en X-Max Special Delivery ma grosse Bériz c'est Mad Max J'suis tellement violent pour toi espèce de petite connasse Tu vas porter un tampax toute l'année, en taule j'suis number one comme Komax Khoya, mon flow un numéro d'écrou, j'rigole quand je m'écroule J'suis complètement mahboul, y'a la départementale qui patrouille On s'envole comme les aigles royal, les eunuques n'ont plus d'couilles Bafana, Dar el Baida, un hors la loi qui passe à la fouille Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez1</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J'suis désolé si j't'ai fait du mal Mais saches bébé qu'il n'y a qu'une seule femme Que j'aime au plus profond de mon âme âme Ça fait des années, qu'il n'y a plus cette flamme Quand j't'ai rencontré tu me disais que tu m'aimait tous les soirs yeah Mais maintenant on s'ignore on vit comme des étrangers J'ai eu tort de penser que t'allais changer, baby Je m'en vais car j'en ai marre J't'es fait souffrir j'suis d'accord Mais tu ne vois pas mes efforts Car t'écoutes tes amis, te base sur les on dit J'me souviens qu'avant on étaient plus forts J'en ai plus qu'assez, j'en ai ras-le-bol De tes beaux discours, des belles paroles Tu m'dis que j'suis jolie que quand t'as envie de hun hun J'te connais par cur Tu ne trouveras jamais baby tu ne trouveras jamais Un autre gars, un autre gars comme moi, un autre gars You might also like Tu ne trouveras jamais baby tu ne trouveras jamais Une autre femme, une autre femme comme moi, une autre femme T'es pire qu'une meuf quand tu te fais beau Sur les réseaux texhibes tes abdos Tu crois que j'vois pas ton p'tit jeux Tu te prends pour Tupac Toi et tes potes vous jouez aux durs mais vous pleurez quand on vous plaque! Tu veux que j'te parle tranquille? Toi tu m'parle mal T'es toujours hostile, partout tu vois l'mal J'te dis rien quand tu sors avec tes copines à 2 balles Femmes sexy sans cervelle à la recherche de mâles En tout cas tu n'arrives pas à la cheville du gars de Monica J'me demande c'que j'fais avec toi Monica celle qui a fait le bébé juste pour garder son mec? Malgré tout il l'a larguée comme une vieille chaussette! D'ailleurs depuis que tu la fréquente, tu me parle de refaire ton ventre J'pari que c'est elle qui te rempli la tête Baby mais qu'est-ce que tu racontes? T'as rien compris du tout C'est pour toi que j'essayait d'être belle J'ai bien vu que tu me regarde plus comme avant Ça m'fais mal mais j'me suis faite une raison Si je n'ai plus le corps de mes 20 ans c'est parce que j'suis maman Et que je t'ai donner le plus beau des enfants Tu ne trouveras jamais baby tu ne trouveras jamais Un autre gars, un autre gars comme moi, un autre gars Tu ne trouveras jamais baby tu ne trouveras jamais Une autre femme, une autre femme comme moi, une autre femme Ranguidangdangdè ranguidangdangdè Au moindre petit problème tu veux m'larguer Si tu veux partir je ne te retiens pas Saches que par contre si tu pars, pars mais ne reviens pas Ranguidangdangdè ranguidangdangdè J'ai tout essayé mais là j'déclare forfait T'es trop egoÏste tu penses qu'à toi Tu ne mérites pas une femme comme moi J'aurais pu donner ma vie pour toi moi Et t'oses dire que j'pense qu'à moi? Tu parles de moi ou de celle qui t'avais appelé sur ton phone-tel? T'inquiète j'n'oublie pas! Tu ne trouveras jamais baby tu ne trouveras jamais Un autre gars, un autre gars comme moi, un autre gars Tu ne trouveras jamais baby tu ne trouveras jamais Une autre femme, une autre femme comme moi, une autre femme Ça fait des années, qu'il n'y a plus cette flamme Quand j't'ai rencontré tu me disais que tu m'aimait tous les soirs yeah Mais maintenant on s'ignore on vit comme des étrangers J'ai eu tort de penser que t'allais changer, baby Je m'en vais car j'en ai marre Leave me alone baby Leave me alone Vaux mieux qu'on se sépare ça ne sert rien de continuer Leave me alone Leave me alone baby On se fait du mal et ça ne fait qu'empirer donc Leave me alone</t>
+          <t>J'suis désolé si j't'ai fait du mal Mais saches bébé qu'il n'y a qu'une seule femme Que j'aime au plus profond de mon âme âme Ça fait des années, qu'il n'y a plus cette flamme Quand j't'ai rencontré tu me disais que tu m'aimait tous les soirs yeah Mais maintenant on s'ignore on vit comme des étrangers J'ai eu tort de penser que t'allais changer, baby Je m'en vais car j'en ai marre J't'es fait souffrir j'suis d'accord Mais tu ne vois pas mes efforts Car t'écoutes tes amis, te base sur les on dit J'me souviens qu'avant on étaient plus forts J'en ai plus qu'assez, j'en ai ras-le-bol De tes beaux discours, des belles paroles Tu m'dis que j'suis jolie que quand t'as envie de hun hun J'te connais par cur Tu ne trouveras jamais baby tu ne trouveras jamais Un autre gars, un autre gars comme moi, un autre gars Tu ne trouveras jamais baby tu ne trouveras jamais Une autre femme, une autre femme comme moi, une autre femme T'es pire qu'une meuf quand tu te fais beau Sur les réseaux texhibes tes abdos Tu crois que j'vois pas ton p'tit jeux Tu te prends pour Tupac Toi et tes potes vous jouez aux durs mais vous pleurez quand on vous plaque! Tu veux que j'te parle tranquille? Toi tu m'parle mal T'es toujours hostile, partout tu vois l'mal J'te dis rien quand tu sors avec tes copines à 2 balles Femmes sexy sans cervelle à la recherche de mâles En tout cas tu n'arrives pas à la cheville du gars de Monica J'me demande c'que j'fais avec toi Monica celle qui a fait le bébé juste pour garder son mec? Malgré tout il l'a larguée comme une vieille chaussette! D'ailleurs depuis que tu la fréquente, tu me parle de refaire ton ventre J'pari que c'est elle qui te rempli la tête Baby mais qu'est-ce que tu racontes? T'as rien compris du tout C'est pour toi que j'essayait d'être belle J'ai bien vu que tu me regarde plus comme avant Ça m'fais mal mais j'me suis faite une raison Si je n'ai plus le corps de mes 20 ans c'est parce que j'suis maman Et que je t'ai donner le plus beau des enfants Tu ne trouveras jamais baby tu ne trouveras jamais Un autre gars, un autre gars comme moi, un autre gars Tu ne trouveras jamais baby tu ne trouveras jamais Une autre femme, une autre femme comme moi, une autre femme Ranguidangdangdè ranguidangdangdè Au moindre petit problème tu veux m'larguer Si tu veux partir je ne te retiens pas Saches que par contre si tu pars, pars mais ne reviens pas Ranguidangdangdè ranguidangdangdè J'ai tout essayé mais là j'déclare forfait T'es trop egoÏste tu penses qu'à toi Tu ne mérites pas une femme comme moi J'aurais pu donner ma vie pour toi moi Et t'oses dire que j'pense qu'à moi? Tu parles de moi ou de celle qui t'avais appelé sur ton phone-tel? T'inquiète j'n'oublie pas! Tu ne trouveras jamais baby tu ne trouveras jamais Un autre gars, un autre gars comme moi, un autre gars Tu ne trouveras jamais baby tu ne trouveras jamais Une autre femme, une autre femme comme moi, une autre femme Ça fait des années, qu'il n'y a plus cette flamme Quand j't'ai rencontré tu me disais que tu m'aimait tous les soirs yeah Mais maintenant on s'ignore on vit comme des étrangers J'ai eu tort de penser que t'allais changer, baby Je m'en vais car j'en ai marre Leave me alone baby Leave me alone Vaux mieux qu'on se sépare ça ne sert rien de continuer Leave me alone Leave me alone baby On se fait du mal et ça ne fait qu'empirer donc Leave me alone</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nou kay an sond system pa fann La sélekta ka joué bon son La tout ras ka pwan pyé a yo ansann Tèlman yo ansann, gadé yo près ka sann 33 47T, dubplates épi raga Tout swaré animé pa on mové sélekta On son majik si-w kolé ka fè-w changé léta Bas la ka wonflé, kès klè ka pété kon béréta Si ou pa ni asé ni dé dj ka pasé pli ta Evé dé tèks angagé si dé tem délika Dé dj kè yo ka pull up up ka fè déga Nou ka défoulé nou pwan pyé an nou sé pou sa Refrain Vyolans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann Bon son bon vibe dé nouvo dans Ka mèt tou moun an trans Dancehall quenn ni an tèl prézans on tèl ézans Pou fè nonm la bréné an tout sans Refrain An ay an sond system si ou poko alé si ou poko Si-w vé pa pèd fil-aw anko ennyèm anko Ki ou sé jenn ki ou sé vyéko é si ou dako Pou amizé-w kon poko Joustan kok kryé cocorico Défoulman i tin tout sot Mè sila vréman spécial, sila pa kon lè zot Ki zot rich ki zot pow, zot pé vinn pwan pyé a zot E surtou kouté mésaj ké dj ka voyé ba zot You might also likeRefrain 1couplet Voylans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann</t>
+          <t>Nou kay an sond system pa fann La sélekta ka joué bon son La tout ras ka pwan pyé a yo ansann Tèlman yo ansann, gadé yo près ka sann 33 47T, dubplates épi raga Tout swaré animé pa on mové sélekta On son majik si-w kolé ka fè-w changé léta Bas la ka wonflé, kès klè ka pété kon béréta Si ou pa ni asé ni dé dj ka pasé pli ta Evé dé tèks angagé si dé tem délika Dé dj kè yo ka pull up up ka fè déga Nou ka défoulé nou pwan pyé an nou sé pou sa Refrain Vyolans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann Bon son bon vibe dé nouvo dans Ka mèt tou moun an trans Dancehall quenn ni an tèl prézans on tèl ézans Pou fè nonm la bréné an tout sans Refrain An ay an sond system si ou poko alé si ou poko Si-w vé pa pèd fil-aw anko ennyèm anko Ki ou sé jenn ki ou sé vyéko é si ou dako Pou amizé-w kon poko Joustan kok kryé cocorico Défoulman i tin tout sot Mè sila vréman spécial, sila pa kon lè zot Ki zot rich ki zot pow, zot pé vinn pwan pyé a zot E surtou kouté mésaj ké dj ka voyé ba zot Refrain 1couplet Voylans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haha, oh god, wouh ! Señoras y señores Y con ustedes El rey Eh yo Kalash, kill em Real badman n'agit pas comme un drag queen Gyal viens m'voir j'ai le bras long comme Dhalsim Y'a que des real rude boi présents dans le casting Mes négros ne parlent pas ils agissent en sourdine Nou pa té ni pon combine épi pon pussyroll ting Yo sé real fish, yo tout' la ka mèt' string Et y'a beaucoup d'imposta, badman en ballerines Infama sera tué à la pleine lune T'entends les han-han, han-han, before me start kill Comme Kartel ils veulent m'enfermer pour crime Mais j'ai des avocats plus bad que la police en civil Je manie les mots comme l'escrime Dem no bad like me, général comme à l'armée Général de l'armée Dem no bad like me, même si ils sont armés J'tue les soundboi toute l'année Dem no bad like we, no bad like we Lhè ou tan'n Kalash, Admiral T, fo ou rété gentil No bad like we, no bad like we Di yo nou bad dépi tou piti Chaud kon coktail moloto-tov, rough and tou-tough Ghetto youth, nou lévé an misè, lévé po-pov' Sav nou ni co-coff', pakèt', an lot of Ba yo nou pa té ni pon pitié, nou pa té ni pon lov Nona a dem,no bad like me, no bad like me A pa prétan'n nou ka prétan'n, agi nou ka agi Dem no bad like me, no bad like Sav kè nou pa ka rentré dan maji, so me go so then No bad like we, we a shine bright, dem a try fight Soundboi a fi dead, turn off the light When we a kill, blood spill, let explose like a dynamite Diss if you wanna spend a sad night Bataille si bataille, pa ni yan'n nou pèd Soundboi vin' makiyé mè ké ripati lèd Yo ka palé anlo mè apré ka mandé l'èd Si ou pa konnèt nou, sé kè ou pa konnèt an mèd Man ka limin difé la pou éten'n yo Yo pa ni vibe, pa ni style, pa ni flow Yo ka tounen kon sketel adan bando An fon tchè yo yo ka fantasmé si nou Ennemi dead, navire la ka pran dlo Prop' manman yo pa ka respekté yo Man ka limin difé la pou éten'n yo Fenmen live la, an ja téré yo Yo ka palé si internet, an band' tapèt' An ka effasé album a yo épi an makèt' An sel cou d'raquette, jeu match et set 47 AK, coup de roquette andan tout' djèl lopèt' Anyway mi go, an ka just tchouwé yo An platine, an micro, fanm aw lé vin' amigo Ou ja conèt' Général Crew Nou pa ni pon combine, nou ka vin pété si yo x2 Dem no bad like me, général comme à l'armée Général de l'armée Dem no bad like me, même si ils sont armés J'tue les soundboi toute l'année So we gone start up the G-style to martinique, to DR, to France And from there we gonna go to Miami You know why ? Cause we worldwide niggas Hahahahaha, yeah Dimelo Kalash They ain't ready for us We were born ready, we was born ready Hahahahaha, yeahYou might also like1</t>
+          <t>Haha, oh god, wouh ! Señoras y señores Y con ustedes El rey Eh yo Kalash, kill em Real badman n'agit pas comme un drag queen Gyal viens m'voir j'ai le bras long comme Dhalsim Y'a que des real rude boi présents dans le casting Mes négros ne parlent pas ils agissent en sourdine Nou pa té ni pon combine épi pon pussyroll ting Yo sé real fish, yo tout' la ka mèt' string Et y'a beaucoup d'imposta, badman en ballerines Infama sera tué à la pleine lune T'entends les han-han, han-han, before me start kill Comme Kartel ils veulent m'enfermer pour crime Mais j'ai des avocats plus bad que la police en civil Je manie les mots comme l'escrime Dem no bad like me, général comme à l'armée Général de l'armée Dem no bad like me, même si ils sont armés J'tue les soundboi toute l'année Dem no bad like we, no bad like we Lhè ou tan'n Kalash, Admiral T, fo ou rété gentil No bad like we, no bad like we Di yo nou bad dépi tou piti Chaud kon coktail moloto-tov, rough and tou-tough Ghetto youth, nou lévé an misè, lévé po-pov' Sav nou ni co-coff', pakèt', an lot of Ba yo nou pa té ni pon pitié, nou pa té ni pon lov Nona a dem,no bad like me, no bad like me A pa prétan'n nou ka prétan'n, agi nou ka agi Dem no bad like me, no bad like Sav kè nou pa ka rentré dan maji, so me go so then No bad like we, we a shine bright, dem a try fight Soundboi a fi dead, turn off the light When we a kill, blood spill, let explose like a dynamite Diss if you wanna spend a sad night Bataille si bataille, pa ni yan'n nou pèd Soundboi vin' makiyé mè ké ripati lèd Yo ka palé anlo mè apré ka mandé l'èd Si ou pa konnèt nou, sé kè ou pa konnèt an mèd Man ka limin difé la pou éten'n yo Yo pa ni vibe, pa ni style, pa ni flow Yo ka tounen kon sketel adan bando An fon tchè yo yo ka fantasmé si nou Ennemi dead, navire la ka pran dlo Prop' manman yo pa ka respekté yo Man ka limin difé la pou éten'n yo Fenmen live la, an ja téré yo Yo ka palé si internet, an band' tapèt' An ka effasé album a yo épi an makèt' An sel cou d'raquette, jeu match et set 47 AK, coup de roquette andan tout' djèl lopèt' Anyway mi go, an ka just tchouwé yo An platine, an micro, fanm aw lé vin' amigo Ou ja conèt' Général Crew Nou pa ni pon combine, nou ka vin pété si yo x2 Dem no bad like me, général comme à l'armée Général de l'armée Dem no bad like me, même si ils sont armés J'tue les soundboi toute l'année So we gone start up the G-style to martinique, to DR, to France And from there we gonna go to Miami You know why ? Cause we worldwide niggas Hahahahaha, yeah Dimelo Kalash They ain't ready for us We were born ready, we was born ready Hahahahaha, yeah1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Faut que tous on vise la victoire Qu'on vise la victoire x3 Yeah qui aurait cru qu'on en serait arrivé là ? Parti de rien on voyait grand comme le Roc-A-Fella La même équipe la même la même depuis 96 Dis-moi avec qui tu traines je te dirais qui tu baises Je fonce la vie est hardcore alors je mets mes crampons Si ton cur a ses règles à la banque ils ont des tampons yeah Passe à la caisse à la caisse Fouiny Baby L'argent ça rend beau même si t'as les lèvres à Jay-Z Zied Bouna Mouhsin Laramy quand ton heure sonne Ici on n'a pas tous les obsèques à Mickael Jackson Très vite oublié fréro comme la mort d'un camé Alors on a que nos yeux pour pleurer et des caisses à cramer Trimer ça on fait avec R.M.I on fait avec Allocations on fait avec toujours les yeux rivés vers la Mecque Vers la Mecque vers la Mecque vers la Mecque Toujours en cellule, j'ai l'habitude mais les keufs débarquent dans quelques minutes On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil You might also like O.K. je pars au quart de seconde ma rage sort de ses gonds Car on se souvient du premier mais rarement du second Et puis laisse parler ces cons laisse ces cons et leurs zesses-gon Rafle les médailles comme un gymnaste de Hong-Kong Mon slogan gare au 7-6 Rap au plexus, gagne en silence comme Carlos et Smith J'ai la carrosserie du risque dans l'industrie du disque J'ai les keys de la réussite et sa carte grise Tu veux les étoiles, vise la Lune Petit fils allume, ta vie insalubre Vaincre, c'est comme le Port-Salut c'est écrit dessus Cherche le salut dans les saintes écritures Puisque l'histoire est écrite par les békés J'ai raturé le cahier pour y marquer L.K.P héhé 3arbis et Antilles, Caraïbes et Arabie La La La La Fouine Médine Admiral T On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Non, non non non on ne plie pas même si on prend des coups Même si la route est longue elle-elle est longue on ira jusqu'au bout Nous mettre des bâtons dans les roues ça ne sert à rien du tout On connait le goût, de la difficulté Garçon on gravit les étapes les étapes évite les obstacles et les tacles Encaisser des claques et des claques et des claques, on a l'habitude Comme Barack-Barack Obama je vise le top All by myself vise la victoire comme Usain Bolt Depuis le cordon ombilical, dans la rue c'est la mode illégal On est des gars déterminés, mental dur comme le métal On brillera comme l'étoile du Berger On a bien scruté le fond, l'heure est venue pour nous démerger hé-hé-hé-hé On puise, notre force, dans l'espoir On s'épuise, mais à force, d'y croire Un jour on connaitra la gloire qu'on soit blancs beurs jaunes noirs Non Non Non Non restons seuls, on termine notre histoire On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Parce que le ciel est la limite Parce que le temps passe si vite Parce qu'on veut viser la victoire Et ne plus marcher tout seul dans le noir Et si la vie ne tient qu'à un fil Et si mes traces sont indélébiles Même si mon quartier est difficile J'ai la victoire au bout du fil Pas la peine de m'appeler je ne prends pas de double appel car J'ai la victoire au bout du fil Je n'ai pas beaucoup d'unités il faut que je fasse vite J'ai la victoire au bout du fil Je veux l'approcher la toucher la facture sera lourde Impossible pour moi de raccrocher j'ai la victoire au bout du fil Orrh je n'ai plus de batterie et il faut que je vous laisse car J'ai la victoire au bout du fil1</t>
+          <t>Faut que tous on vise la victoire Qu'on vise la victoire x3 Yeah qui aurait cru qu'on en serait arrivé là ? Parti de rien on voyait grand comme le Roc-A-Fella La même équipe la même la même depuis 96 Dis-moi avec qui tu traines je te dirais qui tu baises Je fonce la vie est hardcore alors je mets mes crampons Si ton cur a ses règles à la banque ils ont des tampons yeah Passe à la caisse à la caisse Fouiny Baby L'argent ça rend beau même si t'as les lèvres à Jay-Z Zied Bouna Mouhsin Laramy quand ton heure sonne Ici on n'a pas tous les obsèques à Mickael Jackson Très vite oublié fréro comme la mort d'un camé Alors on a que nos yeux pour pleurer et des caisses à cramer Trimer ça on fait avec R.M.I on fait avec Allocations on fait avec toujours les yeux rivés vers la Mecque Vers la Mecque vers la Mecque vers la Mecque Toujours en cellule, j'ai l'habitude mais les keufs débarquent dans quelques minutes On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil O.K. je pars au quart de seconde ma rage sort de ses gonds Car on se souvient du premier mais rarement du second Et puis laisse parler ces cons laisse ces cons et leurs zesses-gon Rafle les médailles comme un gymnaste de Hong-Kong Mon slogan gare au 7-6 Rap au plexus, gagne en silence comme Carlos et Smith J'ai la carrosserie du risque dans l'industrie du disque J'ai les keys de la réussite et sa carte grise Tu veux les étoiles, vise la Lune Petit fils allume, ta vie insalubre Vaincre, c'est comme le Port-Salut c'est écrit dessus Cherche le salut dans les saintes écritures Puisque l'histoire est écrite par les békés J'ai raturé le cahier pour y marquer L.K.P héhé 3arbis et Antilles, Caraïbes et Arabie La La La La Fouine Médine Admiral T On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Non, non non non on ne plie pas même si on prend des coups Même si la route est longue elle-elle est longue on ira jusqu'au bout Nous mettre des bâtons dans les roues ça ne sert à rien du tout On connait le goût, de la difficulté Garçon on gravit les étapes les étapes évite les obstacles et les tacles Encaisser des claques et des claques et des claques, on a l'habitude Comme Barack-Barack Obama je vise le top All by myself vise la victoire comme Usain Bolt Depuis le cordon ombilical, dans la rue c'est la mode illégal On est des gars déterminés, mental dur comme le métal On brillera comme l'étoile du Berger On a bien scruté le fond, l'heure est venue pour nous démerger hé-hé-hé-hé On puise, notre force, dans l'espoir On s'épuise, mais à force, d'y croire Un jour on connaitra la gloire qu'on soit blancs beurs jaunes noirs Non Non Non Non restons seuls, on termine notre histoire On vise la victoire vise la victoire blancs jaunes beurs ou noirs Toi qui travaille jusqu'à tard le soir le jour tu connaitras la gloire Tu brilleras comme une étoile une star soit ma big big team Parce que le ciel est la limite Big team parce que le temps passe si vite Même si mon quartier est difficile on vise la victoire J'ai la victoire au bout du fil Parce que le ciel est la limite Parce que le temps passe si vite Parce qu'on veut viser la victoire Et ne plus marcher tout seul dans le noir Et si la vie ne tient qu'à un fil Et si mes traces sont indélébiles Même si mon quartier est difficile J'ai la victoire au bout du fil Pas la peine de m'appeler je ne prends pas de double appel car J'ai la victoire au bout du fil Je n'ai pas beaucoup d'unités il faut que je fasse vite J'ai la victoire au bout du fil Je veux l'approcher la toucher la facture sera lourde Impossible pour moi de raccrocher j'ai la victoire au bout du fil Orrh je n'ai plus de batterie et il faut que je vous laisse car J'ai la victoire au bout du fil1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Je n'ai plus sommeil Je suis tellement fou de toi T'es mon soleil T'es la seule en qui je peux croire Pourtant je sais que t'hésites Que tu ne crois plus au love story Mais tu peux croire en la mienne, hey Wine, wine, bébé just wine Profitons de l'instant présent Bébé we don't we style Ce soir c'est toi la reine, tu brilles comme une étoile Normal que je te mette sur un piédestal Baby je t'aime à la folie, folie, folie hey Au love story, story, story Chérie t'es magnifique et t'es jolie jolie, jolie Intérieurement comme extérieurement, digne, intelligente Tu représentes avec classe la gente féminine Girl prend ce cur Qui n'a jamais battu Pour aucune autre que toi Pour t'avoir je ferais tout Ce que tu demandes Je ferai n'importe quoi Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine T'es ma reine Prend cet amour Qui me crève ! You might also like Je suis plus le même Quand tes yeux se posent sur moi Là dans mes veines C'est de l'amour qui coule pour toi T'es la seule T'es l'unique Choisi, fait moi l'homme de ta vie Je t'aime trop Je veux que tu sois mienne Yeah Baby you make feel high oui Moi et mes vrais qui j'entends wine it Je t'aime comme un fou Je t'aime à la folie Baby you make feel high oui Moi et mes vrais qui j'entends wine it Je t'aime comme un fou Je t'aime à la folie À la folie ! x2 Girl prend ce cur Qui n'a jamais battu Pour aucune autre que toi Pour t'avoir je ferais tout Ce que tu demandes Je ferai n'importe quoi Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine T'es ma reine Prend cet amour Qui me crève ! Qui me crève ! Prend le ! Chopé, chopé Oui, prend le ! x3 Beauté naturelle Pas fini des magazines Prestance de choc de choc de jusqu'à la racine Elle a les yeux revolver, le regard qui m'assassine Queen, she is a queen Baby you so clean hey hey ??? Girl prend ce cur Qui n'a jamais battu Pour aucune autre que toi Pour t'avoir je ferais tout Ce que tu demandes Je ferai n'importe quoi Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine T'es ma reine Prend cet amour Qui me crève ! SKALPOVICH Ma reine, oui, ma reine Sublime, yeah Beauté divine, sublime baby ? Axel Tony yeah SKALPOVICH Chopé, Chopé Wine</t>
+          <t>Je n'ai plus sommeil Je suis tellement fou de toi T'es mon soleil T'es la seule en qui je peux croire Pourtant je sais que t'hésites Que tu ne crois plus au love story Mais tu peux croire en la mienne, hey Wine, wine, bébé just wine Profitons de l'instant présent Bébé we don't we style Ce soir c'est toi la reine, tu brilles comme une étoile Normal que je te mette sur un piédestal Baby je t'aime à la folie, folie, folie hey Au love story, story, story Chérie t'es magnifique et t'es jolie jolie, jolie Intérieurement comme extérieurement, digne, intelligente Tu représentes avec classe la gente féminine Girl prend ce cur Qui n'a jamais battu Pour aucune autre que toi Pour t'avoir je ferais tout Ce que tu demandes Je ferai n'importe quoi Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine T'es ma reine Prend cet amour Qui me crève ! Je suis plus le même Quand tes yeux se posent sur moi Là dans mes veines C'est de l'amour qui coule pour toi T'es la seule T'es l'unique Choisi, fait moi l'homme de ta vie Je t'aime trop Je veux que tu sois mienne Yeah Baby you make feel high oui Moi et mes vrais qui j'entends wine it Je t'aime comme un fou Je t'aime à la folie Baby you make feel high oui Moi et mes vrais qui j'entends wine it Je t'aime comme un fou Je t'aime à la folie À la folie ! x2 Girl prend ce cur Qui n'a jamais battu Pour aucune autre que toi Pour t'avoir je ferais tout Ce que tu demandes Je ferai n'importe quoi Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine T'es ma reine Prend cet amour Qui me crève ! Qui me crève ! Prend le ! Chopé, chopé Oui, prend le ! x3 Beauté naturelle Pas fini des magazines Prestance de choc de choc de jusqu'à la racine Elle a les yeux revolver, le regard qui m'assassine Queen, she is a queen Baby you so clean hey hey ??? Girl prend ce cur Qui n'a jamais battu Pour aucune autre que toi Pour t'avoir je ferais tout Ce que tu demandes Je ferai n'importe quoi Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine Je veux que tu deviennes 'viennes 'viennes 'viennes ma reine T'es ma reine Prend cet amour Qui me crève ! SKALPOVICH Ma reine, oui, ma reine Sublime, yeah Beauté divine, sublime baby ? Axel Tony yeah SKALPOVICH Chopé, Chopé Wine</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>I konèt mwen myé ki pèsonn Konèt mwen myé ki Mwen é li, nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati Mwen é li, nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay On pakèt, on pil on chay I konèt mwen myé ki pèsonn Sé'y ki alter égo an mwen Alter égo an mwen Mwen épi'y nou pa bizwen talk non non non Nou ka gadé nou É nou pa bizwen talk non non non Konplis nou pa bizwen talk non non non Mwen épi'y nou ka fè yonn Nou fèt pou viv ansanm You might also likeI sav aki moman pou ban mwen tandrès Sav ki jan pou pé kalmé mwen lè mwen anrajé kon chyen anlès Sa mwen enmé, sa mwen ka détesté Si fo mwen pati ou si fo mwen rèsté Épi'y mwen pé dòmi asi dé zorèy I ka santi lè sa pakay Menm lè mwen lwen dè'y Sa fò sa mistik, sa résipwòk Et comme, qui aime bien châtie bien Lè mwen ka twonpé mwen I paka pasé pa kat chimen Pou di mwen, sa'y tini a di mwen Pas i vlé lè méyè ban mwen Mwen é li nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay On pakèt, on pil on chay I konèt mwen myé ki pèsonn Konèt mwen an lon é an lawj Lè mwen byen, lè mwen an lawm An didan mwen i sav sa ka pasé I konèt mwen myé ki pèsonn Sé'y ki alter égo an mwen Alter égo an mwen I sav ki jan pou bousté mwen Pou ban mwen fòs Fè mwen dépasé mwen, alé pi wo Sa rézoné mwen lè'w vwè mwen wòs Adan'y mwen ni on total konfyans Pé enpòt siwkonstans Ka kominiké konsi nou ni on sizyèm sans So me sing éh Sé konsi nou toujou viv ansanm Konsi nou toujou té konèt Alter égo Nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay On pakèt, on pil on chay I konèt mwen myé ki pèsonn Konèt mwen an lon é an lawj Lè mwen byen, lè mwen an lawm An didan mwen i sav sa ka pasé I konèt mwen myé ki pèsonn Sé'y ki alter égo an mwen Alter égo an mwen Alter égo an mwen</t>
+          <t>I konèt mwen myé ki pèsonn Konèt mwen myé ki Mwen é li, nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati Mwen é li, nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay On pakèt, on pil on chay I konèt mwen myé ki pèsonn Sé'y ki alter égo an mwen Alter égo an mwen Mwen épi'y nou pa bizwen talk non non non Nou ka gadé nou É nou pa bizwen talk non non non Konplis nou pa bizwen talk non non non Mwen épi'y nou ka fè yonn Nou fèt pou viv ansanm I sav aki moman pou ban mwen tandrès Sav ki jan pou pé kalmé mwen lè mwen anrajé kon chyen anlès Sa mwen enmé, sa mwen ka détesté Si fo mwen pati ou si fo mwen rèsté Épi'y mwen pé dòmi asi dé zorèy I ka santi lè sa pakay Menm lè mwen lwen dè'y Sa fò sa mistik, sa résipwòk Et comme, qui aime bien châtie bien Lè mwen ka twonpé mwen I paka pasé pa kat chimen Pou di mwen, sa'y tini a di mwen Pas i vlé lè méyè ban mwen Mwen é li nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay On pakèt, on pil on chay I konèt mwen myé ki pèsonn Konèt mwen an lon é an lawj Lè mwen byen, lè mwen an lawm An didan mwen i sav sa ka pasé I konèt mwen myé ki pèsonn Sé'y ki alter égo an mwen Alter égo an mwen I sav ki jan pou bousté mwen Pou ban mwen fòs Fè mwen dépasé mwen, alé pi wo Sa rézoné mwen lè'w vwè mwen wòs Adan'y mwen ni on total konfyans Pé enpòt siwkonstans Ka kominiké konsi nou ni on sizyèm sans So me sing éh Sé konsi nou toujou viv ansanm Konsi nou toujou té konèt Alter égo Nou pa bizwen palé Nou pa bizwen palé Ka kominiké pa télépati I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay I enmé mwen é mwen ni lòv bay On pakèt, on pil on chay I konèt mwen myé ki pèsonn Konèt mwen an lon é an lawj Lè mwen byen, lè mwen an lawm An didan mwen i sav sa ka pasé I konèt mwen myé ki pèsonn Sé'y ki alter égo an mwen Alter égo an mwen Alter égo an mwen</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nonm pa ayen si tè Jodla ou la dèmen ou pala Si pyé soutè Ki Moun Ké sonjé-w kon Che Guevara Lavila kout mwen Sav sa Donk touléjou mwen ka Fè débouya Pon Moun pa konèt dèmen Touléjou bondyé fè jou mwen ka vwè Fanm ka pléré épi Nonm ka soufè Donk Mwen ka Fè sa mwen ni a Fè Pou la fanmi manjé a fen An ka Fè lé bay 2 A fen a yo Lévé toupiti Si ghetto gwada city Fè débouya pou siwviv Pen é konfiti Sé sa ki ni sèwten midi Ekstratérès kon E.T Ay lékol pwofésè pani pon pityé Stigmatizé, mwen abityé I di mwen sé moun ghetto Mwen péké ay lwen donk Palapenn vin lékòl étidyé Donk mwen ka travay Touléjou fè rantré lozèy Pran swen dè timoun an mwen Ba yo lé bon konsèy Mwen Sav ola mwen sòti É mwen Sav ola mwen Kay Pani soumétyé sa fò mwen fè an ka fè Bobo ka sényé mè nou paka pléré Papa lévé nou konsi nou té lawmé Ponp, traksyon, kò la bien géné 4 You might also like Touléjou bondyé fè jou mwen ka vwè Fanm ka pléré épi Nonm ka soufè Donk Mwen ka Fè sa mwen ni a Fè Pou la fanmi manjé a fen An ka Fè lé bay 2 A fen a yo an!! Ay chèché kòb-la la-y yé Pa rété bwa kwazé Pani ayen san ayen Travay tousèl ka péyé Bondyé tousèl ki mèt Ka véyé si-w kon santinèl Mové lang mové Lang ou ja konèt Yo vé pa vwè-w ka ri Sa yo lé sé vwè-w ka pléré Lévé an lari Mè kon zétwal mwen lé kléré An Sòti Two lwen Yo di lajòl pa fèt pou chyen Ès sé yenki sa ka sanm mwen Sonbré Dan lilisit Léchèk ou la réisit Touléjou bondyé fè jou mwen ka vwè Fanm ka pléré épi Nonm ka soufè Donk Mwen ka Fè sa mwen ni a Fè Pou la fanmi manjé a fen An ka Fè lé bay 2 A fen a yo Nonm pa ayen si tè Jòdla ou la dèmen ou pala Si pyé soutè Ki Moun Ké sonjé-w kon Che Guevara Lavila kout mwen Sav sa Donk touléjou mwen ka fè débouya Pon Moun pa konet dèmen An ni on mantalité géwyé Ka travay mèm lé jou Fèwyé Paka atann si pon Moun Kay chèché lajan la la-y yé Ka fonsé kon vwati bélyé Time Is money Paka atann si rsa rmi Mwen ka Travay pannan kè Moun ka Domi x2 Lévé toupiti Si ghetto gwada city Fè débouya pou siwviv Sawdin é diri Sé sa ki ni sèwten midi Èkstratérès kon E.T Ay lékol pwofésè pani pon pityé Stigmatizé, mwen abityé I di, mwen sé Moun ghetto Mwen péké ay lwen donk Palapenn vin lékol étidyé STA stay true anyway</t>
+          <t>Nonm pa ayen si tè Jodla ou la dèmen ou pala Si pyé soutè Ki Moun Ké sonjé-w kon Che Guevara Lavila kout mwen Sav sa Donk touléjou mwen ka Fè débouya Pon Moun pa konèt dèmen Touléjou bondyé fè jou mwen ka vwè Fanm ka pléré épi Nonm ka soufè Donk Mwen ka Fè sa mwen ni a Fè Pou la fanmi manjé a fen An ka Fè lé bay 2 A fen a yo Lévé toupiti Si ghetto gwada city Fè débouya pou siwviv Pen é konfiti Sé sa ki ni sèwten midi Ekstratérès kon E.T Ay lékol pwofésè pani pon pityé Stigmatizé, mwen abityé I di mwen sé moun ghetto Mwen péké ay lwen donk Palapenn vin lékòl étidyé Donk mwen ka travay Touléjou fè rantré lozèy Pran swen dè timoun an mwen Ba yo lé bon konsèy Mwen Sav ola mwen sòti É mwen Sav ola mwen Kay Pani soumétyé sa fò mwen fè an ka fè Bobo ka sényé mè nou paka pléré Papa lévé nou konsi nou té lawmé Ponp, traksyon, kò la bien géné 4 Touléjou bondyé fè jou mwen ka vwè Fanm ka pléré épi Nonm ka soufè Donk Mwen ka Fè sa mwen ni a Fè Pou la fanmi manjé a fen An ka Fè lé bay 2 A fen a yo an!! Ay chèché kòb-la la-y yé Pa rété bwa kwazé Pani ayen san ayen Travay tousèl ka péyé Bondyé tousèl ki mèt Ka véyé si-w kon santinèl Mové lang mové Lang ou ja konèt Yo vé pa vwè-w ka ri Sa yo lé sé vwè-w ka pléré Lévé an lari Mè kon zétwal mwen lé kléré An Sòti Two lwen Yo di lajòl pa fèt pou chyen Ès sé yenki sa ka sanm mwen Sonbré Dan lilisit Léchèk ou la réisit Touléjou bondyé fè jou mwen ka vwè Fanm ka pléré épi Nonm ka soufè Donk Mwen ka Fè sa mwen ni a Fè Pou la fanmi manjé a fen An ka Fè lé bay 2 A fen a yo Nonm pa ayen si tè Jòdla ou la dèmen ou pala Si pyé soutè Ki Moun Ké sonjé-w kon Che Guevara Lavila kout mwen Sav sa Donk touléjou mwen ka fè débouya Pon Moun pa konet dèmen An ni on mantalité géwyé Ka travay mèm lé jou Fèwyé Paka atann si pon Moun Kay chèché lajan la la-y yé Ka fonsé kon vwati bélyé Time Is money Paka atann si rsa rmi Mwen ka Travay pannan kè Moun ka Domi x2 Lévé toupiti Si ghetto gwada city Fè débouya pou siwviv Sawdin é diri Sé sa ki ni sèwten midi Èkstratérès kon E.T Ay lékol pwofésè pani pon pityé Stigmatizé, mwen abityé I di, mwen sé Moun ghetto Mwen péké ay lwen donk Palapenn vin lékol étidyé STA stay true anyway</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADMIRAL T Yow Drexi DREXI Sisi Admiral ADMIRAL T Ou vwè lanné la sa nou pakay fè yo kado Admiral T ou sav ola mwen soti DREXI Si ghetto ADMIRAL T Yeah DREXI Mafia ADMIRAL T Yeah Well Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan You might also like ADMIRAL T Tala kay piké yo piké yo andidan Pwan plas a boss la non sa pa évidan Yo ka gadé-w si kan Yo palé gwa yo ka palé fò Djèl a yo long Kon bèk a pélikan Bloodclaat DREXI Pi tètla ka gwosi pi yo ka santi yo envensib Pi yo ka fè fòt apwé ka mandé padon Piti a piti a piti yo ka chanjé atitid Ka pwan mové labitid well Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan ADMIRAL T Menm an lari la sé tiblé la Ka gadé-w kon bounty killer killer Paskè fizi la ka rann yo tout awogan Sifi dè yondétwa biatch Pou yo pati o piyaj Abondans a lambi la Ka rann yo tout awogan Mémwa la kout lèspwi la fèb Jou fanmi a yo yo ka disrespect Rien a foutre ban mwen yo tout ja konèt Plézi an mwen dè ba yo maltèt DREXI Pa jouwé lé awogan Ayen pou ayen nou sé donan donan Kwa kibiten sa ka fèt adan on moman Toujou ni rèspè ba manman Poukwa ou vé jouwé lé boss Pou apwé pléré kon ti manman Ou tonbé si pli méchan Gadé-w ka pléré kon ti manmay Ou pâté si cho ou té jis on feu de paille Why ou awogan ou kon de pay Ou mal fè analiz aw Ou konprann ou té dètay Mafia ADMIRAL T Mè poukwa ou awogan Ou si lè virtuel kon awobaz An pa bizwen ékwi on roman Vrai reconnaît vrai ça cest la base Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan ADMIRAL T Téka ba yo favè mè sa sété avan Euh euh Yonn apwé lòt cest la même sa désèvan Euh euh Paka mwen paka mélanjé Adan fucking bakasab a yo Man ah real timoun ghetto Yo pani rèspè pou lé gwan Menm an zyé a syklòn la Pakay ni akalmi non Si yonn diss force dix Mwen ka désan kon louragan Man ah real artist siw sé pussy pussy DREXI Bésé zyé aw kon Silex Zouti filé kon sileks Opéré an silans An ka pasé pa finèt I vé test di mwen ki lès Pou nou fouy a gòch an vitès I awogan i ké ay fè vizit gidé a Biras Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan</t>
+          <t>ADMIRAL T Yow Drexi DREXI Sisi Admiral ADMIRAL T Ou vwè lanné la sa nou pakay fè yo kado Admiral T ou sav ola mwen soti DREXI Si ghetto ADMIRAL T Yeah DREXI Mafia ADMIRAL T Yeah Well Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan ADMIRAL T Tala kay piké yo piké yo andidan Pwan plas a boss la non sa pa évidan Yo ka gadé-w si kan Yo palé gwa yo ka palé fò Djèl a yo long Kon bèk a pélikan Bloodclaat DREXI Pi tètla ka gwosi pi yo ka santi yo envensib Pi yo ka fè fòt apwé ka mandé padon Piti a piti a piti yo ka chanjé atitid Ka pwan mové labitid well Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan ADMIRAL T Menm an lari la sé tiblé la Ka gadé-w kon bounty killer killer Paskè fizi la ka rann yo tout awogan Sifi dè yondétwa biatch Pou yo pati o piyaj Abondans a lambi la Ka rann yo tout awogan Mémwa la kout lèspwi la fèb Jou fanmi a yo yo ka disrespect Rien a foutre ban mwen yo tout ja konèt Plézi an mwen dè ba yo maltèt DREXI Pa jouwé lé awogan Ayen pou ayen nou sé donan donan Kwa kibiten sa ka fèt adan on moman Toujou ni rèspè ba manman Poukwa ou vé jouwé lé boss Pou apwé pléré kon ti manman Ou tonbé si pli méchan Gadé-w ka pléré kon ti manmay Ou pâté si cho ou té jis on feu de paille Why ou awogan ou kon de pay Ou mal fè analiz aw Ou konprann ou té dètay Mafia ADMIRAL T Mè poukwa ou awogan Ou si lè virtuel kon awobaz An pa bizwen ékwi on roman Vrai reconnaît vrai ça cest la base Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan ADMIRAL T Téka ba yo favè mè sa sété avan Euh euh Yonn apwé lòt cest la même sa désèvan Euh euh Paka mwen paka mélanjé Adan fucking bakasab a yo Man ah real timoun ghetto Yo pani rèspè pou lé gwan Menm an zyé a syklòn la Pakay ni akalmi non Si yonn diss force dix Mwen ka désan kon louragan Man ah real artist siw sé pussy pussy DREXI Bésé zyé aw kon Silex Zouti filé kon sileks Opéré an silans An ka pasé pa finèt I vé test di mwen ki lès Pou nou fouy a gòch an vitès I awogan i ké ay fè vizit gidé a Biras Lajan ka rann yo awogan Money ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété sa ka rann yo tout awogan Fizi ka rann yo awogan Lajan ka rann yo awogan Biatch ka flaté yo ka rann yo awogan Notoryété ka rann yo tout awo Sa ka rann yo tout awogan</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dèpi ou rantré an vi An mwen Dèpi jou la kè'w gadé mwen Tout biten yenki chanjé Dépi ou ka santi'w byen Sé sa ki enpòwtan pou mwen My baby Ou sé prinèl a zyé, a zyé, a zyé an mwen Ou sé prinèl a zyé, a zyé, a zyé an mwen Lè'w ka gadé mwen, lé'w ka souri ban mwen Sa ka chouboulé tout an didan an mwen Baby doll, baby doll Pi ou ka gwandi é pi ou ka sanm mwen Pépa rété san vou janmen Baby doll, baby doll Paskè mwen enmé'w Tou senplèman, tou senplèman Baby mwen enmé'w Tandrèman, tandrèman Ou si fwajil Sa mwen lé ba'w, on vi idéal Mond la sa si bwital Mwen lé protéjé'w Baby ou ka fè mwen fonn Chak minit é sègond Kè nou ka pasé ansanm Ka fè mwen santi mwen si vivan Mè ki jan on nonm ou on fanm Pé fè pou maltrété On tikò si inosan, On tikò si inosan Anponjan mwen péké jan Touché prinèl a zyé an mwen Non non non Anponjan mwen péké jan Touché prinèl a zyé an mwen Non non non You might also like Lè'w ka gadé mwen, lé'w ka souri ban mwen Sa ka chouboulé tout an didan an mwen Baby doll, baby doll Pi ou ka gwandi é pi ou ka sanm mwen Pépa rété san vou janmen Baby doll, baby doll Paskè mwen enmé'w Tou senplèman, tou senplèman Baby mwen enmé'w Tandrèman, tandrèman Dèpi ou rantré an vi An mwen Dèpi jou la kè'w gadé mwen Tout biten yenki chanjé Dépi ou ka santi'w byen Sé sa ki enpòwtan pou mwen My baby Ou sé prinèl a zyé, a zyé, a zyé an mwen Ou sé prinèl a zyé, a zyé, a zyé an mwen</t>
+          <t>Dèpi ou rantré an vi An mwen Dèpi jou la kè'w gadé mwen Tout biten yenki chanjé Dépi ou ka santi'w byen Sé sa ki enpòwtan pou mwen My baby Ou sé prinèl a zyé, a zyé, a zyé an mwen Ou sé prinèl a zyé, a zyé, a zyé an mwen Lè'w ka gadé mwen, lé'w ka souri ban mwen Sa ka chouboulé tout an didan an mwen Baby doll, baby doll Pi ou ka gwandi é pi ou ka sanm mwen Pépa rété san vou janmen Baby doll, baby doll Paskè mwen enmé'w Tou senplèman, tou senplèman Baby mwen enmé'w Tandrèman, tandrèman Ou si fwajil Sa mwen lé ba'w, on vi idéal Mond la sa si bwital Mwen lé protéjé'w Baby ou ka fè mwen fonn Chak minit é sègond Kè nou ka pasé ansanm Ka fè mwen santi mwen si vivan Mè ki jan on nonm ou on fanm Pé fè pou maltrété On tikò si inosan, On tikò si inosan Anponjan mwen péké jan Touché prinèl a zyé an mwen Non non non Anponjan mwen péké jan Touché prinèl a zyé an mwen Non non non Lè'w ka gadé mwen, lé'w ka souri ban mwen Sa ka chouboulé tout an didan an mwen Baby doll, baby doll Pi ou ka gwandi é pi ou ka sanm mwen Pépa rété san vou janmen Baby doll, baby doll Paskè mwen enmé'w Tou senplèman, tou senplèman Baby mwen enmé'w Tandrèman, tandrèman Dèpi ou rantré an vi An mwen Dèpi jou la kè'w gadé mwen Tout biten yenki chanjé Dépi ou ka santi'w byen Sé sa ki enpòwtan pou mwen My baby Ou sé prinèl a zyé, a zyé, a zyé an mwen Ou sé prinèl a zyé, a zyé, a zyé an mwen</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bang bili bili bang bang Bang bili bili bang bang Bang bili bili bang bang bang ban Admiral T well this is another one Thick thigh Kon Stefflon Don Baby di yo ki moun ki number one Mi sing seh Gòch dwat dwat gòch Baby ou an bidèks Gal wine and kotch Ren aw an latèks Anplis ou bèl ou pa mòch Siw yo ka pwenté lendèks All eyes on you gal Pas séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal Cuz you wicked to bloodclaat When you tip pon yuh toe Mi pon yuh back ka mèt sa rèd mawto Mové génaj génaj pépa trapé maldo Mové génaj génaj pépa trapé maldo Pretty gal ou pé kriyéan Rambo Mwen ni plis andirans ki ni pètalon si Zalando Ou danjérèz kon flanm Ban pòtéw kon flambo Ou danjérèz kon flanm You might also likeGal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you pas Gal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal Pas gal ou karizmatik Paka santi fatig Pépa rèsté statik Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Et de la technique Bend ova gal Gal wine pon yuh head Bend ova gal Gal wine pon yuh head If a gal try dis asi you ka mèt sa rèd Tousaw ka fè mwen ka fè Mwen an do aw kon bobsleigh Bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you pas Gal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal All eyes on you gal Cuz you bad bad bad like F All eyes on you gal Baby di yo ki moun ki number one Mi sing seh Gòch dwat dwat gòch Baby ou an bidèks Gal wine and kotch Ren aw an latèks Anplis ou bèl ou pa mòch Siw yo ka pwenté lendèks All eyes on you gal Pas séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal pas Gal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal</t>
+          <t>Bang bili bili bang bang Bang bili bili bang bang Bang bili bili bang bang bang ban Admiral T well this is another one Thick thigh Kon Stefflon Don Baby di yo ki moun ki number one Mi sing seh Gòch dwat dwat gòch Baby ou an bidèks Gal wine and kotch Ren aw an latèks Anplis ou bèl ou pa mòch Siw yo ka pwenté lendèks All eyes on you gal Pas séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal Cuz you wicked to bloodclaat When you tip pon yuh toe Mi pon yuh back ka mèt sa rèd mawto Mové génaj génaj pépa trapé maldo Mové génaj génaj pépa trapé maldo Pretty gal ou pé kriyéan Rambo Mwen ni plis andirans ki ni pètalon si Zalando Ou danjérèz kon flanm Ban pòtéw kon flambo Ou danjérèz kon flanm Gal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you pas Gal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal Pas gal ou karizmatik Paka santi fatig Pépa rèsté statik Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Tas du flow Et de la technique Bend ova gal Gal wine pon yuh head Bend ova gal Gal wine pon yuh head If a gal try dis asi you ka mèt sa rèd Tousaw ka fè mwen ka fè Mwen an do aw kon bobsleigh Bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you pas Gal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal All eyes on you gal Cuz you bad bad bad like F All eyes on you gal Baby di yo ki moun ki number one Mi sing seh Gòch dwat dwat gòch Baby ou an bidèks Gal wine and kotch Ren aw an latèks Anplis ou bèl ou pa mòch Siw yo ka pwenté lendèks All eyes on you gal Pas séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal pas Gal séw ki pi bad bad bad bad bad bad Gadé jan real thug ka bavé kon bulldog Pas ou bad bad bad bad bad bad bad All eyes on you gal</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho La fimé la fimé, Ka kawmos An bizwen rivé Baimbridge pou midi enka Mè an pani loto an mwen fan fè débwouya Dèpi on moman an si pon gaba Kasayé kasayé kasayé kasayé Alfa Roméo Lamborghini An tout jan fan monté a Baimbridge Monsieur déposez moi à Baimbridge You might also likeBaimbridge Cho Baimbridge Cho Me say Baimbridge Cho Fè classroom touné an bando Yo lé flex, flex épi fimé bédo Méré lékòl ba manman épi papa maltèt, tèt Èvè si zòt paré mésyé an nou ay Baimbridge Cho mi la sa ka bay Yo tout ni sakodo mè sav apa lékòl yo kay Yo ka nipanlen panlan pan Lipanlen panlan pi Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Woulé kasayé é é kasayé Chak jénérasyon sé konsa Si whatsapp yo vwè-y ka fè vis Épi Pierre Paul Jacques A laj ay tifi la cho kon bonda ManJak Si whatsapp yo vwè-y ka fè vis Épi Pierre Paul Jacques Poutan sé lékòl manman-y voyé-y lékòl Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Good girl gone bad Ba-ba-ba-bad ba-bad Faut que jeunesse se fasse Pa ban ga-ga-ga-gaz Yo vlé winé winé Abiyé sexi Nèf mwa apwé vantla gwo kon èwbag Ba-ba-bag Èvè si zòt paré mésyé an nou ay Baimbridge Cho mi la sa ka bay Yo tout ni sakodo mè sav apa lékòl yo kay Yo ka nipanlen panlan pan Lipanlen panlan pi Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Yé Were Vana man la fimé Admiral t again Sav ola mwen sòti Baimbridge cho, baimbridge cho</t>
+          <t>Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho La fimé la fimé, Ka kawmos An bizwen rivé Baimbridge pou midi enka Mè an pani loto an mwen fan fè débwouya Dèpi on moman an si pon gaba Kasayé kasayé kasayé kasayé Alfa Roméo Lamborghini An tout jan fan monté a Baimbridge Monsieur déposez moi à Baimbridge Baimbridge Cho Baimbridge Cho Me say Baimbridge Cho Fè classroom touné an bando Yo lé flex, flex épi fimé bédo Méré lékòl ba manman épi papa maltèt, tèt Èvè si zòt paré mésyé an nou ay Baimbridge Cho mi la sa ka bay Yo tout ni sakodo mè sav apa lékòl yo kay Yo ka nipanlen panlan pan Lipanlen panlan pi Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Woulé kasayé é é kasayé Chak jénérasyon sé konsa Si whatsapp yo vwè-y ka fè vis Épi Pierre Paul Jacques A laj ay tifi la cho kon bonda ManJak Si whatsapp yo vwè-y ka fè vis Épi Pierre Paul Jacques Poutan sé lékòl manman-y voyé-y lékòl Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Good girl gone bad Ba-ba-ba-bad ba-bad Faut que jeunesse se fasse Pa ban ga-ga-ga-gaz Yo vlé winé winé Abiyé sexi Nèf mwa apwé vantla gwo kon èwbag Ba-ba-bag Èvè si zòt paré mésyé an nou ay Baimbridge Cho mi la sa ka bay Yo tout ni sakodo mè sav apa lékòl yo kay Yo ka nipanlen panlan pan Lipanlen panlan pi Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Pannan sé timouna Kay lékòl a baimbridge o Baimbridge Cho Yo ka di manman yo ka fè daktilo Baimbridge Cho Maman je tape à la machine Baimbridge Cho Yé Were Vana man la fimé Admiral t again Sav ola mwen sòti Baimbridge cho, baimbridge cho</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Éwa, Rohff, Pour tous les massifs authentiques Brûle le Bling-Bling Brûle le Bling-Bling Brûle le Bling-Bling Fuck le Bling-Bling Monsieur Rohff veuillez sortir les cuivres Vive le 501 et le cuir Moi je baise le rap comme Bob Marley a enculé le reggae demande à Ziggy Tu fais boogie boogie dans ton baggy t'prends pour Biggie Nique sa mère l'Empire State Building Des bastos pleines de protéines si tu fais du body building J'ai glissé de l'harissa tounsi dans ton Mc Morning Le carnaval de Londres en 4x4 à cinquante mille livres sterlings C'est pas une guez-mer, enfile un beau string, c'est tout le monde dans le ring Même en jogging j'ai la cote plus que toi en smoking Bombers Il paraît que tu mets des Pampers Depuis que je suis revenu je rappe peut-être mieux Mon album sort comme un détenu Je domine la France comme le gal-Sen Quitte à ce que mon égal saigne, la oual fait pas le moine Laisse pousser les cheveux man T'as beau faire tes clips à New-York Tant que tu chanteras comme une pédale tu feras pas le refrain You might also like On chante pas pour serrer des femmes, notre style est infâme C'est de la baise, ici c'est reality, pas MTV base On se fâche contre vous, vous êtes falche comme vos bijoux Nique le star system, on fait jump up tes locks, ici c'est sound system Si tu veux t'clash , donne du cash, goûte notre gouache Transmutations dans ta gueule, c'est AstéRo-H 2 F, c'est pas cra-ri, imitation cain-ri Mais t'inquiètes qu'il rase les murs quand il chante à Paris On chante pas pour serrer des femmes, notre style est infâme C'est de la baise, ici c'est reality, pas MTV base On se fâche contre vous, vous êtes falche comme vos bijoux Nique le star system, on fait jump up tes locks, ici c'est sound system On reconnaît Rohff, c'est un peu comme Admiral T mais au ralenti Je suis admirable p'tit, ça joue les P-I-M-P twenty Cent qu'est-ce qui ce bins C'est le flow criminel du 9.4 pas du Queens T'es prêt à te ruiner pour ressembler à Jay-Z tu pourrais pioncer Sur les excréments de Beyoncé Les rappeurs souffrent de problèmes de personnalité Vas-y raccroche ton hardcore n'a pas de tonalité Black à rap, ragga rap, calamité Lâche-moi la grappe, moi je te braque gratte pas l'amitié C'est manier les mots par les bracos de flingues T'es flingué portrait craché d'une baltringue T'as déjà baltringué, j'aime pas comment t'es fringué Manque plus que tu mettes du rose, bolosse, que tu te fasses fourrer avec ta fourrure De Fabulous, tu portes des bijoux, t'es comme une femme heureuse Tu boudes pour un bisou, tu fais ton amoureuse X2 On chante pas pour serrer des femmes, notre style est infâme C'est de la baise, ici c'est reality, pas MTV base On se fâche contre vous, vous êtes vache comme vos bijoux Nique le star system, on fait ici c'est sound system1</t>
+          <t>Éwa, Rohff, Pour tous les massifs authentiques Brûle le Bling-Bling Brûle le Bling-Bling Brûle le Bling-Bling Fuck le Bling-Bling Monsieur Rohff veuillez sortir les cuivres Vive le 501 et le cuir Moi je baise le rap comme Bob Marley a enculé le reggae demande à Ziggy Tu fais boogie boogie dans ton baggy t'prends pour Biggie Nique sa mère l'Empire State Building Des bastos pleines de protéines si tu fais du body building J'ai glissé de l'harissa tounsi dans ton Mc Morning Le carnaval de Londres en 4x4 à cinquante mille livres sterlings C'est pas une guez-mer, enfile un beau string, c'est tout le monde dans le ring Même en jogging j'ai la cote plus que toi en smoking Bombers Il paraît que tu mets des Pampers Depuis que je suis revenu je rappe peut-être mieux Mon album sort comme un détenu Je domine la France comme le gal-Sen Quitte à ce que mon égal saigne, la oual fait pas le moine Laisse pousser les cheveux man T'as beau faire tes clips à New-York Tant que tu chanteras comme une pédale tu feras pas le refrain On chante pas pour serrer des femmes, notre style est infâme C'est de la baise, ici c'est reality, pas MTV base On se fâche contre vous, vous êtes falche comme vos bijoux Nique le star system, on fait jump up tes locks, ici c'est sound system Si tu veux t'clash , donne du cash, goûte notre gouache Transmutations dans ta gueule, c'est AstéRo-H 2 F, c'est pas cra-ri, imitation cain-ri Mais t'inquiètes qu'il rase les murs quand il chante à Paris On chante pas pour serrer des femmes, notre style est infâme C'est de la baise, ici c'est reality, pas MTV base On se fâche contre vous, vous êtes falche comme vos bijoux Nique le star system, on fait jump up tes locks, ici c'est sound system On reconnaît Rohff, c'est un peu comme Admiral T mais au ralenti Je suis admirable p'tit, ça joue les P-I-M-P twenty Cent qu'est-ce qui ce bins C'est le flow criminel du 9.4 pas du Queens T'es prêt à te ruiner pour ressembler à Jay-Z tu pourrais pioncer Sur les excréments de Beyoncé Les rappeurs souffrent de problèmes de personnalité Vas-y raccroche ton hardcore n'a pas de tonalité Black à rap, ragga rap, calamité Lâche-moi la grappe, moi je te braque gratte pas l'amitié C'est manier les mots par les bracos de flingues T'es flingué portrait craché d'une baltringue T'as déjà baltringué, j'aime pas comment t'es fringué Manque plus que tu mettes du rose, bolosse, que tu te fasses fourrer avec ta fourrure De Fabulous, tu portes des bijoux, t'es comme une femme heureuse Tu boudes pour un bisou, tu fais ton amoureuse X2 On chante pas pour serrer des femmes, notre style est infâme C'est de la baise, ici c'est reality, pas MTV base On se fâche contre vous, vous êtes vache comme vos bijoux Nique le star system, on fait ici c'est sound system1</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mister Francky Admiral T, bo-bo-bo-boss lady Bliiiit limé mic la, Krys again Fi di gyal dem, mi say Gal inna di punny printer I need di gal inna di batty rider by far Gal inna di punny printer woy I need di gal inna di batty, well Independant, personne ne paye ta cuenta One man fi your poom poom Fi your poom poom pa trenta Shes a bitch, les jalouses, elles ne taiment pas Mais tu ten fous comme bébé dans placenta I love it when you whine pon it Slow whine, palapen ay two vit Dem say shes a bitch I love it when you whine pon it Ou danjérèz kon bonm atomik Dem say shes a, dem say shes a bitch Mais tu ten bats les ovaires, tu ten fiches Paka palé twòp paka fè gwan speech Pòch aw plen chif Whine slow doudou, fout ou ni flow Kolé si mwen kon Lilo et Stitch Gal, fout ou bonne Indépendante, tu ne dois rien à personne Come get some, pretty gal, viens voir le Don You work like, you ah talk like a champion, big up Buju Banton You might also like Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Ayayay baby i like that, yes I like that Yes I like that, when you whine like that I like everything about you, your smile and your size And the way that your whine, make mi ting rise Corps de lespace, ou ka whiné kon Spice Ou ka ban mwen ouh, ouh, spasme é extase Woyoy, gal dem trop bonne, an pon jan an pé pa finn solo Ou afon si yo, dé ren aw pa konèt molo One life nou ni, lévé vè aw kriyé YOLO Mèt difé, fo nou kriyé lé ponpyé kon Ragga Bolo Bésé èvè whiné, whine and go low Sé vou ki ka lead, sé lé zot la ka follow Yo tout pétay lè ou ladjé on butterfly Lè si mwen ou vini whine, an kriyé Woulo ! Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Ayayay baby i like that, yes I like that Yes I like that, when you whine like that Ou vlé tchèk on don dada, vlé pa tchèck pon boug ki fèb Egzékité yo kata, montwé yo ki jan pou fè Booty shake, booty-booty shake, do di booty shake Booty shake, booty-booty shake, do di booty shake Make that booty shake, baby kolé asi mwen kon lakòl Mété tout moun ki la dakò Gal bend ova, back up Make that booty shake, gal you a boss lady You a boss, èvè ou ka briyé kon gloss, baby Gal inna di punny printer I need di gal inna di batty rider, by far Gal inna di punny printer woy I need di gal inna di batty well Gal you ah boss Pretty gal you ah boss If you know you ah boss Ladies let me hear you scream Boss lady Gal you a boss Pretty gal you a boss If you know you a boss Ladies, let me hear you scream Boss lady Baby i like that, yes I like that Hahaha, Admiral T, K-R-Y-S Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Boss lady</t>
+          <t>Mister Francky Admiral T, bo-bo-bo-boss lady Bliiiit limé mic la, Krys again Fi di gyal dem, mi say Gal inna di punny printer I need di gal inna di batty rider by far Gal inna di punny printer woy I need di gal inna di batty, well Independant, personne ne paye ta cuenta One man fi your poom poom Fi your poom poom pa trenta Shes a bitch, les jalouses, elles ne taiment pas Mais tu ten fous comme bébé dans placenta I love it when you whine pon it Slow whine, palapen ay two vit Dem say shes a bitch I love it when you whine pon it Ou danjérèz kon bonm atomik Dem say shes a, dem say shes a bitch Mais tu ten bats les ovaires, tu ten fiches Paka palé twòp paka fè gwan speech Pòch aw plen chif Whine slow doudou, fout ou ni flow Kolé si mwen kon Lilo et Stitch Gal, fout ou bonne Indépendante, tu ne dois rien à personne Come get some, pretty gal, viens voir le Don You work like, you ah talk like a champion, big up Buju Banton Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Ayayay baby i like that, yes I like that Yes I like that, when you whine like that I like everything about you, your smile and your size And the way that your whine, make mi ting rise Corps de lespace, ou ka whiné kon Spice Ou ka ban mwen ouh, ouh, spasme é extase Woyoy, gal dem trop bonne, an pon jan an pé pa finn solo Ou afon si yo, dé ren aw pa konèt molo One life nou ni, lévé vè aw kriyé YOLO Mèt difé, fo nou kriyé lé ponpyé kon Ragga Bolo Bésé èvè whiné, whine and go low Sé vou ki ka lead, sé lé zot la ka follow Yo tout pétay lè ou ladjé on butterfly Lè si mwen ou vini whine, an kriyé Woulo ! Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Ayayay baby i like that, yes I like that Yes I like that, when you whine like that Ou vlé tchèk on don dada, vlé pa tchèck pon boug ki fèb Egzékité yo kata, montwé yo ki jan pou fè Booty shake, booty-booty shake, do di booty shake Booty shake, booty-booty shake, do di booty shake Make that booty shake, baby kolé asi mwen kon lakòl Mété tout moun ki la dakò Gal bend ova, back up Make that booty shake, gal you a boss lady You a boss, èvè ou ka briyé kon gloss, baby Gal inna di punny printer I need di gal inna di batty rider, by far Gal inna di punny printer woy I need di gal inna di batty well Gal you ah boss Pretty gal you ah boss If you know you ah boss Ladies let me hear you scream Boss lady Gal you a boss Pretty gal you a boss If you know you a boss Ladies, let me hear you scream Boss lady Baby i like that, yes I like that Hahaha, Admiral T, K-R-Y-S Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Baby i like that, yes I like that Yes I like that, when you whine like that Boss lady</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Intro - Admiral T Ah yeah, ah yeah Pipo Beats! Caribbean girl Beauté à l'état pur Tu mérites un homme à ta hauteur Un Toussaint Louverture ! Princess, Admiral T, Guadeloupe et Haïti Ou sav ola man sòti Refrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love Im in love with you! I'm in love with you. Couplet 1 - Admiral T Gyal give me your number number number Give me your number number number Faites sonner le gong Baby t'es une bombe Tu fais de l'ombre à tout le monde Give me your number number number Give me your number number number Tu m'as brouillé les ondes Zigi zigi zong zigi zong ga zi Et ça sans wayner ton bumpa! Caribbean princess ! You are the best of the best ! É sa pon moune pé pa contest Mwen ja lass di yo'y Fanm Ayiti yo top top top Fanm Gwadeloup yo top top top Tout fanm karayib yo Yo top You might also likeRefrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love Im in love with you! Im in love with you. Pont - Princess Eud Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won Couplet 2 - Dead Kra-Z Hello, how are you? Comment vas-tu belle mamacitá? M'ap veye map met may Pran ti jòf mwen si ou t'a mal chita Lè n'ap dragué n' chaje ak mannyè Si wsanti w' pran ki kout wòch Konnen ou pran nan nèg Bainet Nèg Aux Cayes kolokent Nèg Jérémie fè nan fè poesie Nèg Au Cap pran swen w' Vagabond Port au Prince ba w' plezi Sis se Kan w'pran w'konnen Nèg Léogane fann nan karnn Pa pawòl tafya Nèg Arcahaie dekoupe w' nan bannann Refrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love I'm in love with you! I'm in love with you. Couplet 3 - Princess Eud Koyo, kiyè fè Makoklen, Gason ki Djèdjè, Gason kou rèd Gason k'pa konn koze Freluquet, Ti blada Sa k'paka fè m'vini ki mare kou krab 2, 3 mouvman w'fini Lè m'ap pale fè m'depale Jès, ton, aksyon, pasyon Pran san w'pou w'byen pedale 1, 2 fruit de la passion Konpetans m'ap chèche M'santi m'pral byen pase Fun, joy, plezi, jwi jwi jwi la vi! Refrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love I'm in love with you! I'm in love with you. It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love I'm in love with you! I'm in love with you. Pont - Princess Eud Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won</t>
+          <t>Intro - Admiral T Ah yeah, ah yeah Pipo Beats! Caribbean girl Beauté à l'état pur Tu mérites un homme à ta hauteur Un Toussaint Louverture ! Princess, Admiral T, Guadeloupe et Haïti Ou sav ola man sòti Refrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love Im in love with you! I'm in love with you. Couplet 1 - Admiral T Gyal give me your number number number Give me your number number number Faites sonner le gong Baby t'es une bombe Tu fais de l'ombre à tout le monde Give me your number number number Give me your number number number Tu m'as brouillé les ondes Zigi zigi zong zigi zong ga zi Et ça sans wayner ton bumpa! Caribbean princess ! You are the best of the best ! É sa pon moune pé pa contest Mwen ja lass di yo'y Fanm Ayiti yo top top top Fanm Gwadeloup yo top top top Tout fanm karayib yo Yo top Refrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love Im in love with you! Im in love with you. Pont - Princess Eud Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won Couplet 2 - Dead Kra-Z Hello, how are you? Comment vas-tu belle mamacitá? M'ap veye map met may Pran ti jòf mwen si ou t'a mal chita Lè n'ap dragué n' chaje ak mannyè Si wsanti w' pran ki kout wòch Konnen ou pran nan nèg Bainet Nèg Aux Cayes kolokent Nèg Jérémie fè nan fè poesie Nèg Au Cap pran swen w' Vagabond Port au Prince ba w' plezi Sis se Kan w'pran w'konnen Nèg Léogane fann nan karnn Pa pawòl tafya Nèg Arcahaie dekoupe w' nan bannann Refrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love I'm in love with you! I'm in love with you. Couplet 3 - Princess Eud Koyo, kiyè fè Makoklen, Gason ki Djèdjè, Gason kou rèd Gason k'pa konn koze Freluquet, Ti blada Sa k'paka fè m'vini ki mare kou krab 2, 3 mouvman w'fini Lè m'ap pale fè m'depale Jès, ton, aksyon, pasyon Pran san w'pou w'byen pedale 1, 2 fruit de la passion Konpetans m'ap chèche M'santi m'pral byen pase Fun, joy, plezi, jwi jwi jwi la vi! Refrain - Princess Eud Admiral T It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love I'm in love with you! I'm in love with you. It's a Caribbean love Caribbean love gyal, Caribbean Caribbean love Caribbean love gyal, Caribbean It's a Caribbean love, Caribbean love I'm in love with you! I'm in love with you. Pont - Princess Eud Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won Tell me something new Tell me now, something that turn me on Dis-moi des trucs de chez toi, des jargons plaisants Ki ka fè tèt an mwen vire tou won</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An nou ay Admiral T ou sav ola mwen sòti well Avantyè nou té konsa Donk poukwa jòdla Antrè nou sé lagè I say Yeah yeah yeah say Yeah yeah yeah Avantyè nou té konsa Mè jòdla antrè nou sé lagè I say Yeah yeah yeah Yeah yeah yeah Pannan kè Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Ka sa yé ban mwen woy You might also likeVwazin é vwazen vlé tjouyé mwen Yo divini piw lènmi an mwen Konprann yo yo paka konprann mwen Woy woy woy woy woy Pamenm pé kouté mizik an mwen San kè yo voyé jandam ban mwen Konprann yo yo paka konprann mwen Woy woy Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen A kaz an mwen té tini rat An chéché on chat Pouy té manjé rat Météy a kaz an mwen Mè on dimanche oswa An rantré fatigé Ja pwan déoutwa kou Mwen alé kouché Zanmi an dòmi an dòmi an dòmi An dòmi an dòmi woy Mwen ké ba-w la rèstan Adan on ti moman Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Ka sa yé ban mwen woy Somèy la vinn koupé Ka tann on ti tren Anba kouch an mwen Swit swit swit swit woy An lévé Sizé an pwan zalimèt an mwen Limé lanp an mwen Ka kléré anba kouch An ka vwè dé rat Tjenbé chat an mwen Ka tété chat anba kouch an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Anba kouch an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Ka sa yé ban mwen Pannan kè Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen O na na na woy O na na na</t>
+          <t>An nou ay Admiral T ou sav ola mwen sòti well Avantyè nou té konsa Donk poukwa jòdla Antrè nou sé lagè I say Yeah yeah yeah say Yeah yeah yeah Avantyè nou té konsa Mè jòdla antrè nou sé lagè I say Yeah yeah yeah Yeah yeah yeah Pannan kè Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Ka sa yé ban mwen woy Vwazin é vwazen vlé tjouyé mwen Yo divini piw lènmi an mwen Konprann yo yo paka konprann mwen Woy woy woy woy woy Pamenm pé kouté mizik an mwen San kè yo voyé jandam ban mwen Konprann yo yo paka konprann mwen Woy woy Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen A kaz an mwen té tini rat An chéché on chat Pouy té manjé rat Météy a kaz an mwen Mè on dimanche oswa An rantré fatigé Ja pwan déoutwa kou Mwen alé kouché Zanmi an dòmi an dòmi an dòmi An dòmi an dòmi woy Mwen ké ba-w la rèstan Adan on ti moman Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Ka sa yé ban mwen woy Somèy la vinn koupé Ka tann on ti tren Anba kouch an mwen Swit swit swit swit woy An lévé Sizé an pwan zalimèt an mwen Limé lanp an mwen Ka kléré anba kouch An ka vwè dé rat Tjenbé chat an mwen Ka tété chat anba kouch an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Anba kouch an mwen Mwen pâté savé Chat épi rat a konplisité a kaz an mwen Ka sa yé ban mwen Pannan kè Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen Chat ka tété rat, Pannan kè Rat la tété chat, Pannan kè Chat ka tété rat, Pannan kè Anba kouch an mwen O na na na woy O na na na</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yeah man Admiral T again Pearl P-p-p-Pearl! C'est du dancehall que les gens veulent Ils veulent du Elephant Man ou bien du Sean Paul Joue-leur du Admiral T et Pearl Sur un boggle pour faire crier les boys et les girls Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter C'est du dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Et que ça leur est égal Dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Yo so mi go so En France on danse le dancehall en se lançant les membres dans tout les sens Certains sont venus aux Antilles pendant les vacances D'autres visionnent les clips de dancehall pour reprendre les pas de danse Bretagne, Espagne, Allemagne, en Thailande bwoy En ville et même dans les campagnes Les gens écoutent du dancehall partout dans le monde Et les basses, dans les baffles, baffles, baffles grondent You might also like Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter C'est la sista Pearl et Admiral T Qui débarquent ici pour un dancehall RnB Gwadada Guyana pour un flow brut du pays Écoute un peu ce qu'on a à te dire Tout le monde est irie Dans la danse yeah Ils aiment le dance hall et dansent en cadence Mon job c'est d'informer de mettre l'ambiance Les hypnotiser yeah Les mettre en transe yeah yeah yeah yeah Eh barman ka fai on jen cho man Ban bwè ti bwen dlo man Pou mwen continué mèt' sa wo man Lé gentlemans et lé ladys ka atten' man Nou pani ten a pèd man yo Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter Dancehall explosé kon bombe atomic boy Passke ni lonten que certain DJ ka travail Matin midi et soi jou apré jou, mois apré mois, lanné apré lanné Èvè nou pa jan moli on mail Donc pas conpren' kè dancehall c'est yinki style Ke toute DJ ka chanté slack dèyè on mic Des paroles censées si on riddim ka baw envi wyne Mété zot ka wyne Mété zot ka wyne Mété zot ka wyne Mété zot ka wyne Sur ce son dancehall donne-moi quelques parts Sur ce son dancehall tu vois on est là Sur ce son dancehall Gwada Guyana Représente alors que si t'es là Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter C'est du dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Et que ça leur est égal Dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Yo so mi go so dancehall yeah</t>
+          <t>Yeah man Admiral T again Pearl P-p-p-Pearl! C'est du dancehall que les gens veulent Ils veulent du Elephant Man ou bien du Sean Paul Joue-leur du Admiral T et Pearl Sur un boggle pour faire crier les boys et les girls Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter C'est du dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Et que ça leur est égal Dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Yo so mi go so En France on danse le dancehall en se lançant les membres dans tout les sens Certains sont venus aux Antilles pendant les vacances D'autres visionnent les clips de dancehall pour reprendre les pas de danse Bretagne, Espagne, Allemagne, en Thailande bwoy En ville et même dans les campagnes Les gens écoutent du dancehall partout dans le monde Et les basses, dans les baffles, baffles, baffles grondent Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter C'est la sista Pearl et Admiral T Qui débarquent ici pour un dancehall RnB Gwadada Guyana pour un flow brut du pays Écoute un peu ce qu'on a à te dire Tout le monde est irie Dans la danse yeah Ils aiment le dance hall et dansent en cadence Mon job c'est d'informer de mettre l'ambiance Les hypnotiser yeah Les mettre en transe yeah yeah yeah yeah Eh barman ka fai on jen cho man Ban bwè ti bwen dlo man Pou mwen continué mèt' sa wo man Lé gentlemans et lé ladys ka atten' man Nou pani ten a pèd man yo Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter Dancehall explosé kon bombe atomic boy Passke ni lonten que certain DJ ka travail Matin midi et soi jou apré jou, mois apré mois, lanné apré lanné Èvè nou pa jan moli on mail Donc pas conpren' kè dancehall c'est yinki style Ke toute DJ ka chanté slack dèyè on mic Des paroles censées si on riddim ka baw envi wyne Mété zot ka wyne Mété zot ka wyne Mété zot ka wyne Mété zot ka wyne Sur ce son dancehall donne-moi quelques parts Sur ce son dancehall tu vois on est là Sur ce son dancehall Gwada Guyana Représente alors que si t'es là Hey DJ mets-nous du dancehall Ce soir je danse avec mon baby boy Tu sais que cette musique me fait vibrer Ferme les yeux et laisse la musique dancehall t'emporter Hey DJ mets-nous du dancehall Ce soir je danse avec mon sexy boy Quand je l'entends je peux tout oublier Ferme les yeux et laisse la musique dancehall t'emporter C'est du dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Et que ça leur est égal Dancehall que les gens réclament dans la salle Dancehall qu'on entend dans toutes les capitales Dancehall underground ou commercial L'important c'est que ça bouge Yo so mi go so dancehall yeah</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ian misè, wè sa trist Pov tini anko plis Sa ki ja ni vlé plis Sa sé avaris Refrain Lè ou pa ni, ou obligé fè débrouya Fè tou sa ou pé pou soti en brouya Lajouné ka travay rèd, lè swa sé masé ko la Pou pé ni asé fos pou lèlandèmen la Lévé gran bonnè maten, bényé, abiyé Kouri poté mannèv, fè sa ou ni pou fè Timoun ka pléré pa ni lajan an potfèy Oblijé fè krédi a ka Man Rojé La vi sé kon pil ou fas Lè ou pov, ou byen ou pov Ou ka mandé bondyé fos Pou-w pa pwan pon ti enpas Pou-w pé avansé dwèt dwèt douvan Soti an soufwans Refrain Man pa flipé, pa lagé, pa blésé Pa fwéné, pa tonbé, pa sizé, pa pléré Pa changé, pa stopé, pryé dyé Pa lésé babylon ri dèy é zanmi-aw Lévé tèt aw, pa jen bésé tèt aw Toujou rété mèt aw, toujou péyé dèt-aw Rété mèt an tèt-aw, an jou sé ké fèt-aw Pas jah jah sé li sèlman ki pèr nowèl Sé li ki mété-w well La vi té ké two bèl Si tou lé jou sé té nowèl You might also likeRefrain Ou ka travay non stop kon machin Kon moun ki ka pran kokayin Ou ka kenn kon pil alkalin Pou timoun-aw pa konnèt famin Yo ka pwenté dwèt si-w an lari Lékol, timoun-aw pa ka ri Pon moun vlé pa yo pou zanmi Yo rèjèté pas yo pa ni Lè sa rèd sé pen é sawdin Menm lè biten la clean Fo-w ay pwan sèl aka la vwazin Ou ka priyé pou on jou sa fin Lè sa rèd sé pen é sardin</t>
+          <t>Ian misè, wè sa trist Pov tini anko plis Sa ki ja ni vlé plis Sa sé avaris Refrain Lè ou pa ni, ou obligé fè débrouya Fè tou sa ou pé pou soti en brouya Lajouné ka travay rèd, lè swa sé masé ko la Pou pé ni asé fos pou lèlandèmen la Lévé gran bonnè maten, bényé, abiyé Kouri poté mannèv, fè sa ou ni pou fè Timoun ka pléré pa ni lajan an potfèy Oblijé fè krédi a ka Man Rojé La vi sé kon pil ou fas Lè ou pov, ou byen ou pov Ou ka mandé bondyé fos Pou-w pa pwan pon ti enpas Pou-w pé avansé dwèt dwèt douvan Soti an soufwans Refrain Man pa flipé, pa lagé, pa blésé Pa fwéné, pa tonbé, pa sizé, pa pléré Pa changé, pa stopé, pryé dyé Pa lésé babylon ri dèy é zanmi-aw Lévé tèt aw, pa jen bésé tèt aw Toujou rété mèt aw, toujou péyé dèt-aw Rété mèt an tèt-aw, an jou sé ké fèt-aw Pas jah jah sé li sèlman ki pèr nowèl Sé li ki mété-w well La vi té ké two bèl Si tou lé jou sé té nowèl Refrain Ou ka travay non stop kon machin Kon moun ki ka pran kokayin Ou ka kenn kon pil alkalin Pou timoun-aw pa konnèt famin Yo ka pwenté dwèt si-w an lari Lékol, timoun-aw pa ka ri Pon moun vlé pa yo pou zanmi Yo rèjèté pas yo pa ni Lè sa rèd sé pen é sawdin Menm lè biten la clean Fo-w ay pwan sèl aka la vwazin Ou ka priyé pou on jou sa fin Lè sa rèd sé pen é sardin</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nou tout' sé nonm Fèt épi po, chè, zo Nou tout' ni kè ka bat' an l'estomak an nou Epi sé pou sa fow toujou mèt' an tèt aw kè Nimpot' bitin pé rivé nimpot' ki lèss d'entre nous a nimpot' ki lè Fo kè nonm épi fanm' bien comprenn' Kè la vi pa monotonn' Kè aprè l'été sé l'otonn' Kè nimpot' bitin pé rivé nimpot' ki man Mèm doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage On jou ou kin santiw mal a laiz Kè sa pa kay kèw ka fè on criz Poutan ou té ni on vi paradiz En bonne santé d'aprè les analyz Toujou pensé kè sa té pé rivé Anne-lise Mè pa vou baw sa té impossible Pon moun pa a l'abri de surpriz Pass mèm doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage You might also likeOu té lwen d'imaginé ki on jou Chofaw la kèw vwè a la télé té pé èt' vou Poutan ou pa té mèm sou Ou paka bwè, alkol sé pa pou vou Ou ka kilpabilizé presk a vinn' fou Mè fow di vou bien an tèt' a vou Kè victim la sa té pé èt' vou Pass mèm doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage Pass nimpot' bitin pé rivé nimpot' ki moun a nimpot' ki lè Vi aw pé sanm' le paradi jod' la dèmin sanm' l'enfè Sé pou sa kè, lèw vwè on moun ka soufè, pa jigéy pa méprizéy x2 Doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage...</t>
+          <t>Nou tout' sé nonm Fèt épi po, chè, zo Nou tout' ni kè ka bat' an l'estomak an nou Epi sé pou sa fow toujou mèt' an tèt aw kè Nimpot' bitin pé rivé nimpot' ki lèss d'entre nous a nimpot' ki lè Fo kè nonm épi fanm' bien comprenn' Kè la vi pa monotonn' Kè aprè l'été sé l'otonn' Kè nimpot' bitin pé rivé nimpot' ki man Mèm doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage On jou ou kin santiw mal a laiz Kè sa pa kay kèw ka fè on criz Poutan ou té ni on vi paradiz En bonne santé d'aprè les analyz Toujou pensé kè sa té pé rivé Anne-lise Mè pa vou baw sa té impossible Pon moun pa a l'abri de surpriz Pass mèm doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage Ou té lwen d'imaginé ki on jou Chofaw la kèw vwè a la télé té pé èt' vou Poutan ou pa té mèm sou Ou paka bwè, alkol sé pa pou vou Ou ka kilpabilizé presk a vinn' fou Mè fow di vou bien an tèt' a vou Kè victim la sa té pé èt' vou Pass mèm doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage Pass nimpot' bitin pé rivé nimpot' ki moun a nimpot' ki lè Vi aw pé sanm' le paradi jod' la dèmin sanm' l'enfè Sé pou sa kè, lèw vwè on moun ka soufè, pa jigéy pa méprizéy x2 Doctè ka malad Dilè ka pran krak Marin, péchè ka fè naufrage Ca bien dommage...</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chenn la maré, yo pé pa avansé Mè an lespwi neg batan angajé Tèt lévé, gadé lwen épi goumé Pwan fos é kimbé bis REFRAIN Doum doum doum Pyé la lou, avansé Mété yonn douvan lot Ka soufè san réfizé lité Pou surviv kon yo pé 1 Vi an mwen pa dous Kout fwèt pasé pa la ka ban la fwous Bondyé ka ban mwen fos Pou mwen rèd kon lous Mwen té Kasè lé chenn è foukan a la kous Kaché dan la bwous Bwé dlo sous, péché pwason é langous Anvi dous, lè solèy la kouch Konté limiè an syèl la lè i san mous REFRAIN bis Lévé nonm pa pè vansé Sé douvan libèté yé Réfléchi pou ou sonjé Vou tou sèl ké pé gangné You might also likeHonè é rèspé pa black man Ki goumé ba black man Ki doubout rèd kon kann Douvan kolonisatè san pè ké on jou yo fin pann Sé vwè kè nou té sann è kè nou tout ké ritouné sann Mè sa ka konté an vi-aw sé action Year year year.... REFRAIN bis 1 REFRAIN</t>
+          <t>Chenn la maré, yo pé pa avansé Mè an lespwi neg batan angajé Tèt lévé, gadé lwen épi goumé Pwan fos é kimbé bis REFRAIN Doum doum doum Pyé la lou, avansé Mété yonn douvan lot Ka soufè san réfizé lité Pou surviv kon yo pé 1 Vi an mwen pa dous Kout fwèt pasé pa la ka ban la fwous Bondyé ka ban mwen fos Pou mwen rèd kon lous Mwen té Kasè lé chenn è foukan a la kous Kaché dan la bwous Bwé dlo sous, péché pwason é langous Anvi dous, lè solèy la kouch Konté limiè an syèl la lè i san mous REFRAIN bis Lévé nonm pa pè vansé Sé douvan libèté yé Réfléchi pou ou sonjé Vou tou sèl ké pé gangné Honè é rèspé pa black man Ki goumé ba black man Ki doubout rèd kon kann Douvan kolonisatè san pè ké on jou yo fin pann Sé vwè kè nou té sann è kè nou tout ké ritouné sann Mè sa ka konté an vi-aw sé action Year year year.... REFRAIN bis 1 REFRAIN</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nou tout' ni pou pryé BonDyé Sa sèten kè nou tout' ni pou pryé BonDyé Ref Everytime avant que je m'endorme Je prie Almighty le plus fort Nous donne la sagesse d'un mentor et la force d'un gladiator Pour devenir fort mon frère faut faire un effort Et louer man le plus fort Non, tu n'as pas tort si tu te tournes vers le mentor Qui te rendra gladiator N'attends pas ta mort Non ce n'est pas un memorandum Or Jah l'est mais n'est pas mort Mange pour vivre mais pas vivre pour manger comme un porc Ref Certains boys disent qu'ils sont bad Et croire en Dieu c'est être malade Ils ont des amis ils ont des pags Ils disent qu'ils n'ont pas peur du diable Mais quand ils arrivent à un stade Où il n'y a plus de money, il n'y a plus de pags Ils disent tous Oh my God! Sé lè pwoblem ka rivé Kè ou ka vwè la réalité Ki moun ki bon, ki moun ki mové Ki moun ki kwè an BonDyé Manman-w pé mô, papa-w vin vyé Sé bon zanmi la do a yo touné Nou la sosyété ka rèjété Yenki BonDyé ki ka rété Leave badness, slackness and start pray Admiral tell make them run away When them see you, them haffi change way You might also likeRef On ne se rend pas au paradis en taxi L'argent n'ouvre pas toutes les portes contrairement à ce qu'on dit Qu'importe que t'en ais un minimum ou bien un maxi Aie une idée fixe, fixe toi des objectifs Dieu seul détient la potion qui te rendra fort comme Obélix L'impatience est la cause de ceux qui tombent dans le 666</t>
+          <t>Nou tout' ni pou pryé BonDyé Sa sèten kè nou tout' ni pou pryé BonDyé Ref Everytime avant que je m'endorme Je prie Almighty le plus fort Nous donne la sagesse d'un mentor et la force d'un gladiator Pour devenir fort mon frère faut faire un effort Et louer man le plus fort Non, tu n'as pas tort si tu te tournes vers le mentor Qui te rendra gladiator N'attends pas ta mort Non ce n'est pas un memorandum Or Jah l'est mais n'est pas mort Mange pour vivre mais pas vivre pour manger comme un porc Ref Certains boys disent qu'ils sont bad Et croire en Dieu c'est être malade Ils ont des amis ils ont des pags Ils disent qu'ils n'ont pas peur du diable Mais quand ils arrivent à un stade Où il n'y a plus de money, il n'y a plus de pags Ils disent tous Oh my God! Sé lè pwoblem ka rivé Kè ou ka vwè la réalité Ki moun ki bon, ki moun ki mové Ki moun ki kwè an BonDyé Manman-w pé mô, papa-w vin vyé Sé bon zanmi la do a yo touné Nou la sosyété ka rèjété Yenki BonDyé ki ka rété Leave badness, slackness and start pray Admiral tell make them run away When them see you, them haffi change way Ref On ne se rend pas au paradis en taxi L'argent n'ouvre pas toutes les portes contrairement à ce qu'on dit Qu'importe que t'en ais un minimum ou bien un maxi Aie une idée fixe, fixe toi des objectifs Dieu seul détient la potion qui te rendra fort comme Obélix L'impatience est la cause de ceux qui tombent dans le 666</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Découvre le dernier clip vidéo de Admiral T intitulé Fanm Fatal. Tu peux également retrouver tous les clips vidéo de Admiral T ainsi que toute l'actualité du Reggae Dancehall sur Muzik Spirit Clique sur le bouton , ci-dessous, pour découvrir les paroles du titre Fanm Fatal Rejoins la page facebook muzikspirit.officiel et suis nous sur Twitter muzikspirit pour être informé des dernières actualités de Admiral T et du Reggae DancehallYou might also like</t>
+          <t>Découvre le dernier clip vidéo de Admiral T intitulé Fanm Fatal. Tu peux également retrouver tous les clips vidéo de Admiral T ainsi que toute l'actualité du Reggae Dancehall sur Muzik Spirit Clique sur le bouton , ci-dessous, pour découvrir les paroles du titre Fanm Fatal Rejoins la page facebook muzikspirit.officiel et suis nous sur Twitter muzikspirit pour être informé des dernières actualités de Admiral T et du Reggae Dancehall</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yo babys,fo sav ké zot mwen ka jiré fé tou sa an pé Paské pou zié an mwen,vou sé plis ki diaman Plis ki trésor ... Ok den ! REFRAIN Fé tou sa an pé Fé tou sa an pé Fé tou sa an pé Tou tan mwen ké ni tibuin foss Mwen ka jiré de Fé tou sa an pé Fé tou sa an pé Fé tou sa an pé Tou tan mwen ké ni tibuin foss Ok 1er COUPLET An nou exitasyon ? mélangé Pendan dé moi sé sa mwen ka résenti Avan zot rivé,ya cité,ya bon dié Lanmou ké mwen ni pou zot , hey Sé an bitin ké mwen pé pa raconté É fô zot sav ké si mwen pé conté Tou tan mwen ké ni foss Mwen ka jiré de Fé tou ... You might also likeREFRAIN Zot pé jen tou sèl Sa pa kay ké vi la ba twop bèl Fé sa an pé pou ké vi zot modèl ? Fé tou ... REFRAIN Plézi an mwen , dé fé zot plézi Bonè an mwen,vwé zot ka souri Rèv an mwen,vwé zot réussi Malgré dificulté a la vi REFRAIN 1er COUPLET REFRAIN x 3</t>
+          <t>Yo babys,fo sav ké zot mwen ka jiré fé tou sa an pé Paské pou zié an mwen,vou sé plis ki diaman Plis ki trésor ... Ok den ! REFRAIN Fé tou sa an pé Fé tou sa an pé Fé tou sa an pé Tou tan mwen ké ni tibuin foss Mwen ka jiré de Fé tou sa an pé Fé tou sa an pé Fé tou sa an pé Tou tan mwen ké ni tibuin foss Ok 1er COUPLET An nou exitasyon ? mélangé Pendan dé moi sé sa mwen ka résenti Avan zot rivé,ya cité,ya bon dié Lanmou ké mwen ni pou zot , hey Sé an bitin ké mwen pé pa raconté É fô zot sav ké si mwen pé conté Tou tan mwen ké ni foss Mwen ka jiré de Fé tou ... REFRAIN Zot pé jen tou sèl Sa pa kay ké vi la ba twop bèl Fé sa an pé pou ké vi zot modèl ? Fé tou ... REFRAIN Plézi an mwen , dé fé zot plézi Bonè an mwen,vwé zot ka souri Rèv an mwen,vwé zot réussi Malgré dificulté a la vi REFRAIN 1er COUPLET REFRAIN x 3</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fos a Péyi La An nou ay !!! Gadé kijan sa bel lè nou tout la ansamm Untel sé untel, untel pa untel, me nou tout la ka sanm Pé enpot religion, pé enpot la ou soti, nou paka fann Sé an sèl lespri jod la nou tout ka fè yon Refrain Yeah yeah yeah oh yeah Gadé jan nou ka vansé ansanm Pa davoi nou ka fè yonn, pani pon mote ki ké pran pann Yeah yeah yeah oh yeah Gadé jan nou ka vansé ansanm Pa davoi nou ka fè yonn, pani pyes mote ki ké pran pann A pa vou ké di mwen non A pa mwen ké brillé sa An ako a lunison, nou tout nou sé fos a peyi la Nou tout nou sé fos a peyi la A pa vou ké di mwen non A pa mwen ké brillé sa An ako a lunison, nou tout nou sé fos a peyi la Nou tout nou sé fos a peyi la You might also like Sé douvan ké nou kalé men dan la men, nou ka vansé Mote la ka touné donc nou pé pa kalé Sa kalé bien donc an nou alé Vwasin, vwasine, kouzin, kouzine, frè é sè, zanmi Lévé dé main a zot et bougé tète a zot karibéan ki la lese mwen tan zot fè dézod Sé kon sa nou inmé zot, jodi sé yonn a lot Chalè la ka monté lese mizik la chayé zot An nou alé pèp a groka la An nou alé moun bélia Haiti kompa ka dansé soca meringue salsa Eskè tout moun la An nou alé pèp a groka la An nou alé moun bélia Haiti kompa ka dansé soca reggae é zouka Crié Ki sé fanm ou bien nonm ... Refrain Fos a peyi la fos a peyi la Moun pale, moun ja pale Nou save bien sa nou yé épi sa nou vlé Nou ka lyanné Refrain Fos a péyi la nou tout nou sé fos a peyi la Sé sa nou yé fos a peyi la, nou ké rété fos a peyi la Fo nou ga dé fos a peyi la</t>
+          <t>Fos a Péyi La An nou ay !!! Gadé kijan sa bel lè nou tout la ansamm Untel sé untel, untel pa untel, me nou tout la ka sanm Pé enpot religion, pé enpot la ou soti, nou paka fann Sé an sèl lespri jod la nou tout ka fè yon Refrain Yeah yeah yeah oh yeah Gadé jan nou ka vansé ansanm Pa davoi nou ka fè yonn, pani pon mote ki ké pran pann Yeah yeah yeah oh yeah Gadé jan nou ka vansé ansanm Pa davoi nou ka fè yonn, pani pyes mote ki ké pran pann A pa vou ké di mwen non A pa mwen ké brillé sa An ako a lunison, nou tout nou sé fos a peyi la Nou tout nou sé fos a peyi la A pa vou ké di mwen non A pa mwen ké brillé sa An ako a lunison, nou tout nou sé fos a peyi la Nou tout nou sé fos a peyi la Sé douvan ké nou kalé men dan la men, nou ka vansé Mote la ka touné donc nou pé pa kalé Sa kalé bien donc an nou alé Vwasin, vwasine, kouzin, kouzine, frè é sè, zanmi Lévé dé main a zot et bougé tète a zot karibéan ki la lese mwen tan zot fè dézod Sé kon sa nou inmé zot, jodi sé yonn a lot Chalè la ka monté lese mizik la chayé zot An nou alé pèp a groka la An nou alé moun bélia Haiti kompa ka dansé soca meringue salsa Eskè tout moun la An nou alé pèp a groka la An nou alé moun bélia Haiti kompa ka dansé soca reggae é zouka Crié Ki sé fanm ou bien nonm ... Refrain Fos a peyi la fos a peyi la Moun pale, moun ja pale Nou save bien sa nou yé épi sa nou vlé Nou ka lyanné Refrain Fos a péyi la nou tout nou sé fos a peyi la Sé sa nou yé fos a peyi la, nou ké rété fos a peyi la Fo nou ga dé fos a peyi la</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hé gay sa gason ,fo ou sav kè Mwen pa pè hak a lucifè Ki jalouzi, ipokrizi ,sa pa ka atenn mwen non Sa sèten kè mwenpa kay fè la gè Epi an frè, épi an sè A koz dè... refrain Paskè mwen lévé si an ghetto Ni edikasyon a ghetto Ni espéryanans a ghetto Koté pozitif a ghetto Aprann an ghetto Pa pété gun, pété péta pito Rude boy an dé mo Toujou otantik, mwen pa dé figui kon jémo Pa jen ka obliyé kè nou tout si la tè égo Kè nou tout tini défo Kè nou anba an régim ki démokratik Palé librèman pou mwen sa vin otantik Respèté lot sé an prinsip ki dogmatik Poukoi pou mwen sa dogmatik Viv adan ghetto rèd Mè lè mwen rété gadé tousa mwen aprann dè la vi Mwen pé pa régrété An pon jan sa bondyé fè mwen vwè,fè mwen tann, fè mwen santi Serten ka vann kam ,dot ka fimé kam Timoun ka pran bal, manmanlopital Ay tou fen lékol ,yo hay vou lékol Kon chyen anrajé, serten ka manjé Manjé an poubel , non sa pa bel You might also likePa rété pasif Fo-w toujou actif Travay ka péyé Gason sa sérié Moun ka rékolté sa yo simé Méyè zanmi-aw pé piw lenmi-aw Mé moun pé rivé Fo-w ni volonté Fo-w détewminé An tét an mwen sa toujou gravé Amisé responsabilité-aw gason Manman di mwen-y an tout sotdè fason Pa janmin lésé-y pran lanmin si-w gason Aranjé-w pou-w pa rété la ki ni mové vibrasyon Adan la vi,fo-w toujou ni anbisyon Papa mwen fè mwen konprann ké lèspwa sé an stimulasyon Ka ba-w volonté pou-w pé réyisi sa ou vlé gason</t>
+          <t>Hé gay sa gason ,fo ou sav kè Mwen pa pè hak a lucifè Ki jalouzi, ipokrizi ,sa pa ka atenn mwen non Sa sèten kè mwenpa kay fè la gè Epi an frè, épi an sè A koz dè... refrain Paskè mwen lévé si an ghetto Ni edikasyon a ghetto Ni espéryanans a ghetto Koté pozitif a ghetto Aprann an ghetto Pa pété gun, pété péta pito Rude boy an dé mo Toujou otantik, mwen pa dé figui kon jémo Pa jen ka obliyé kè nou tout si la tè égo Kè nou tout tini défo Kè nou anba an régim ki démokratik Palé librèman pou mwen sa vin otantik Respèté lot sé an prinsip ki dogmatik Poukoi pou mwen sa dogmatik Viv adan ghetto rèd Mè lè mwen rété gadé tousa mwen aprann dè la vi Mwen pé pa régrété An pon jan sa bondyé fè mwen vwè,fè mwen tann, fè mwen santi Serten ka vann kam ,dot ka fimé kam Timoun ka pran bal, manmanlopital Ay tou fen lékol ,yo hay vou lékol Kon chyen anrajé, serten ka manjé Manjé an poubel , non sa pa bel Pa rété pasif Fo-w toujou actif Travay ka péyé Gason sa sérié Moun ka rékolté sa yo simé Méyè zanmi-aw pé piw lenmi-aw Mé moun pé rivé Fo-w ni volonté Fo-w détewminé An tét an mwen sa toujou gravé Amisé responsabilité-aw gason Manman di mwen-y an tout sotdè fason Pa janmin lésé-y pran lanmin si-w gason Aranjé-w pou-w pa rété la ki ni mové vibrasyon Adan la vi,fo-w toujou ni anbisyon Papa mwen fè mwen konprann ké lèspwa sé an stimulasyon Ka ba-w volonté pou-w pé réyisi sa ou vlé gason</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Come through Black man bizin puissans économik, pa gun automatik Admiral T, Stonebwoy representin' Woyoy, mama inna di ghetto born Woyoy, man a hustle from sunday to sunday Blood spillin' at di street, police siren Gimme that, Stonebwoy He from Ghana, me from Gwada, african, carbbean Man a ghetto survivor Boum Black man a fi get strong I'm like dimaond, like stars in the sky, bitch I bright ya Well You might also like</t>
+          <t>Come through Black man bizin puissans économik, pa gun automatik Admiral T, Stonebwoy representin' Woyoy, mama inna di ghetto born Woyoy, man a hustle from sunday to sunday Blood spillin' at di street, police siren Gimme that, Stonebwoy He from Ghana, me from Gwada, african, carbbean Man a ghetto survivor Boum Black man a fi get strong I'm like dimaond, like stars in the sky, bitch I bright ya Well</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Well, if a soundboy try, we not think twice, bullet in a head Try me, no prime time, wolla dem fi dead Everyting shit like, like I nut quick We no tic toc if you diss, , well Man sé an machine gun lyrical, pa mandé mwen pou match amical Dem a bloodclat, owa mwen yo sé comédi mizikal, well Sur les réseaux, c'est la guerre des égos mè ti moun ghetto pa ka rentré an ti wol a yo Di mwen ki moun ki pli badda Man a caribbean monsta None a dem no de, none a dem no de pon di level Man a caribbean monsta Tell em mi no play, kon dragon mwen ka craché di fé Man a caribbean monsta None a dem no de, none a dem no de pon di level Man a caribbean monsta Tell em mi no play, kon dragon mwen ka craché di fé CalmosYou might also like</t>
+          <t>Well, if a soundboy try, we not think twice, bullet in a head Try me, no prime time, wolla dem fi dead Everyting shit like, like I nut quick We no tic toc if you diss, , well Man sé an machine gun lyrical, pa mandé mwen pou match amical Dem a bloodclat, owa mwen yo sé comédi mizikal, well Sur les réseaux, c'est la guerre des égos mè ti moun ghetto pa ka rentré an ti wol a yo Di mwen ki moun ki pli badda Man a caribbean monsta None a dem no de, none a dem no de pon di level Man a caribbean monsta Tell em mi no play, kon dragon mwen ka craché di fé Man a caribbean monsta None a dem no de, none a dem no de pon di level Man a caribbean monsta Tell em mi no play, kon dragon mwen ka craché di fé Calmos</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mon nom c'est T, Admiral T Comme au Scrabble A D M I R A L aka Christy Campbell Jamais de recul, que ce soit à plusieurs ou bien tout seul Comme le dernier I-Mac Apple, jamais ne recule Devant les problèmes les difficultés, tiens bon comme des tentacules Jamais ne recule Comme le sang qui coule qui circule dans tes veines refrain Ma force vient du plus haut, du grand manitou Il m'accompagne partout, el numero uno x2 Solide comme un jean Levi's Avec lui à mes cotés je ne crains rien ni personne Pas besoin d'aller à l'église pour me confier à lui Pas d'une tierce personne Je préfère la confiance à la traitrise D'autre préfèrent dealer avec le diable en personne Fidèle malgrè tout ce qu'ils disent C'est dieu qui me guide qui protège ma personne refrain Qu'il pleuve, qu'il grèle ou qu'il neige Le Tout Puissant me protège, me permet d'éviter les pièges Me donne le pain du p'tit dèj et mes souffrances il allège Brise les sortilèges telle Blanche-Neige Que tu sois blanc, noir ou beige, il pige ton manège N'essaie pas de le doubler tu te feras tèj C'est là-haut qu'il siège, mais toujours parmi nous C'est l'heure du refrain donc j'abrège You might also likerefrain Je me sens fort comme Hercule de l'aube au crépuscule Quand l'ennemi me bouscule, jamais je ne bascule Sans prendre de pilule, ma force pullule à l'instar de Hulkx2 refrain</t>
+          <t>Mon nom c'est T, Admiral T Comme au Scrabble A D M I R A L aka Christy Campbell Jamais de recul, que ce soit à plusieurs ou bien tout seul Comme le dernier I-Mac Apple, jamais ne recule Devant les problèmes les difficultés, tiens bon comme des tentacules Jamais ne recule Comme le sang qui coule qui circule dans tes veines refrain Ma force vient du plus haut, du grand manitou Il m'accompagne partout, el numero uno x2 Solide comme un jean Levi's Avec lui à mes cotés je ne crains rien ni personne Pas besoin d'aller à l'église pour me confier à lui Pas d'une tierce personne Je préfère la confiance à la traitrise D'autre préfèrent dealer avec le diable en personne Fidèle malgrè tout ce qu'ils disent C'est dieu qui me guide qui protège ma personne refrain Qu'il pleuve, qu'il grèle ou qu'il neige Le Tout Puissant me protège, me permet d'éviter les pièges Me donne le pain du p'tit dèj et mes souffrances il allège Brise les sortilèges telle Blanche-Neige Que tu sois blanc, noir ou beige, il pige ton manège N'essaie pas de le doubler tu te feras tèj C'est là-haut qu'il siège, mais toujours parmi nous C'est l'heure du refrain donc j'abrège refrain Je me sens fort comme Hercule de l'aube au crépuscule Quand l'ennemi me bouscule, jamais je ne bascule Sans prendre de pilule, ma force pullule à l'instar de Hulkx2 refrain</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ou ka trouvéy bèl kon Monica Bellucci Mèw pani lé mwayen dè rantré aka Versace ou aka Gucci What a bullshit Nuff a dem Gwaan like dem a independant Sponsorizé pa mister oncle Ben-Ben Boy tu kiffes, tu veux ken Ou pani biff, non c'est pas la peine-peine Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi tas pas d'biff, non ce nest pas la peine-peine Nouvelle époque, génération We dont give a fuck Woté lé biyé, pa palé twòp, well Comme Cardi B, on sen balèk Fini Roméo et Juliette, yeah Jprends pas d'chèque mec, faut pas que ça te choque Les filles jai trouvé le Graal Touché le gros lot Il nest pas mignon mais bon voilà Mako la blendé, mwen kay mayé Fè on timoun bay, fèy sévi kobay, well You might also likeYo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi t'as pas d'biff, non ce nest pas la peine-peine x2 Yo enmé bèl bijou Achté talon Jimmy Choo Fè kawtèblé chofé Si lé Champs-Élysées touléjou Yo ni gwan gou sizé an VIP room Pété champagne pòf pòf Séw ki ka péyé latouwné Pa menm sav sa yo kriyé on jouné twavay Mè si ou diy faut serrer la ceinture, ayayay Tout la jouné i ka boudé Kon timoun privé dè gouté Elle ne taime pas, elle aime ta maille Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi, t'as pas d'biff, non ce nest pas la peine Gucci gang, Gucci gang, Gucci gang nah Yo lé Gucci gang, Gucci gang, Gucci gang nah Gucci gang, Gucci gang, Gucci gang nah Yo lé Gucci gang, Gucci gang, Gucci gang On nonm pou fè yo kado kon Santa Claus Real real boss, show off si insta Brand new outfit a chak post Rich kon Migos, Rick Ross Chilling adan bèl karòs Grosse villa à Los Angeles Nuff a dem Gwaan like dem a independant Sponsorizé pa mister oncle Ben-Ben Boy tu kiffes, tu veux ken Ou pani biff, non c'est pas la peine-peine Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi tas pas d'biff, non ce nest pas la peine-peine Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi tas pas d'biff, non ce nest pas la peine-peine Gucci gang, Gucci gang, Gucci gang nah Yo lé Gucci gang, Gucci gang, Gucci gang nah Gucci gang, Gucci gang, Gucci gang</t>
+          <t>Ou ka trouvéy bèl kon Monica Bellucci Mèw pani lé mwayen dè rantré aka Versace ou aka Gucci What a bullshit Nuff a dem Gwaan like dem a independant Sponsorizé pa mister oncle Ben-Ben Boy tu kiffes, tu veux ken Ou pani biff, non c'est pas la peine-peine Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi tas pas d'biff, non ce nest pas la peine-peine Nouvelle époque, génération We dont give a fuck Woté lé biyé, pa palé twòp, well Comme Cardi B, on sen balèk Fini Roméo et Juliette, yeah Jprends pas d'chèque mec, faut pas que ça te choque Les filles jai trouvé le Graal Touché le gros lot Il nest pas mignon mais bon voilà Mako la blendé, mwen kay mayé Fè on timoun bay, fèy sévi kobay, well Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi t'as pas d'biff, non ce nest pas la peine-peine x2 Yo enmé bèl bijou Achté talon Jimmy Choo Fè kawtèblé chofé Si lé Champs-Élysées touléjou Yo ni gwan gou sizé an VIP room Pété champagne pòf pòf Séw ki ka péyé latouwné Pa menm sav sa yo kriyé on jouné twavay Mè si ou diy faut serrer la ceinture, ayayay Tout la jouné i ka boudé Kon timoun privé dè gouté Elle ne taime pas, elle aime ta maille Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi, t'as pas d'biff, non ce nest pas la peine Gucci gang, Gucci gang, Gucci gang nah Yo lé Gucci gang, Gucci gang, Gucci gang nah Gucci gang, Gucci gang, Gucci gang nah Yo lé Gucci gang, Gucci gang, Gucci gang On nonm pou fè yo kado kon Santa Claus Real real boss, show off si insta Brand new outfit a chak post Rich kon Migos, Rick Ross Chilling adan bèl karòs Grosse villa à Los Angeles Nuff a dem Gwaan like dem a independant Sponsorizé pa mister oncle Ben-Ben Boy tu kiffes, tu veux ken Ou pani biff, non c'est pas la peine-peine Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi tas pas d'biff, non ce nest pas la peine-peine Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Yo lé Gucci Gucci Gucci Gucci Gucci Gucci Gang Boy tu kiffes, tu veux ken Quoi tas pas d'biff, non ce nest pas la peine-peine Gucci gang, Gucci gang, Gucci gang nah Yo lé Gucci gang, Gucci gang, Gucci gang nah Gucci gang, Gucci gang, Gucci gang</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>An Gwadada a lè la biten-la haut An Gwadada a lè la biten-la cho An Gwadada a lè la biten-la haut Gwada, Gwada cho An Gwadada Tin an paket a biten ka fet Tini bon mé mové ka fet Lésé mwen di zòt ka'y ka fet An Gwadada Tout moun-la menm vlé vin P.D.G Tout moun-la menm vlé dirijé Mé sé ti moun a mè ki priviléjyé An Gwadada Ni an paket a moun au chômage Yo ka met tout moun adan kaj Kon si nou sé dé chyen anrajé An Gwadada Dé tou piti ti boug Lacroix rantré Baimbridge pou fè an ka É pon moun menm pa sav pourquoi ? An Gwadada Yo obligé konstrui lajòl à Baie-Mahault Paskè biten-la cho Paskè biten-la haut Paskè biten-la cho You might also likeAn Gwadada Tout boy ka fè yo pasé pou dé bad boys Paskè skettles enmen bad boys Gwadada Tout le temps dé tourist ka fè yo braké Gwadada Sé pou sa yo di Destination danger An Gwadada Dépi ni an grèv vil-la, yo ka'y pété An Gwadada ho, An Gwadada ho An gwadada A lè la ni an paket makoumè Plen jeun ti boug ka fè makoumè Paskè i ni lagen an makoumè An Gwadada An paket a ti manmzel Yo fier d'être skettle Yo ka ?????? pou matériel An Gwadada Ou té ké di kè téni an guerre Ou pé ranpli an France-Antilles yen ki évè fait-divers An Gwadada Pou nenpot ki biten yo pé ba'w kou Yo ka fè'w sorcier pas jalou Menm an lari-la yo ka fè vaudou An Gwadada A midi yo ka braké Cora Kagoul, tout biten kon Ninja Mé tout moun sav ki moun ki fè sa An Gwadada Moun ka bat polis Moun ka bat konplis Moun ka évadé menm an Palais De justice An Gwadada Ki ou ka chanté Zouk, Rap ou bien Ragga Si ou pa bon, yo ka di'w BOOUUUU !!!! pa rété la An Gwadada Polis ka vini lè tout biten ja fini Paskè yo ka di'w kè mwen ni an fanmiy a nourri An Gwadada Lè ou tann eleksion ka rivé Si larout bon san ka koulé Paskè yo ka fè bon sòsié An Gwadada Pratiquement pon swaré pa ka maché Paskè sèten moun vlé pa péyé Tout moun-la sé pòt-la yo vlé pété An Gwadada Fann tjou a entel Mé pa ta Angela Paskè yo ké monté komité pou tjwé concert-la An Gwadada Pour l'abolition de l'esclavage Yo maré an blan kon sauvaj anba pyé a stati a Ignace An Gwadada Tout moun-la malad Tout moun-la menm bad Tout moun-la menm tchad Tout moun-la malad ho An Gwadada Plen moun a kravat ka fimé cocaïne, héroïne Méfié'w paskè tini bon vermine An Gwadada pon Ho ho ho An Gwadada Dépi vou menm ni moto aw An chivé gréné, an locks an tet aw Tout moun ka pran'w pou an bad man An Gwadada Ni sa ka di ragga sé violans Sé vré Adan an sans Nou ka di vérité é vérité ka blésé An Gwadada An paket a moun menm ka'y Légliz Pou fè kankan si Marie-Lise Pa palé dè ti fi a Elise An Gwadada Pon moun pé pa goumè main à main Yo ka'y pran gun pou lé vwazen san menm sonjé à demain An Gwadada Yo pa ni respè pou lé dé roues Pas lé dé roues ka fè lé fou Ka roulé si an sel roue An Gwadada, An gwadada, An Gwadada. yeah ! An Gwadada a lè la biten-la haut An Gwadada a lè la biten-la cho An Gwadada a lè la biten-la haut</t>
+          <t>An Gwadada a lè la biten-la haut An Gwadada a lè la biten-la cho An Gwadada a lè la biten-la haut Gwada, Gwada cho An Gwadada Tin an paket a biten ka fet Tini bon mé mové ka fet Lésé mwen di zòt ka'y ka fet An Gwadada Tout moun-la menm vlé vin P.D.G Tout moun-la menm vlé dirijé Mé sé ti moun a mè ki priviléjyé An Gwadada Ni an paket a moun au chômage Yo ka met tout moun adan kaj Kon si nou sé dé chyen anrajé An Gwadada Dé tou piti ti boug Lacroix rantré Baimbridge pou fè an ka É pon moun menm pa sav pourquoi ? An Gwadada Yo obligé konstrui lajòl à Baie-Mahault Paskè biten-la cho Paskè biten-la haut Paskè biten-la cho An Gwadada Tout boy ka fè yo pasé pou dé bad boys Paskè skettles enmen bad boys Gwadada Tout le temps dé tourist ka fè yo braké Gwadada Sé pou sa yo di Destination danger An Gwadada Dépi ni an grèv vil-la, yo ka'y pété An Gwadada ho, An Gwadada ho An gwadada A lè la ni an paket makoumè Plen jeun ti boug ka fè makoumè Paskè i ni lagen an makoumè An Gwadada An paket a ti manmzel Yo fier d'être skettle Yo ka ?????? pou matériel An Gwadada Ou té ké di kè téni an guerre Ou pé ranpli an France-Antilles yen ki évè fait-divers An Gwadada Pou nenpot ki biten yo pé ba'w kou Yo ka fè'w sorcier pas jalou Menm an lari-la yo ka fè vaudou An Gwadada A midi yo ka braké Cora Kagoul, tout biten kon Ninja Mé tout moun sav ki moun ki fè sa An Gwadada Moun ka bat polis Moun ka bat konplis Moun ka évadé menm an Palais De justice An Gwadada Ki ou ka chanté Zouk, Rap ou bien Ragga Si ou pa bon, yo ka di'w BOOUUUU !!!! pa rété la An Gwadada Polis ka vini lè tout biten ja fini Paskè yo ka di'w kè mwen ni an fanmiy a nourri An Gwadada Lè ou tann eleksion ka rivé Si larout bon san ka koulé Paskè yo ka fè bon sòsié An Gwadada Pratiquement pon swaré pa ka maché Paskè sèten moun vlé pa péyé Tout moun-la sé pòt-la yo vlé pété An Gwadada Fann tjou a entel Mé pa ta Angela Paskè yo ké monté komité pou tjwé concert-la An Gwadada Pour l'abolition de l'esclavage Yo maré an blan kon sauvaj anba pyé a stati a Ignace An Gwadada Tout moun-la malad Tout moun-la menm bad Tout moun-la menm tchad Tout moun-la malad ho An Gwadada Plen moun a kravat ka fimé cocaïne, héroïne Méfié'w paskè tini bon vermine An Gwadada pon Ho ho ho An Gwadada Dépi vou menm ni moto aw An chivé gréné, an locks an tet aw Tout moun ka pran'w pou an bad man An Gwadada Ni sa ka di ragga sé violans Sé vré Adan an sans Nou ka di vérité é vérité ka blésé An Gwadada An paket a moun menm ka'y Légliz Pou fè kankan si Marie-Lise Pa palé dè ti fi a Elise An Gwadada Pon moun pé pa goumè main à main Yo ka'y pran gun pou lé vwazen san menm sonjé à demain An Gwadada Yo pa ni respè pou lé dé roues Pas lé dé roues ka fè lé fou Ka roulé si an sel roue An Gwadada, An gwadada, An Gwadada. yeah ! An Gwadada a lè la biten-la haut An Gwadada a lè la biten-la cho An Gwadada a lè la biten-la haut</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>An Gwadada a lè-la biten-la haut An Gwadada a lè-la biten-la cho An Gwadada a lè-la biten-la haut Gwada, Gwada cho An Gwadada Tin an paket a biten ka fet Tini bon mé mové ka fet Lésé mwen di zòt ka'y ka fet An Gwadada Tout moun-la menm vlé vin P.D.G Tout moun-la menm vlé dirijé Mé sé ti moun a mè ki priviléjié An Gwadada Ni an paket a moun au chômage Yo ka met tout moun adan kaj Kon si nou sé dé chyen anrajé An Gwadada Dé tou piti ti boug Lacroix rantré Baimbridge pou fè an ka É pon moun menm pa sav pourquoi ? An Gwadada Yo obligé konstrui lajòl à Baie-Mahault Paskè biten-la cho Paskè biten-la haut Paskè biten-la cho You might also likeAn Gwadada Tout boy ka fè yo pasé pou dé bad boys Paskè skettles enmen bad boys Gwadada Tout le temps dé tourist ka fè yo braké Gwadada Sé pou sa yo di Destination danger An Gwadada Dépi ni an grèv vil-la, yo ka'y pété An Gwadada ho, An Gwadada ho An gwadada A lè-la ni an paket makoumè Plen jeun ti boug ka fè makoumè Paskè i ni lagen an makoumè An Gwadada An paket a ti manmzel Yo fier d'être skettle Yo ka ?????? pou matériel An Gwadada Ou té ké di kè téni an guerre Ou pé ranpli an France-Antilles yen ki évè fait-divers An Gwadada Pou nenpot ki biten yo pé ba'w kou Yo ka fè'w sorcier pas jalou Menm an lari-la yo ka fè vaudou An Gwadada A midi yo ka braké Cora Kagoul, tout biten kon Ninja Mé tout moun sav ki moun ki fè sa An Gwadada Moun ka bat polis Moun ka bat konplis Moun ka évadé menm an Palais De justice An Gwadada Ki ou ka chanté Zouk, Rap ou bien Ragga Si ou pa bon, yo ka di'w BOOUUUU !!!! pa rété la An Gwadada Polis ka vini lè tout biten ja fini Paskè yo ka di'w kè mwen ni an fanmiy a nouri An Gwadada Lè ou tann eleksion ka rivé Si larout bon san ka koulé Paskè yo ka fè bon sòsié An Gwadada Pratiquement pon swaré pa ka maché Paskè sèten moun vlé pa péyé Tout moun-la sé pòt-la yo vlé pété An Gwadada Fann tjou a entel Mé pa ta Angela Paskè yo ké monté komité pou tjwé concert-la An Gwadada Pour l'abolition de l'esclavage Yo maré an blan kon sauvaj anba pié a stati a Ignace An Gwadada Tout moun-la malad Tout moun-la menm bad Tout moun-la menm tchad Tout moun-la malad ho An Gwadada Plen moun a kravat ka fimé cocaïne, héroïne Méfié'w paskè tini bon vermin An Gwadada pon Ho ho ho An Gwadada Dépi vou menm ni moto aw An chivé gréné, an locks an tet aw Tout moun ka pran'w pou an bad man An Gwadada Ni sa ka di ragga sé violans Sé vré Adan an sans Nou ka di vérité é vérité ka blésé An Gwadada An paket a moun menm ka'y Légliz Pou fè kankan si Marie-Lise Pa palé dè ti fi a Elise An Gwadada Pon moun pé pa goumè main à main Yo ka'y pran gun pou lé vwazen san menm sonjé à demain An Gwadada Yo pa ni respè pou lé dé roues Pas lé dé roues ka fè lé fou Ka roulé si an sel roue An Gwadada, An gwadada, An Gwadada. yeah ! An Gwadada a lè-la biten-la haut An Gwadada a lè-la biten-la cho An Gwadada a lè-la biten-la haut</t>
+          <t>An Gwadada a lè-la biten-la haut An Gwadada a lè-la biten-la cho An Gwadada a lè-la biten-la haut Gwada, Gwada cho An Gwadada Tin an paket a biten ka fet Tini bon mé mové ka fet Lésé mwen di zòt ka'y ka fet An Gwadada Tout moun-la menm vlé vin P.D.G Tout moun-la menm vlé dirijé Mé sé ti moun a mè ki priviléjié An Gwadada Ni an paket a moun au chômage Yo ka met tout moun adan kaj Kon si nou sé dé chyen anrajé An Gwadada Dé tou piti ti boug Lacroix rantré Baimbridge pou fè an ka É pon moun menm pa sav pourquoi ? An Gwadada Yo obligé konstrui lajòl à Baie-Mahault Paskè biten-la cho Paskè biten-la haut Paskè biten-la cho An Gwadada Tout boy ka fè yo pasé pou dé bad boys Paskè skettles enmen bad boys Gwadada Tout le temps dé tourist ka fè yo braké Gwadada Sé pou sa yo di Destination danger An Gwadada Dépi ni an grèv vil-la, yo ka'y pété An Gwadada ho, An Gwadada ho An gwadada A lè-la ni an paket makoumè Plen jeun ti boug ka fè makoumè Paskè i ni lagen an makoumè An Gwadada An paket a ti manmzel Yo fier d'être skettle Yo ka ?????? pou matériel An Gwadada Ou té ké di kè téni an guerre Ou pé ranpli an France-Antilles yen ki évè fait-divers An Gwadada Pou nenpot ki biten yo pé ba'w kou Yo ka fè'w sorcier pas jalou Menm an lari-la yo ka fè vaudou An Gwadada A midi yo ka braké Cora Kagoul, tout biten kon Ninja Mé tout moun sav ki moun ki fè sa An Gwadada Moun ka bat polis Moun ka bat konplis Moun ka évadé menm an Palais De justice An Gwadada Ki ou ka chanté Zouk, Rap ou bien Ragga Si ou pa bon, yo ka di'w BOOUUUU !!!! pa rété la An Gwadada Polis ka vini lè tout biten ja fini Paskè yo ka di'w kè mwen ni an fanmiy a nouri An Gwadada Lè ou tann eleksion ka rivé Si larout bon san ka koulé Paskè yo ka fè bon sòsié An Gwadada Pratiquement pon swaré pa ka maché Paskè sèten moun vlé pa péyé Tout moun-la sé pòt-la yo vlé pété An Gwadada Fann tjou a entel Mé pa ta Angela Paskè yo ké monté komité pou tjwé concert-la An Gwadada Pour l'abolition de l'esclavage Yo maré an blan kon sauvaj anba pié a stati a Ignace An Gwadada Tout moun-la malad Tout moun-la menm bad Tout moun-la menm tchad Tout moun-la malad ho An Gwadada Plen moun a kravat ka fimé cocaïne, héroïne Méfié'w paskè tini bon vermin An Gwadada pon Ho ho ho An Gwadada Dépi vou menm ni moto aw An chivé gréné, an locks an tet aw Tout moun ka pran'w pou an bad man An Gwadada Ni sa ka di ragga sé violans Sé vré Adan an sans Nou ka di vérité é vérité ka blésé An Gwadada An paket a moun menm ka'y Légliz Pou fè kankan si Marie-Lise Pa palé dè ti fi a Elise An Gwadada Pon moun pé pa goumè main à main Yo ka'y pran gun pou lé vwazen san menm sonjé à demain An Gwadada Yo pa ni respè pou lé dé roues Pas lé dé roues ka fè lé fou Ka roulé si an sel roue An Gwadada, An gwadada, An Gwadada. yeah ! An Gwadada a lè-la biten-la haut An Gwadada a lè-la biten-la cho An Gwadada a lè-la biten-la haut</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The Dylan Birthday C'est validé La fête elle est validée Rendez-vous chez les Campbell à trois heures de l'après-midi C'est validé, ouais c'est validé Tout le monde habillé tout de blanc c'est le dress code Baby baby J'veux t'inviter À mon anniversaire j'veux que tu sois à mon birthday 17 de moyenne, ouais j'ai tout déchiré Mes parents sont fiers donc ils ont validé Baby baby Aujourdhui c'est mon Birthday Birthday J'ai fait une nouvelle coupe J'suis stylé de la tête aux pieds Normal, aujourd'hui c'est mon Birthday Il y a d'la bonne musique on va s'amuser HAPPY Birthday C'est ta journée faut profiter Happy Birthday mon gars Tous tes amis sont là Rien que pour toi You might also like J'suis avec mes potes, ça délire non stop J'suis tellement frais qu'auprès des filles j'ai la cote Comme un acteur Sur moi sont braqués tous les spots Mais moi ce que je veux c'est prendre mon pied Le reste je m'en moque Dj maintenant joue du trap Français ricain on s'en tap Everybody clap clap clap One time, two times, three times, four times Everybody clap clap clap J'arrive comme Batman et Robin DJ pull up pull up rembobine Appelle tous tes copains et tes copines It's your Birthday É nou pakay fété sa a dèmi Il y a tout ce qu'il faut pour divertir tes amis Il y a d'la bonne musique on va s'amuser HAPPY Birthday C'est ta journée faut profiter Happy Birthday mon gars Tous tes amis sont là Rien que pour toi Dylan you ready let's go Everybody Nanana New dance NaNaNa Easy like do re mi Fa sol la la la Cocktail ou jus d'ananas Alcool Non non non À mon signal tout le monde crie Happy Birthday Baby baby Aujourdhui c'est mon Birthday Birthday J'suis content y'a mes couz Mes amis et la famille On va fêter ça ensemble Il y a d'la bonne musique on va s'amuser Happy Birthday C'est ta journée faut profiter Happy Birthday mon gars Tous tes amis sont là Rien que pour toi Baby baby Aujourdhui c'est mon Birthday Birthday J'suis content y'a mes couz Mes amis et la famille On va fêter ça ensemble Baby baby Aujourdhui c'est mon Birthday Birthday Jusqu'à la dernière seconde J'vais bien en profiter On va fêter ça ensemble</t>
+          <t>The Dylan Birthday C'est validé La fête elle est validée Rendez-vous chez les Campbell à trois heures de l'après-midi C'est validé, ouais c'est validé Tout le monde habillé tout de blanc c'est le dress code Baby baby J'veux t'inviter À mon anniversaire j'veux que tu sois à mon birthday 17 de moyenne, ouais j'ai tout déchiré Mes parents sont fiers donc ils ont validé Baby baby Aujourdhui c'est mon Birthday Birthday J'ai fait une nouvelle coupe J'suis stylé de la tête aux pieds Normal, aujourd'hui c'est mon Birthday Il y a d'la bonne musique on va s'amuser HAPPY Birthday C'est ta journée faut profiter Happy Birthday mon gars Tous tes amis sont là Rien que pour toi J'suis avec mes potes, ça délire non stop J'suis tellement frais qu'auprès des filles j'ai la cote Comme un acteur Sur moi sont braqués tous les spots Mais moi ce que je veux c'est prendre mon pied Le reste je m'en moque Dj maintenant joue du trap Français ricain on s'en tap Everybody clap clap clap One time, two times, three times, four times Everybody clap clap clap J'arrive comme Batman et Robin DJ pull up pull up rembobine Appelle tous tes copains et tes copines It's your Birthday É nou pakay fété sa a dèmi Il y a tout ce qu'il faut pour divertir tes amis Il y a d'la bonne musique on va s'amuser HAPPY Birthday C'est ta journée faut profiter Happy Birthday mon gars Tous tes amis sont là Rien que pour toi Dylan you ready let's go Everybody Nanana New dance NaNaNa Easy like do re mi Fa sol la la la Cocktail ou jus d'ananas Alcool Non non non À mon signal tout le monde crie Happy Birthday Baby baby Aujourdhui c'est mon Birthday Birthday J'suis content y'a mes couz Mes amis et la famille On va fêter ça ensemble Il y a d'la bonne musique on va s'amuser Happy Birthday C'est ta journée faut profiter Happy Birthday mon gars Tous tes amis sont là Rien que pour toi Baby baby Aujourdhui c'est mon Birthday Birthday J'suis content y'a mes couz Mes amis et la famille On va fêter ça ensemble Baby baby Aujourdhui c'est mon Birthday Birthday Jusqu'à la dernière seconde J'vais bien en profiter On va fêter ça ensemble</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nou konnen kè yo palé mal Jan nou viv ap fè tout moun jalou Yo gen rézon, cause were living life Nou ja sav kè yo ka palé mal Mè sa yo di sa paka atenn nou Nou la ka viv vi an nou were living life Intouchable Tellement spéciale Intouchable Intouchable Tellement spéciale Intouchable Intouchable sé sa nou yé Bondyé séy sèl ki ka validé Pépa brizé love la mwen ni pouw la Baby adé nou solid kon wòk-la la la Non yo pépa konprann konplisité kè nou ni lèw vwè kè nou ansanm Rèlasyon an nou pa tòksik Mwen préféré échwé évèw ki dè réisi èvè on dòt fanm Kon Jak adan Titanic Untouchable we cannot break Baby lamou sa pap janm krazé Nou ka pliyé men nou paka kasé lamou sa ap diré You might also likeIntouchable Tellement spéciale Intouchable Intouchable Tellement spéciale Intouchable Menm lè moral aw opliba mwen la Toujou la chéri Tousa nou ja viv pon moun pépa konprann Sa tèlman fò antrè nou Kitéy alé Kompa Ooooh Oh, Karmòs Phyllisia Ross Mapy the violin Queen Admiral T ou sav ola mwen sòti Intouchable, intouchable, intouchable Intouchable, intouchable, intouchable Intouchable, intouchable, intouchable Intouchable, intouchable, intouchable Ecussionist, Little Mike Loïc ou ja konet, Lewis Intouchable Tellement spéciale Intouchable Intouchable Tellement spéciale Intouchable</t>
+          <t>Nou konnen kè yo palé mal Jan nou viv ap fè tout moun jalou Yo gen rézon, cause were living life Nou ja sav kè yo ka palé mal Mè sa yo di sa paka atenn nou Nou la ka viv vi an nou were living life Intouchable Tellement spéciale Intouchable Intouchable Tellement spéciale Intouchable Intouchable sé sa nou yé Bondyé séy sèl ki ka validé Pépa brizé love la mwen ni pouw la Baby adé nou solid kon wòk-la la la Non yo pépa konprann konplisité kè nou ni lèw vwè kè nou ansanm Rèlasyon an nou pa tòksik Mwen préféré échwé évèw ki dè réisi èvè on dòt fanm Kon Jak adan Titanic Untouchable we cannot break Baby lamou sa pap janm krazé Nou ka pliyé men nou paka kasé lamou sa ap diré Intouchable Tellement spéciale Intouchable Intouchable Tellement spéciale Intouchable Menm lè moral aw opliba mwen la Toujou la chéri Tousa nou ja viv pon moun pépa konprann Sa tèlman fò antrè nou Kitéy alé Kompa Ooooh Oh, Karmòs Phyllisia Ross Mapy the violin Queen Admiral T ou sav ola mwen sòti Intouchable, intouchable, intouchable Intouchable, intouchable, intouchable Intouchable, intouchable, intouchable Intouchable, intouchable, intouchable Ecussionist, Little Mike Loïc ou ja konet, Lewis Intouchable Tellement spéciale Intouchable Intouchable Tellement spéciale Intouchable</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Admiral T, hey hey, yeah man a gay sa gaçon Nou ka viv adan on mond sé atrosité hèn violans Sé sa ka prédominé sin nonm pani lanmou antre yo Bondié a sawten sé lagen et sa ka rand yo méchan Yeah man a gay sa gaçon Sé pou sa nou ka tchen on microphone jodi, ok den Refrain Lanmou épi repè sé sa ké mwen ka défann Jistis, égalité, sé sa mwen ka mandé ba tout nonm é fanm On mond méyè ba lé piti ki ka rivé man Paskè bitin la vin madingue pon moun pa ni kombin Yo pé di sa yo vé sa yo vé mwen savé ka ki bon ka ki mové Mwen pa kay janmen changé pas sé kon sa mwen yé Si guettho la sé la mwen lévé Donc obligé kè mwen ni on tèl mentalité yes Mwen toujou engagé toujou enragé lé mwen ka vwé injustis Sa nou bizin si tè sé plis love and peace plis love and peace well Refrain Si ou pani ayen sawten moun ka trété-w kon chien Ka dérespèté-w vou é tout fanmi-aw Sewten ka jigéw si koulè a po-aw Dot ka atann kè ou touné pou planté kouto an do-aw Sé dè sé conpowteman la sa kè mwen ni mar Moun ki ni respè ba dot moun alè sa vin rar É sé pou sa kè mwen ka voyé an big up ba-w Si ou pa ka fè pawti dèy You might also likeRefrain Mwen ka fè chanson a text pa chanson a sex Pa ka fè kon sewten ki ka pran lagen kon prétex Si sa ki ka soufè mwen ka pwenté lindex Obligé dénoncé sa paskè sa ka rend mwen vex Yo di liberté, égalité, fraternité Me sa mwen ka vwé sé injustis épi inégalité Sa ki ka dirigé san fouté a réalité Sé pou sa kè mwen ka lité ka milité Yo ka palé dè imanité Mwen distribié fizi pou yo san banalité A koz dè yo si an afrik ti ni rivalité Yo san fouté kè ti ni inosan ki ka mo pa milié Refrain C'est la loi du plus fort Sé fizi, gun, cocaine, bitin la vin hardcore Sé san pitié tout moun awmé pa ni kor a kor Pir ki dé zannimo pli mové ki gladiator gladiatow Cyclone apré cyclone Tè la ka tremblé san sès kon si ni parkinson Pou son produi nomn é famn areté dè seconde Pou remèt yo en kestion, mè yo pa ka vwé mé yo pa ka tend Sé pou sa ké ké Refrain</t>
+          <t>Admiral T, hey hey, yeah man a gay sa gaçon Nou ka viv adan on mond sé atrosité hèn violans Sé sa ka prédominé sin nonm pani lanmou antre yo Bondié a sawten sé lagen et sa ka rand yo méchan Yeah man a gay sa gaçon Sé pou sa nou ka tchen on microphone jodi, ok den Refrain Lanmou épi repè sé sa ké mwen ka défann Jistis, égalité, sé sa mwen ka mandé ba tout nonm é fanm On mond méyè ba lé piti ki ka rivé man Paskè bitin la vin madingue pon moun pa ni kombin Yo pé di sa yo vé sa yo vé mwen savé ka ki bon ka ki mové Mwen pa kay janmen changé pas sé kon sa mwen yé Si guettho la sé la mwen lévé Donc obligé kè mwen ni on tèl mentalité yes Mwen toujou engagé toujou enragé lé mwen ka vwé injustis Sa nou bizin si tè sé plis love and peace plis love and peace well Refrain Si ou pani ayen sawten moun ka trété-w kon chien Ka dérespèté-w vou é tout fanmi-aw Sewten ka jigéw si koulè a po-aw Dot ka atann kè ou touné pou planté kouto an do-aw Sé dè sé conpowteman la sa kè mwen ni mar Moun ki ni respè ba dot moun alè sa vin rar É sé pou sa kè mwen ka voyé an big up ba-w Si ou pa ka fè pawti dèy Refrain Mwen ka fè chanson a text pa chanson a sex Pa ka fè kon sewten ki ka pran lagen kon prétex Si sa ki ka soufè mwen ka pwenté lindex Obligé dénoncé sa paskè sa ka rend mwen vex Yo di liberté, égalité, fraternité Me sa mwen ka vwé sé injustis épi inégalité Sa ki ka dirigé san fouté a réalité Sé pou sa kè mwen ka lité ka milité Yo ka palé dè imanité Mwen distribié fizi pou yo san banalité A koz dè yo si an afrik ti ni rivalité Yo san fouté kè ti ni inosan ki ka mo pa milié Refrain C'est la loi du plus fort Sé fizi, gun, cocaine, bitin la vin hardcore Sé san pitié tout moun awmé pa ni kor a kor Pir ki dé zannimo pli mové ki gladiator gladiatow Cyclone apré cyclone Tè la ka tremblé san sès kon si ni parkinson Pou son produi nomn é famn areté dè seconde Pou remèt yo en kestion, mè yo pa ka vwé mé yo pa ka tend Sé pou sa ké ké Refrain</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>An poch aw ou pa ni money loin d'etre anorexik pourtant ou maigre kon mo meme Ou ka mangé miette en lari kon fourmi ou palé pou zanmi ou palé pou fanmi mai ou pa Ni coté pou domi nom aw c missié tony lé ou ka vwé moun ka passé ou ka mandé yo dé Piece money yo pa ka baw l'hè meme donné sa triste mai c kon sa sa yé parce Refrainlé ou c star toute moun malade aw lé ou c star toute moune en lari ka ri baw Lé ou c star tou moun malade aw pire ennemi yo ka vinn zanmi aw mailé ou clochard Yo pa camarade aw lé ou clochard pass ou pa ni ayin en poch awlé ou clochard yo pa Camarade aw sa vlé dire moun ka tcheck moun par interet Yo ka mal gadéw dérespectew si ou pa ni ayin en poch aw mai yo ka soucéw soucéw si ou Ni pou moin c dé réel tocar caca ki yé en tete a yo pa flipé si yo vlé pa pren L'argent journal ou c pa tout le temps yo ké ni ou la ka touné ba toute moun parce Refrain1 Ni sa ka prenw en dow parce yo ni plis ké ou yo pa janmai compren ké toute moun cé ché Epi zo a n'importe ki moment zot ké pé sa kon yo mai jamai si yo changé comportement a Yo C yo a cause de yo ké péy a pa ka pa ka changé nivo yo ka cracher olé cultur a yo c prope Faya yo c pou sa ké Refrain1 A sa cé ké lass aw pa ni importance si ou pa adan peuple ou c ou pa ni la chance a pa Naissance Si voici ou pa ni pren connaisance sa vlé di cé sa vlé di pou yo ou pa ni tro importance Yo ka Jugé moun si aparence pourtant yo ka di l'habit ne fai pa le moine mai si jamai ou ti ni Puissance Épi l'agent toute moun ka respectéw You might also likeRefrain1 Yo ka mal gadéw dérespectew si ou pa ni ayin en poch aw mai yo ka soucéw soucéw si ou Ni pou moin c dé réel tocar caca ki yé en tete a yo pa flipé si yo vlé pa pren L'argent journal ou c pa tout le temps yo ké ni ou la ka touné ba toute moun Parce,parce,parce Refrain1 Yé man reggea sa gacon c la an son special pou tt sa ka domi en lari clochard sans abri En special big up ba tt sa ka prend yo pou en racaille</t>
+          <t>An poch aw ou pa ni money loin d'etre anorexik pourtant ou maigre kon mo meme Ou ka mangé miette en lari kon fourmi ou palé pou zanmi ou palé pou fanmi mai ou pa Ni coté pou domi nom aw c missié tony lé ou ka vwé moun ka passé ou ka mandé yo dé Piece money yo pa ka baw l'hè meme donné sa triste mai c kon sa sa yé parce Refrainlé ou c star toute moun malade aw lé ou c star toute moune en lari ka ri baw Lé ou c star tou moun malade aw pire ennemi yo ka vinn zanmi aw mailé ou clochard Yo pa camarade aw lé ou clochard pass ou pa ni ayin en poch awlé ou clochard yo pa Camarade aw sa vlé dire moun ka tcheck moun par interet Yo ka mal gadéw dérespectew si ou pa ni ayin en poch aw mai yo ka soucéw soucéw si ou Ni pou moin c dé réel tocar caca ki yé en tete a yo pa flipé si yo vlé pa pren L'argent journal ou c pa tout le temps yo ké ni ou la ka touné ba toute moun parce Refrain1 Ni sa ka prenw en dow parce yo ni plis ké ou yo pa janmai compren ké toute moun cé ché Epi zo a n'importe ki moment zot ké pé sa kon yo mai jamai si yo changé comportement a Yo C yo a cause de yo ké péy a pa ka pa ka changé nivo yo ka cracher olé cultur a yo c prope Faya yo c pou sa ké Refrain1 A sa cé ké lass aw pa ni importance si ou pa adan peuple ou c ou pa ni la chance a pa Naissance Si voici ou pa ni pren connaisance sa vlé di cé sa vlé di pou yo ou pa ni tro importance Yo ka Jugé moun si aparence pourtant yo ka di l'habit ne fai pa le moine mai si jamai ou ti ni Puissance Épi l'agent toute moun ka respectéw Refrain1 Yo ka mal gadéw dérespectew si ou pa ni ayin en poch aw mai yo ka soucéw soucéw si ou Ni pou moin c dé réel tocar caca ki yé en tete a yo pa flipé si yo vlé pa pren L'argent journal ou c pa tout le temps yo ké ni ou la ka touné ba toute moun Parce,parce,parce Refrain1 Yé man reggea sa gacon c la an son special pou tt sa ka domi en lari clochard sans abri En special big up ba tt sa ka prend yo pou en racaille</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Admiral T agaaaaaaaaaaaaaaain Si la cé an special ba tout'moun' ghetto Ba tout' moun' banlieu Admiral featuring Diam's Diamant ! Ou sav' ola mwen soti si ghetto mwen soti Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Trop de jeunes blessés par balle finissent à l'hôpital Trop de jeunes SDF, trop d'enfants qui mangent mal Les politiques trouvent ça normal ils s'en foutent ça leur est égal La précarité prédomine et les frustrations s'installent Diam's et Admiral sur le même instrumental Voir nos frères traîner, obligé que ça nous fasse mal Nous sommes tous dans la même galère ghetto youth et banlieusards Y'a pas de différence pour eux t'es un marginal You might also like Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Mais de l'ambition, pas de résignation Gens des ghettos, des banlieues, gens de petite condition Evite la prison, l'argent sale et les po po T'en sortir doit rester toujours ta principale mission Si tu viens du ghetto ghetto, si tu viens de la banlieue Tu connais le béton et le bédo et t'as peur que du bon Dieu C'est admirable si T'es une petite banlieusarde et tu finis par kicker avec Admiral T J'aime quand c'est rapide je fais ma thérapie de groupe De Paris aux Antilles une tour ça reste une tour Une banlieue ça reste terne, un homme ça reste fier Et merde mes frères, une femme ça reste une mère Donc je hausse la tête je viens de là où ça pète Moi je viens de là où on rêve, là où on s'aime au lance-roquette Moi je suis fière, je veux décrocher le ciel Brille, brille, range ton cur de pierre et file, file Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Je me suis forgé dans le ghetto, solide comme les métaux N'acceptant pas la défaite sur elle j'ai mis un veto Une confiance totale dans le plus haut, le micro Comme arme plutôt que les 9 millimètres et les Magnums Ouais, les mecs sont forts dans ton ghetto, forgés déjà trop tôt Fans de K1, de Mani, de Fight et de Ze Pequeo Il y a des femmes dans le ghetto, parfois c'est des bons potos Elles veulent être des mini-miss qui rêvent d'être reines dans un château Il y a de l'amour dans les blocs, po po y'a du rap derrière les portes, po po Il y a du ragga dans les caves dans les halls Il y a du Admiral, y'a des jeunes qui râlent La banlieue c'est une spirale où il y a tout plein de petites Diam's Y'a de la rage dans les blocs, po po y'a des gosses dans les tops, po po Et du monde à la porte, po po Je suis fière d'être une nana, j'ai la dalle depuis le cartable C'est pour tous les couche-tard d'ici à Gwadada Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir</t>
+          <t>Admiral T agaaaaaaaaaaaaaaain Si la cé an special ba tout'moun' ghetto Ba tout' moun' banlieu Admiral featuring Diam's Diamant ! Ou sav' ola mwen soti si ghetto mwen soti Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Trop de jeunes blessés par balle finissent à l'hôpital Trop de jeunes SDF, trop d'enfants qui mangent mal Les politiques trouvent ça normal ils s'en foutent ça leur est égal La précarité prédomine et les frustrations s'installent Diam's et Admiral sur le même instrumental Voir nos frères traîner, obligé que ça nous fasse mal Nous sommes tous dans la même galère ghetto youth et banlieusards Y'a pas de différence pour eux t'es un marginal Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Mais de l'ambition, pas de résignation Gens des ghettos, des banlieues, gens de petite condition Evite la prison, l'argent sale et les po po T'en sortir doit rester toujours ta principale mission Si tu viens du ghetto ghetto, si tu viens de la banlieue Tu connais le béton et le bédo et t'as peur que du bon Dieu C'est admirable si T'es une petite banlieusarde et tu finis par kicker avec Admiral T J'aime quand c'est rapide je fais ma thérapie de groupe De Paris aux Antilles une tour ça reste une tour Une banlieue ça reste terne, un homme ça reste fier Et merde mes frères, une femme ça reste une mère Donc je hausse la tête je viens de là où ça pète Moi je viens de là où on rêve, là où on s'aime au lance-roquette Moi je suis fière, je veux décrocher le ciel Brille, brille, range ton cur de pierre et file, file Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Je me suis forgé dans le ghetto, solide comme les métaux N'acceptant pas la défaite sur elle j'ai mis un veto Une confiance totale dans le plus haut, le micro Comme arme plutôt que les 9 millimètres et les Magnums Ouais, les mecs sont forts dans ton ghetto, forgés déjà trop tôt Fans de K1, de Mani, de Fight et de Ze Pequeo Il y a des femmes dans le ghetto, parfois c'est des bons potos Elles veulent être des mini-miss qui rêvent d'être reines dans un château Il y a de l'amour dans les blocs, po po y'a du rap derrière les portes, po po Il y a du ragga dans les caves dans les halls Il y a du Admiral, y'a des jeunes qui râlent La banlieue c'est une spirale où il y a tout plein de petites Diam's Y'a de la rage dans les blocs, po po y'a des gosses dans les tops, po po Et du monde à la porte, po po Je suis fière d'être une nana, j'ai la dalle depuis le cartable C'est pour tous les couche-tard d'ici à Gwadada Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Te bats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, OOH Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Admiral T again Ok le Zénith, toutes les mains en l'air, toutes les mains en l'air Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Combats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, oh Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Si tu viens du ghetto ghetto, si tu viens de banlieue Tu connais le béton et le bédo et t'as peur que du bon Dieu C'est admirable si, po po T'es une petite banlieusarde et tu finis par kicker avec Admiral T J'aime quand c'est rapide je fais ma thérapie de groupe De Paris aux Antilles une tour ça reste une tour Une banlieue ça reste terne, un homme ça reste fier Et merde mes frères, une femme ça reste une mère Donc je hausse la tête je viens de là où ça pète Moi je viens de là où on rêve, là où on s'aime au lance-roquette Moi je suis fière, je veux décrocher le ciel Brille, brille, toutes les mains en l'air You might also like Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Combats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, oh Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Ok, y a de l'amour dans les blocs y a du rap derrière les portes, po po Y a du ragga dans les govs et dans les halls, po po Dans les blocs y a du rap derrière les portes, po po Y a du ragga dans les govs et dans les halls, po po Dans les blocs y a du rap derrière les portes, po po Y a du ragga dans les govs et dans les halls, po po Y a du Admiral, y'a des jeunes qui râlent, la banlieue c'est une spirale où il y a tout plein de petites Diam's Y a de la rage dans les blocs, po po Y a des gosses dans les tops, po po Et y a du monde à la porte, po po Je suis fière d'être une nana, j'ai la dalle depuis le cartable C'est pour tous les couche-tard d'ici à Gwadada DJ Dimé, DJ Dimé y sont chaud, y sont chaud Chauffe-les encore plus s'te plait</t>
+          <t>Admiral T again Ok le Zénith, toutes les mains en l'air, toutes les mains en l'air Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Combats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, oh Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Si tu viens du ghetto ghetto, si tu viens de banlieue Tu connais le béton et le bédo et t'as peur que du bon Dieu C'est admirable si, po po T'es une petite banlieusarde et tu finis par kicker avec Admiral T J'aime quand c'est rapide je fais ma thérapie de groupe De Paris aux Antilles une tour ça reste une tour Une banlieue ça reste terne, un homme ça reste fier Et merde mes frères, une femme ça reste une mère Donc je hausse la tête je viens de là où ça pète Moi je viens de là où on rêve, là où on s'aime au lance-roquette Moi je suis fière, je veux décrocher le ciel Brille, brille, toutes les mains en l'air Tu viens du ghetto mais reste fier Laissez-moi voir les mains en l'air Combats tous les jours pour t'en sortir Laissez-moi voir les mains en l'air C'est pour toutes les banlieues et pour toutes les provinces, oh Laissez-moi voir les mains en l'air C'est pour les princesses et les princes, les grands curs et les pinces Laissez-moi voir Ok, y a de l'amour dans les blocs y a du rap derrière les portes, po po Y a du ragga dans les govs et dans les halls, po po Dans les blocs y a du rap derrière les portes, po po Y a du ragga dans les govs et dans les halls, po po Dans les blocs y a du rap derrière les portes, po po Y a du ragga dans les govs et dans les halls, po po Y a du Admiral, y'a des jeunes qui râlent, la banlieue c'est une spirale où il y a tout plein de petites Diam's Y a de la rage dans les blocs, po po Y a des gosses dans les tops, po po Et y a du monde à la porte, po po Je suis fière d'être une nana, j'ai la dalle depuis le cartable C'est pour tous les couche-tard d'ici à Gwadada DJ Dimé, DJ Dimé y sont chaud, y sont chaud Chauffe-les encore plus s'te plait</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hey hey XXX yes T'entends pas ou quoi XXX Jacky et Ben-J et puis Admiral T Yeah XXX Africa, yeah XXX Spéciale dédicace à tous les pays D'Africa et tous ceux de la Caraïbe réunis La diaspora partout en Europe et aux États-Unis Admiral T, Jacky et puis Ben-J Nous on big up Big up la France, la Côte d'Ivoire, Sénégal, Mali, Togo Bénin, Cameroun, Guinée, Gabon, Niger et puis Congo Admiral T Big up les rude boys et les gos Lévé lévé main a zot ho Madinina épi Gwada, la Guyana Cabo Verde, nou céli La Réunion, l'île Maurice koman sa va Haïti, St Martin, Jamaïca You might also like Ouvé zié ouvé zoréy ouvé zoréy Non rud boy pa pren soméy Tou sa ki lévé en ba soléy C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité T'entends pas? Moi aussi comme le King j'ai fait un rêve Que tous mes négros seraient un jour unis et solidaires Partis des mêmes bateaux, des mêmes navires, des mêmes galères Des Caraïbes en Afrique, on veut des frères noirs et fiers Le soleil nous a donné la plus belle couleur de peau Du plus clair au plus foncé, déhanche-toi sur ce tempo On veut du funana, du zouk ou du n'dombolo, lo lo lo Lé ou fô ou XXX boug intérnational Connecion tropicale Nèg' Marrons et puis Admiral On vient réchauffer la danse et cisailler l'instrumentale Africa West Indies offishal Ouvé zié ouvé zoréy ouvé zoréy Non rud boy pa pren soméy Tou sa ki lévé en ba soléy C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité Black man c'est black man Partout dans le monde, en Afrique aux Antilles ou Paname C'est l'même feu qui nous enflamme Même histoire, même passé qui soude les liens du cur C'est plus fort que moi, j'aime trop l'Afrique La chaleur et l'ambiance, rester loin Non non, non non non non, j'peux pas J'aime trop la mer, le soleil et les îles, les filles Les West Indies, rester trop loin Non non, non non non non, j'peux pas On a beaucoup d'humilité On garde la joie au cur malgré la dure réalité C'qui nous tue pas nous rend plus fort et on connaît la vérité Restons nèg, nè-nè-nè-nèg Tous ensembles dans l'unité Ouvé zié ouvé zoréy ouvé zoréy Non rud boy pa pren soméy Tou sa ki lévé en ba soléy C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité Le sang qui coule dans nos veines C'est la même Que tu sois chabin ou noir ébène C'est la même Partout où les gens nous ressemblent C'est la même C'est c'est c'est la même C'est c'est c'est la même Africain Carïbéen C'est la même Du 9-5 au 9-7-1 C'est la même Admiral T, Jacky, Ben-J C'est la même C'est c'est c'est la même C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité</t>
+          <t>Hey hey XXX yes T'entends pas ou quoi XXX Jacky et Ben-J et puis Admiral T Yeah XXX Africa, yeah XXX Spéciale dédicace à tous les pays D'Africa et tous ceux de la Caraïbe réunis La diaspora partout en Europe et aux États-Unis Admiral T, Jacky et puis Ben-J Nous on big up Big up la France, la Côte d'Ivoire, Sénégal, Mali, Togo Bénin, Cameroun, Guinée, Gabon, Niger et puis Congo Admiral T Big up les rude boys et les gos Lévé lévé main a zot ho Madinina épi Gwada, la Guyana Cabo Verde, nou céli La Réunion, l'île Maurice koman sa va Haïti, St Martin, Jamaïca Ouvé zié ouvé zoréy ouvé zoréy Non rud boy pa pren soméy Tou sa ki lévé en ba soléy C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité T'entends pas? Moi aussi comme le King j'ai fait un rêve Que tous mes négros seraient un jour unis et solidaires Partis des mêmes bateaux, des mêmes navires, des mêmes galères Des Caraïbes en Afrique, on veut des frères noirs et fiers Le soleil nous a donné la plus belle couleur de peau Du plus clair au plus foncé, déhanche-toi sur ce tempo On veut du funana, du zouk ou du n'dombolo, lo lo lo Lé ou fô ou XXX boug intérnational Connecion tropicale Nèg' Marrons et puis Admiral On vient réchauffer la danse et cisailler l'instrumentale Africa West Indies offishal Ouvé zié ouvé zoréy ouvé zoréy Non rud boy pa pren soméy Tou sa ki lévé en ba soléy C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité Black man c'est black man Partout dans le monde, en Afrique aux Antilles ou Paname C'est l'même feu qui nous enflamme Même histoire, même passé qui soude les liens du cur C'est plus fort que moi, j'aime trop l'Afrique La chaleur et l'ambiance, rester loin Non non, non non non non, j'peux pas J'aime trop la mer, le soleil et les îles, les filles Les West Indies, rester trop loin Non non, non non non non, j'peux pas On a beaucoup d'humilité On garde la joie au cur malgré la dure réalité C'qui nous tue pas nous rend plus fort et on connaît la vérité Restons nèg, nè-nè-nè-nèg Tous ensembles dans l'unité Ouvé zié ouvé zoréy ouvé zoréy Non rud boy pa pren soméy Tou sa ki lévé en ba soléy C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité Le sang qui coule dans nos veines C'est la même Que tu sois chabin ou noir ébène C'est la même Partout où les gens nous ressemblent C'est la même C'est c'est c'est la même C'est c'est c'est la même Africain Carïbéen C'est la même Du 9-5 au 9-7-1 C'est la même Admiral T, Jacky, Ben-J C'est la même C'est c'est c'est la même C'est l'union qui fait la force Tous rassemblés dans la joie et la fraternité C'est l'union qui fait la force Toutes les mains levées dans l'unité</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yeah, well this is Admiral T again, Yeah Ils s'en foutent de tes problèmes Ne te fais pas d'illusion, non Ce ne sont que des marchands de sable Qui t'endorment avec leurs promesses Politic's time again Yeah T'aimes pas les noirs, t'aimes pas les arabes Mais qui votera pour toi T'as été mis en examen pour avoir, spolie l'argent du contribuable Qui votera pour toi T'as pas été au placard, pourtant t'es coupable Mais qui votera pour toi Mais dites-moi qui Qui Mais qui votera pour toi La fin du mois fut difficile Eux ils investissent dans les bombes dans les missiles On a pas fait LENA mais on est pas des imbéciles Pire que la mafia en Sicile Ils, ne savent rien de tes difficultés Ils parlent ils parlent trop dambiguïté Diviser pour mieux régner Toujours la même méthodologie Ils mentent en prime time, ça passe ou ça passe Excellent dans l'art de la manipulation de masse Fiers d'eux quand ils se regardent dans la glace Pendant que tu charbonnes, ils comptent des liasses Les plus grands voyous s'habillent en costard Mais ils veulent faire la leçon aux jeunes banlieusards Yeah, justice a deux vitesses, Théo et Adama Donc on rêve tous de se casser comme Karim Benzema You might also like T'aimes pas les noirs, t'aimes pas les arabes Mais qui votera pour toi T'as été mis en examen pour avoir, spolie l'argent du contribuable Qui votera pour toi T'as pas été au placard, pourtant t'es coupable Mais qui votera pour toi Mais dites-moi qui Qui Mais qui votera pour toi Ils privilegient lintérêt personnel, a lintérêt général Les dossiers s'empilent Au pole emploi manque de personnel dans le milieu médical Confondent démocratie et oligarchie Résultat dans les rues c'est l'anarchie Tant d'espoir tant de talents quel gâchis Avec ou sans eux faut rien lâcher Ça charbonne dure, ça charbonne dure On attend plus rien d'eux ça c'est sur Ça charbonne dure, ça charbonne dure Malgré le mépris et les injures T'aimes pas les noirs, t'aimes pas les arabes Mais qui votera pour toi T'as été mis en examen pour avoir, spolie l'argent du contribuable Qui votera pour toi T'as pas été au placard, pourtant t'es coupable Mais qui votera pour toi Mais dites-moi qui Qui Mais qui votera pour toi</t>
+          <t>Yeah, well this is Admiral T again, Yeah Ils s'en foutent de tes problèmes Ne te fais pas d'illusion, non Ce ne sont que des marchands de sable Qui t'endorment avec leurs promesses Politic's time again Yeah T'aimes pas les noirs, t'aimes pas les arabes Mais qui votera pour toi T'as été mis en examen pour avoir, spolie l'argent du contribuable Qui votera pour toi T'as pas été au placard, pourtant t'es coupable Mais qui votera pour toi Mais dites-moi qui Qui Mais qui votera pour toi La fin du mois fut difficile Eux ils investissent dans les bombes dans les missiles On a pas fait LENA mais on est pas des imbéciles Pire que la mafia en Sicile Ils, ne savent rien de tes difficultés Ils parlent ils parlent trop dambiguïté Diviser pour mieux régner Toujours la même méthodologie Ils mentent en prime time, ça passe ou ça passe Excellent dans l'art de la manipulation de masse Fiers d'eux quand ils se regardent dans la glace Pendant que tu charbonnes, ils comptent des liasses Les plus grands voyous s'habillent en costard Mais ils veulent faire la leçon aux jeunes banlieusards Yeah, justice a deux vitesses, Théo et Adama Donc on rêve tous de se casser comme Karim Benzema T'aimes pas les noirs, t'aimes pas les arabes Mais qui votera pour toi T'as été mis en examen pour avoir, spolie l'argent du contribuable Qui votera pour toi T'as pas été au placard, pourtant t'es coupable Mais qui votera pour toi Mais dites-moi qui Qui Mais qui votera pour toi Ils privilegient lintérêt personnel, a lintérêt général Les dossiers s'empilent Au pole emploi manque de personnel dans le milieu médical Confondent démocratie et oligarchie Résultat dans les rues c'est l'anarchie Tant d'espoir tant de talents quel gâchis Avec ou sans eux faut rien lâcher Ça charbonne dure, ça charbonne dure On attend plus rien d'eux ça c'est sur Ça charbonne dure, ça charbonne dure Malgré le mépris et les injures T'aimes pas les noirs, t'aimes pas les arabes Mais qui votera pour toi T'as été mis en examen pour avoir, spolie l'argent du contribuable Qui votera pour toi T'as pas été au placard, pourtant t'es coupable Mais qui votera pour toi Mais dites-moi qui Qui Mais qui votera pour toi</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mille et une vies à balancer les dés Mille et une nuits à ressasser le plan Mille et une folies à capturer le temps Mille et un virages à courir les belles images À courir les belles images La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune Maintenant, tout est clair Moi j'croyais qu'le futur était pris dans la glace comme les images d'hier La vie était écrite telle les tables au Sinaï Mais on est tous maîtres de nos virages au final C'est clair, ma tête tourne et l'volant, j'le manie mal J'ai trop passé de temps à raisonner en homme Là où on te traite comme un animal Une bête de somme, une sombre merde alors au guichet J'ai réclamé ma somme Dommage collatéral de société moderne Où les plus gros salauds s'font passer pour de parfaits modèles Mon assurance dans la jaquette Leur système bâti sur la monnaie est plus fragile que mes maquettes You might also like Ma ma tête tête tourne tourne Admiral T again La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune So mi go so den La roue tourne la roue tourne la roue tourne l'heure est venue d'assumer-mé-mé Ce n'est pas un cartoon cartoon On vit pas dans un dessin animé-mé-mé J'ai fait mon choix Autour de moi Trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterminé La roue tourne la roue tourne la roue tourne la roue tourne L'heure est venue de l'assumer-mé-mé C'n'est pas un cartoon On n'vit pas dans un dessin animé-mé-mé J'ai fait mon choix, autour de moi, trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterrrrminé Again and again AKH La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune Admiral T again On s'met au centre des choses, si bien qu'on n'voit plus les possibilités Le mensonge devient civilité C'est vrai, j'suis seul face à ma conscience Le hasard fait les choses, les dés n'ont pas roulé dans mon sens La tête tourne et c'est ma vie qui s'écroule J'ai croqué dans la haine et dans l'mauvais écrou J'ai dit j't'aime quand ma ligne était placée sur écoute J'aurais pu me caser, mais j'ai des ailes accrochées à mon cou J'ai couru l'monde, des US à la Sicile Peut-être le bonheur simple, c'est un magasin à Clichy Y a pas de destin, mais des virages Maintenant, la crainte prend l'pas et l'ennemi revêt mon visage Ma ma tête tête tourne tourne Outta dem, outta dem again La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune La roue tourne la roue tourne la roue tourne l'heure est venue d'assumer-mé-mé Ce n'est pas un cartoon cartoon On vit pas dans un dessin animé-mé-mé J'ai fait mon choix Autour de moi Trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterminé La roue tourne la roue tourne la roue tourne la roue tourne L'heure est venue de l'assumer-mé-mé C'n'est pas un cartoon On n'vit pas dans un dessin animé-mé-mé J'ai fait mon choix, autour de moi, trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterrrrminé Outta dem again La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune J'peux pas râler, de toutes parts on m'a proposé des chaises Mais des chaises j'en veux pas, c'est pour les chèvres attachées à des chaînes Sûrement pas le meilleur, j'ai agi à l'instinct Que d'instants d'liberté diluée, vécus en clandestin La roue tourne et bien, c'est universel Vis ma vie chaque jour le dernier anniversaire Où j'ai soufflé sur la corde raide tressée pour me pendre J'suis monté si haut dans l'ciel, forcément faut descendre J'ai l'choix, l'ascenseur est en marche Mais je sais que ce sera par les cheveux, traîné sur les marches La fortune a ses revers Et qui vit par les armes en meurt, et ça quels que soient ses repères Admiral T again Ma ma tête tête tourne tourne Yeah La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune La roue tourne la roue tourne la roue tourne l'heure est venue d'assumer-mé-mé Ce n'est pas un cartoon cartoon On vit pas dans un dessin animé-mé-mé J'ai fait mon choix Autour de moi Tous les terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterminé La roue tourne la roue tourne la roue tourne la roue tourne L'heure est venue de l'assumer-mé-mé C'n'est pas un cartoon On n'vit pas dans un dessin animé-mé-mé J'ai fait mon choix, autour de moi, tous les terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterrrrminé Outta dem again Cercle Rouge La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune XXX sorti du ghetto nous sortis yeah Fais en sorte que le bon choix bien fait yeah Si Faut savoir que là, la roue tourne Yeah Ce que tu sèmes, c'est c'que tu récoltes Admiral T Yeah</t>
+          <t>Mille et une vies à balancer les dés Mille et une nuits à ressasser le plan Mille et une folies à capturer le temps Mille et un virages à courir les belles images À courir les belles images La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune Maintenant, tout est clair Moi j'croyais qu'le futur était pris dans la glace comme les images d'hier La vie était écrite telle les tables au Sinaï Mais on est tous maîtres de nos virages au final C'est clair, ma tête tourne et l'volant, j'le manie mal J'ai trop passé de temps à raisonner en homme Là où on te traite comme un animal Une bête de somme, une sombre merde alors au guichet J'ai réclamé ma somme Dommage collatéral de société moderne Où les plus gros salauds s'font passer pour de parfaits modèles Mon assurance dans la jaquette Leur système bâti sur la monnaie est plus fragile que mes maquettes Ma ma tête tête tourne tourne Admiral T again La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune So mi go so den La roue tourne la roue tourne la roue tourne l'heure est venue d'assumer-mé-mé Ce n'est pas un cartoon cartoon On vit pas dans un dessin animé-mé-mé J'ai fait mon choix Autour de moi Trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterminé La roue tourne la roue tourne la roue tourne la roue tourne L'heure est venue de l'assumer-mé-mé C'n'est pas un cartoon On n'vit pas dans un dessin animé-mé-mé J'ai fait mon choix, autour de moi, trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterrrrminé Again and again AKH La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune Admiral T again On s'met au centre des choses, si bien qu'on n'voit plus les possibilités Le mensonge devient civilité C'est vrai, j'suis seul face à ma conscience Le hasard fait les choses, les dés n'ont pas roulé dans mon sens La tête tourne et c'est ma vie qui s'écroule J'ai croqué dans la haine et dans l'mauvais écrou J'ai dit j't'aime quand ma ligne était placée sur écoute J'aurais pu me caser, mais j'ai des ailes accrochées à mon cou J'ai couru l'monde, des US à la Sicile Peut-être le bonheur simple, c'est un magasin à Clichy Y a pas de destin, mais des virages Maintenant, la crainte prend l'pas et l'ennemi revêt mon visage Ma ma tête tête tourne tourne Outta dem, outta dem again La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune La roue tourne la roue tourne la roue tourne l'heure est venue d'assumer-mé-mé Ce n'est pas un cartoon cartoon On vit pas dans un dessin animé-mé-mé J'ai fait mon choix Autour de moi Trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterminé La roue tourne la roue tourne la roue tourne la roue tourne L'heure est venue de l'assumer-mé-mé C'n'est pas un cartoon On n'vit pas dans un dessin animé-mé-mé J'ai fait mon choix, autour de moi, trop de terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterrrrminé Outta dem again La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune J'peux pas râler, de toutes parts on m'a proposé des chaises Mais des chaises j'en veux pas, c'est pour les chèvres attachées à des chaînes Sûrement pas le meilleur, j'ai agi à l'instinct Que d'instants d'liberté diluée, vécus en clandestin La roue tourne et bien, c'est universel Vis ma vie chaque jour le dernier anniversaire Où j'ai soufflé sur la corde raide tressée pour me pendre J'suis monté si haut dans l'ciel, forcément faut descendre J'ai l'choix, l'ascenseur est en marche Mais je sais que ce sera par les cheveux, traîné sur les marches La fortune a ses revers Et qui vit par les armes en meurt, et ça quels que soient ses repères Admiral T again Ma ma tête tête tourne tourne Yeah La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune La roue tourne la roue tourne la roue tourne l'heure est venue d'assumer-mé-mé Ce n'est pas un cartoon cartoon On vit pas dans un dessin animé-mé-mé J'ai fait mon choix Autour de moi Tous les terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterminé La roue tourne la roue tourne la roue tourne la roue tourne L'heure est venue de l'assumer-mé-mé C'n'est pas un cartoon On n'vit pas dans un dessin animé-mé-mé J'ai fait mon choix, autour de moi, tous les terrains sont minés Dominant, pas dominé-né-né Mauvaise mine et j'suis déterrrrminé Outta dem again Cercle Rouge La Terre tourne, ma tête tourne, la roue tourne Chacun, chacun son tour, côtoie la scoumoune XXX sorti du ghetto nous sortis yeah Fais en sorte que le bon choix bien fait yeah Si Faut savoir que là, la roue tourne Yeah Ce que tu sèmes, c'est c'que tu récoltes Admiral T Yeah</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Séw ka ban mwen tout fòs an mwen Séw ka kléré chimen an mwen oh oh Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Tini nonm ki rich, ka fè gwo bénéfis Mè andidan tjè a yo byen pòv Tin sa ki égois mè ka fin tousèl On emmène rien dans sa tombe É mwen sav ka ki enpòwtan É mwen sav ka ki enpòwtan Bizwen lajan pou viv Mè sé pa sa ki pli enpòwtan Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini You might also like Chak jou sé on kado Chak jou sé on ofwand Lèw lévé si on ghetto Pwèmyé lèson ou ka aprann Donk mwen ka viv lavi Mwen ka pwofité Imilité épi jénérozité Mi sé sa ki ka konté Donk mwen ka di Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Bondyé mèsi pou pwotèksyon Bondyé mèsi pou enspirasyon Mwen ka jiréw dè rété fidèl Lè sa pakay mwen sav mwen pa tousèl É mwen ké kontinyé chanté baw Spread love, difizé lanmou aw Pou tousaw ja fè ban mwen Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Bonè, jwa, lanmou Réyèl valè a lavi Pli enpòwtan ki matéwyèl Pli enpòwtan ki lajan É pousa An ka rèmèwsyéw bondyé Ou ban mwen la santé Mèsi bondyé</t>
+          <t>Séw ka ban mwen tout fòs an mwen Séw ka kléré chimen an mwen oh oh Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Tini nonm ki rich, ka fè gwo bénéfis Mè andidan tjè a yo byen pòv Tin sa ki égois mè ka fin tousèl On emmène rien dans sa tombe É mwen sav ka ki enpòwtan É mwen sav ka ki enpòwtan Bizwen lajan pou viv Mè sé pa sa ki pli enpòwtan Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Chak jou sé on kado Chak jou sé on ofwand Lèw lévé si on ghetto Pwèmyé lèson ou ka aprann Donk mwen ka viv lavi Mwen ka pwofité Imilité épi jénérozité Mi sé sa ki ka konté Donk mwen ka di Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Bondyé mèsi pou pwotèksyon Bondyé mèsi pou enspirasyon Mwen ka jiréw dè rété fidèl Lè sa pakay mwen sav mwen pa tousèl É mwen ké kontinyé chanté baw Spread love, difizé lanmou aw Pou tousaw ja fè ban mwen Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Mèsi bondyé, mèsi bondyé Mwen pa milyonè mè mwen an bonne santé Bonè jwa lanmou vo plis ki vanité Mèsi bondyé, mèsi bondyé Mwen ni lésansyél é sé sa ki ka konté Pépa jalou fwè an mwen pou sa ini Bonè, jwa, lanmou Réyèl valè a lavi Pli enpòwtan ki matéwyèl Pli enpòwtan ki lajan É pousa An ka rèmèwsyéw bondyé Ou ban mwen la santé Mèsi bondyé</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Refrain X2 Let we play together, play together Let the music show the world that caribbean people moving with power Couplet1 You know them can't stop we now No matter what they do We are the Carribean French,english and spanish too You know them can't stop we now No matter how they try We are the Caribbean Fight together until we die We biggi'up the vibes The charts we gonna rise Créol music,soca music,reggae music Touching the peope lives There's strength and unity So listen carefully When Guadeloupe,Barbados,Jamaica music Take over the party 5,4,3,2,1,top Yo sav ke lè nou samblé nou yo pé pa stop Ampéché communiké antrè nou non stop Divizé nou,rakonté nou konri non stop Sé nou ki mèt a mannyok Caribbean pa ayen alé fo sa stop Nou sé boss a boss,sé nou ki ka mèt sa o top Vibe la sé la i yé, a pa ni paris ni new-york You might also likeYou know them can't stop we now No matter what they do We are the Carribean French,english and spanish too You know them can't stop we now No matter how they try We are the Caribbean Fight together until we die We biggi'up the vibes The charts we gonna rise Créol music,soca music,reggae music Touching the peope lives There's strength and unity So listen carefully When Guadeloupe,Barbados,Jamaica music Take over the party Refrain X2 Let we play together, play together Let the music show the world that caribbean people moving with power Special request for all rude boys and ladies Que les flammes des briquets luisent Car ce soir c'est la fiesta dans les west-indies And we go done di place Nou kay krazé Plasla Kay limé Fire Evé on still dancehall soca Joué calipso, reggae, zouk, jump up épi gwo ka Tout stil kréyol kay joué o swè la You know them can't stop we now No matter what they do We are the Carribean French,english and spanish too You know them can't stop we now No matter how they try We are the Caribbean Fight together until we die Refrain X2 Let we play together, play together Let the music show the world that the caribbean people moving with power</t>
+          <t>Refrain X2 Let we play together, play together Let the music show the world that caribbean people moving with power Couplet1 You know them can't stop we now No matter what they do We are the Carribean French,english and spanish too You know them can't stop we now No matter how they try We are the Caribbean Fight together until we die We biggi'up the vibes The charts we gonna rise Créol music,soca music,reggae music Touching the peope lives There's strength and unity So listen carefully When Guadeloupe,Barbados,Jamaica music Take over the party 5,4,3,2,1,top Yo sav ke lè nou samblé nou yo pé pa stop Ampéché communiké antrè nou non stop Divizé nou,rakonté nou konri non stop Sé nou ki mèt a mannyok Caribbean pa ayen alé fo sa stop Nou sé boss a boss,sé nou ki ka mèt sa o top Vibe la sé la i yé, a pa ni paris ni new-york You know them can't stop we now No matter what they do We are the Carribean French,english and spanish too You know them can't stop we now No matter how they try We are the Caribbean Fight together until we die We biggi'up the vibes The charts we gonna rise Créol music,soca music,reggae music Touching the peope lives There's strength and unity So listen carefully When Guadeloupe,Barbados,Jamaica music Take over the party Refrain X2 Let we play together, play together Let the music show the world that caribbean people moving with power Special request for all rude boys and ladies Que les flammes des briquets luisent Car ce soir c'est la fiesta dans les west-indies And we go done di place Nou kay krazé Plasla Kay limé Fire Evé on still dancehall soca Joué calipso, reggae, zouk, jump up épi gwo ka Tout stil kréyol kay joué o swè la You know them can't stop we now No matter what they do We are the Carribean French,english and spanish too You know them can't stop we now No matter how they try We are the Caribbean Fight together until we die Refrain X2 Let we play together, play together Let the music show the world that the caribbean people moving with power</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Zot pé di sa zot vlé, fè sa zot vlé Kréyol, sé sa nou yé, sé sa nou ké rété Nou sé timoun a woi, timoun a rèn Menm si nou rive pa kal a bato an karayib la Kréyol sé lang an nou Kriyé-y papamiento, kryé-y patwa, kryé-y jan ou vlé Kréyol sé sa nou yé, sé sa nou ké rété Kréyol sé mwen, sé vou, sé nou menm Kréyol, sé idantité an nou Nou ka manjé kréyol, nou ka pansé kréol Kréoyol sé kilti an nou, é dè sa nou fiè Kréyol, sé sa nou yé , sé sa nou ké rétéYou might also like</t>
+          <t>Zot pé di sa zot vlé, fè sa zot vlé Kréyol, sé sa nou yé, sé sa nou ké rété Nou sé timoun a woi, timoun a rèn Menm si nou rive pa kal a bato an karayib la Kréyol sé lang an nou Kriyé-y papamiento, kryé-y patwa, kryé-y jan ou vlé Kréyol sé sa nou yé, sé sa nou ké rété Kréyol sé mwen, sé vou, sé nou menm Kréyol, sé idantité an nou Nou ka manjé kréyol, nou ka pansé kréol Kréoyol sé kilti an nou, é dè sa nou fiè Kréyol, sé sa nou yé , sé sa nou ké rété</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mizik sé lanmou Mizik sé lavi Mizik pa kay janmen mò Music is My Life La musique cest toute ma vie Elle me motive et me redonne espoir Elle a le pouvoir de panser mes maux Quand jai le moral à zéro I Love It so You know Music is My Life Et si tu me demandes pourquoi Je te répondrai Mwen pé pa rété san'y Ah non mwen pé pa viv san'y Mwen pé pa rété san'y Mizik-la andidan san an-mwen Mwen pé pa rété san'y Anponjan pé pa viv san'y Mwen pé pa rété san'y Mizik ka koulé an venn an-mwen Elle ma donné tout ce que jai Sortir du Ghetto elle a changé ma vie Elle ma fait voyager Visiter tellement de pays Elle ma ouvert lesprit Ma donné de la force dans les moments difficiles Ma appris que sur terre rien nest impossible Ma fait voir la fierté dans les yeux de toute ma famille You might also likeMusic yeah Tu me upgrade Me fais vibrer, me fais danser, me rends plus fort Tu me upgrade Et j'en demande encore, oui Mwen pé pa rété san'y Ah non mwen pé pa viv san'y Mwen pé pa rété san'y Mizik-la andidan san an-mwen Mwen pé pa rété san'y Anponjan pé pa viv san'y Mwen pé pa rété san'y Mizik ka koulé an venn an-mwen Elle coule dans mes veines Difficile pour moi de vous dire combien je l'aime Depuis l'époque des sound systems Depuis une vingtaine d'années ont passé Mais rien n'a changé Mon amour pour elle continue à grandir Car elle rassemble les peuples Rapproche les nations Rassemble les jeunes et toutes les générations Elle adoucit les moeurs Après une journée de dur labeur Tous ces enfants qui ont si froid si peur Cause Music is love Music is love Mwen pé pa rété san'y Ah non mwen pé pa viv san'y Mwen pé pa rété san'y Mizik-la andidan san an-mwen Mwen pé pa rété san'y Anponjan pé pa viv san'y Mwen pé pa rété san'y Mizik ka koulé an venn an-mwen Mais que serait la vie sans musique Dites-moi Mais que serait la vie sans musique Music is love Music is life Music is love makes you feel right</t>
+          <t>Mizik sé lanmou Mizik sé lavi Mizik pa kay janmen mò Music is My Life La musique cest toute ma vie Elle me motive et me redonne espoir Elle a le pouvoir de panser mes maux Quand jai le moral à zéro I Love It so You know Music is My Life Et si tu me demandes pourquoi Je te répondrai Mwen pé pa rété san'y Ah non mwen pé pa viv san'y Mwen pé pa rété san'y Mizik-la andidan san an-mwen Mwen pé pa rété san'y Anponjan pé pa viv san'y Mwen pé pa rété san'y Mizik ka koulé an venn an-mwen Elle ma donné tout ce que jai Sortir du Ghetto elle a changé ma vie Elle ma fait voyager Visiter tellement de pays Elle ma ouvert lesprit Ma donné de la force dans les moments difficiles Ma appris que sur terre rien nest impossible Ma fait voir la fierté dans les yeux de toute ma famille Music yeah Tu me upgrade Me fais vibrer, me fais danser, me rends plus fort Tu me upgrade Et j'en demande encore, oui Mwen pé pa rété san'y Ah non mwen pé pa viv san'y Mwen pé pa rété san'y Mizik-la andidan san an-mwen Mwen pé pa rété san'y Anponjan pé pa viv san'y Mwen pé pa rété san'y Mizik ka koulé an venn an-mwen Elle coule dans mes veines Difficile pour moi de vous dire combien je l'aime Depuis l'époque des sound systems Depuis une vingtaine d'années ont passé Mais rien n'a changé Mon amour pour elle continue à grandir Car elle rassemble les peuples Rapproche les nations Rassemble les jeunes et toutes les générations Elle adoucit les moeurs Après une journée de dur labeur Tous ces enfants qui ont si froid si peur Cause Music is love Music is love Mwen pé pa rété san'y Ah non mwen pé pa viv san'y Mwen pé pa rété san'y Mizik-la andidan san an-mwen Mwen pé pa rété san'y Anponjan pé pa viv san'y Mwen pé pa rété san'y Mizik ka koulé an venn an-mwen Mais que serait la vie sans musique Dites-moi Mais que serait la vie sans musique Music is love Music is life Music is love makes you feel right</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sèwten Ka anvyé'y Pas i nice, i cool, i sweet, on princess Nonm ka kouwtizé'y Pas yo sav fanm kon li patini onlo si tè Fè tousa yo pé Ofè'y bag, bèl loto, èkspozé sing dè richès Mè tala pa matéryalis non She is a queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki ka ban mwen zèl Mwen kay fè'w dékouvè on biten kè'w pa konèt Fè'w voyajé méné'w si on nòt planèt Ou ofè mwen tjè aw, konfyans aw Konfyé mwen lé manèt Mwen ka pwomèt vou dèt onèt Chanté baw baby kon Garnet È lèw tann minwi nou ké disparèt Pou rètrouvé nou toulédé An tout entimité Patin ayen an ka posté si entèwnèt So me go so me say Ranpanpanm ragadagadan Sblingbang baladang Èkplozyon kon si sé big bang Mwen enmé'w tibwen plis Chak minit chak sègond Bangbililibang Ou sé on queen é mwen sé King Kong You might also like You are my queen, girl My queen, girl Queen, girl Eve sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki Ka ban mwen zèl Triiit Triiii, t'es une bombe Ça ne blague pas en talon ou en tongue Aussi belle en photo qu'en réalité Femme tu défies les lois de la gravité J'suis en Nirvana en Nirvana non T'as touché mon cur, you touched my soul Dans ma tete c'est la merde, c'est la folie Mon cur s'emballe, je ne peux plus dormir 'Cause you are my queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki Ka ban mwen zèl Sèwten ka anvyé'y Pas i nice, i cool, i sweet, on princess Nonm ka kouwtizé'y Pas yo sav fanm kon li patini onlo si tè Fè tousa yo pé Ofè'y bag, bèl loto, èkspozé sing dè richès Mè tala pa matéryalis non non non non non You are my queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki ka ban mwen zèl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl</t>
+          <t>Sèwten Ka anvyé'y Pas i nice, i cool, i sweet, on princess Nonm ka kouwtizé'y Pas yo sav fanm kon li patini onlo si tè Fè tousa yo pé Ofè'y bag, bèl loto, èkspozé sing dè richès Mè tala pa matéryalis non She is a queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki ka ban mwen zèl Mwen kay fè'w dékouvè on biten kè'w pa konèt Fè'w voyajé méné'w si on nòt planèt Ou ofè mwen tjè aw, konfyans aw Konfyé mwen lé manèt Mwen ka pwomèt vou dèt onèt Chanté baw baby kon Garnet È lèw tann minwi nou ké disparèt Pou rètrouvé nou toulédé An tout entimité Patin ayen an ka posté si entèwnèt So me go so me say Ranpanpanm ragadagadan Sblingbang baladang Èkplozyon kon si sé big bang Mwen enmé'w tibwen plis Chak minit chak sègond Bangbililibang Ou sé on queen é mwen sé King Kong You are my queen, girl My queen, girl Queen, girl Eve sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki Ka ban mwen zèl Triiit Triiii, t'es une bombe Ça ne blague pas en talon ou en tongue Aussi belle en photo qu'en réalité Femme tu défies les lois de la gravité J'suis en Nirvana en Nirvana non T'as touché mon cur, you touched my soul Dans ma tete c'est la merde, c'est la folie Mon cur s'emballe, je ne peux plus dormir 'Cause you are my queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki Ka ban mwen zèl Sèwten ka anvyé'y Pas i nice, i cool, i sweet, on princess Nonm ka kouwtizé'y Pas yo sav fanm kon li patini onlo si tè Fè tousa yo pé Ofè'y bag, bèl loto, èkspozé sing dè richès Mè tala pa matéryalis non non non non non You are my queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Li sèl ki ka ban mwen zèl Queen, girl Èvè sé tan mwen tousèl Baby you're my queen, girl My queen, girl Queen, girl Èvè sé tan mwen tousèl</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yeah! Yeah! Admiral T! Rohff! Ou sav ola mwen soti gason Débrouya dépi tou piti gason Poté ganm si le fo fé dè kout' mason Amidi angé bé è jambon adan moso banton A12 an Koumancé ékri text' Ay an sound system ta lè swa mem si manmam vex Domi dewo, domi dewo tou sa pou an mikro Pran koud' senti, pran koud' kouwa tou sa pou on micko Gason, c'est comme sa garçon, il n'y a pas de secret garçon Si tu veux être number one Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom You might also like J'me tue au taff j'ai mon label, mon staff J'ai stoppé les grosse taffes les culs-secs et les staffs Starfuckeuses , elles sont bonnes quand t'es number one Quand tu gères les ondes en restant underground T'es troublé ?! J'ai pas fait la queue, j'ai doublé J'ai pas le temps, pas l'choix ,j'ai trop redoublé Le show-biz est trempé T'1kiet , la rue j'la respecte J'm'affiche pas dans les émissions de variet' Incorruptible, J'chante avec les triples et c'est audible Visible dans les clips enlève le son, toujours crédible L'enfant est terrible tous les yeux sur moi Troue la rime sur moi elles veulent monter sur moi Suis moi, H24 à jeun j'lâche rien J'rappe comme un porc , écrit comme un chien Toujours en état d'alerte , avec ou sans escorte Ma voix m'a sorti de la merde en m'tirant par les cordes Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom Ne sois pas trop pressé garçon si tu veux progresser C'est le travail qui paye il n'y a pas de formule magique Garçon , tu veux aller plus vite que la musique Devenir une star académique Il n'y a que la pluie , que la neige que la grêle qui tombent du ciel Il n'y a pas de disque d'or dans le sac du Père Noel Petit, tu veux ressembler a Admiral T à Rohff il te faut taffer Taffer, taffer pour être un ... Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom Ou sav ola mwen soti gason Débrouya dépi tou piti gason Poté ganm si le fo fé dè kout' mason Amidi angé bé è jambon adan moso banton A12 an Koumancé ékri text' Ay an sound system ta lè swa mem si manmam vex Domi dewo, domi dewo tou sa pou an mikro Pran koud' senti, pran koud' kouwa tou sa pou on micko Gason, c'est comme sa garçon, il n'y a pas de secret garçon Si tu veux être Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom</t>
+          <t>Yeah! Yeah! Admiral T! Rohff! Ou sav ola mwen soti gason Débrouya dépi tou piti gason Poté ganm si le fo fé dè kout' mason Amidi angé bé è jambon adan moso banton A12 an Koumancé ékri text' Ay an sound system ta lè swa mem si manmam vex Domi dewo, domi dewo tou sa pou an mikro Pran koud' senti, pran koud' kouwa tou sa pou on micko Gason, c'est comme sa garçon, il n'y a pas de secret garçon Si tu veux être number one Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom J'me tue au taff j'ai mon label, mon staff J'ai stoppé les grosse taffes les culs-secs et les staffs Starfuckeuses , elles sont bonnes quand t'es number one Quand tu gères les ondes en restant underground T'es troublé ?! J'ai pas fait la queue, j'ai doublé J'ai pas le temps, pas l'choix ,j'ai trop redoublé Le show-biz est trempé T'1kiet , la rue j'la respecte J'm'affiche pas dans les émissions de variet' Incorruptible, J'chante avec les triples et c'est audible Visible dans les clips enlève le son, toujours crédible L'enfant est terrible tous les yeux sur moi Troue la rime sur moi elles veulent monter sur moi Suis moi, H24 à jeun j'lâche rien J'rappe comme un porc , écrit comme un chien Toujours en état d'alerte , avec ou sans escorte Ma voix m'a sorti de la merde en m'tirant par les cordes Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom Ne sois pas trop pressé garçon si tu veux progresser C'est le travail qui paye il n'y a pas de formule magique Garçon , tu veux aller plus vite que la musique Devenir une star académique Il n'y a que la pluie , que la neige que la grêle qui tombent du ciel Il n'y a pas de disque d'or dans le sac du Père Noel Petit, tu veux ressembler a Admiral T à Rohff il te faut taffer Taffer, taffer pour être un ... Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom Ou sav ola mwen soti gason Débrouya dépi tou piti gason Poté ganm si le fo fé dè kout' mason Amidi angé bé è jambon adan moso banton A12 an Koumancé ékri text' Ay an sound system ta lè swa mem si manmam vex Domi dewo, domi dewo tou sa pou an mikro Pran koud' senti, pran koud' kouwa tou sa pou on micko Gason, c'est comme sa garçon, il n'y a pas de secret garçon Si tu veux être Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Le plus dur n'est pas d'y arriver mais d'y rester Number one Rapper, toaster, comme un number one Faut travailler dur dur , pour être un number one Tu rêve d'être d'être un number one Some me go so boom</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yo eh manamal see agaain!!! Yo eh gay sa gasson Nen sérieu sérieu Ou pé an baggy, pantalon, chot ou bewmida Trico, polo, chimiz, débadè ou kosta Sandal, ténis, pawsiat , ou bien mika O swé la nou tout' paré pou fé en fiesta Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun'la ka wayné OK!!! Couplet 1 You might also likeOu pé rantré pé impot jan la ou abiyé Nou pa ni préjigé dépi ou vinn pou déliré Pantalon bésé monté nou pa ka gadé dé la tèt' o pyé Pa pè rentré soté maté siw plé O swé la mouvman la blindé Ni moun ki abiyé cool moun ki sapé Chalé ka monté syé ka koulé Moun'ka dansé san arété é nou pa ka flipé pas swaré là opé opé Tout' sal' la ka chofé son ka fé nou bougé É nou pé pa stopé stopé paské sé sa nou inmé lé nou kay an swaré BOU!!!!!!! Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun'la ka wayné OK!!! Couplet 2 Raproché zot pa rété an bala O swé la nou kay pran pié la Kon ti bébé an youpala Tanpi ba tout sa ki pa la Bitin la bon kon nitéla Nou vlé pa finn inité la Imposib ké nou kité la Yo so me go so then Soley ké woté nou la Pé pa pren soméy son la two bon la Tou sa ki ka swé woté foula évè mété zot ka, mété zot ka Soté soté soté Saykiu !!!!!!! Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin'ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!!! Couplet 3 Hey oh ambians la o maximun sélekta là pa ka moli on may Tout moun krié Hey oh limé lé briké jistan gaz là finn an vlé tann zot scream Yo!!! Hey oh yo ka swé kon glason ti'fi kon ti'gason yo ka fonn si plas Hey oh o swé la pa ni goumé an sal la fo i ni disiplin Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout'moun'la ka wayné OK!!! Ou pé an baggy, pantalon, chot ou bewmida Trico, polo, chimiz, débadè ou kosta Sandal, ténis, pawsiat , ou bien mika O swé la nou tout'paré pou fé en fiesta</t>
+          <t>Yo eh manamal see agaain!!! Yo eh gay sa gasson Nen sérieu sérieu Ou pé an baggy, pantalon, chot ou bewmida Trico, polo, chimiz, débadè ou kosta Sandal, ténis, pawsiat , ou bien mika O swé la nou tout' paré pou fé en fiesta Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun'la ka wayné OK!!! Couplet 1 Ou pé rantré pé impot jan la ou abiyé Nou pa ni préjigé dépi ou vinn pou déliré Pantalon bésé monté nou pa ka gadé dé la tèt' o pyé Pa pè rentré soté maté siw plé O swé la mouvman la blindé Ni moun ki abiyé cool moun ki sapé Chalé ka monté syé ka koulé Moun'ka dansé san arété é nou pa ka flipé pas swaré là opé opé Tout' sal' la ka chofé son ka fé nou bougé É nou pé pa stopé stopé paské sé sa nou inmé lé nou kay an swaré BOU!!!!!!! Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun'la ka wayné OK!!! Couplet 2 Raproché zot pa rété an bala O swé la nou kay pran pié la Kon ti bébé an youpala Tanpi ba tout sa ki pa la Bitin la bon kon nitéla Nou vlé pa finn inité la Imposib ké nou kité la Yo so me go so then Soley ké woté nou la Pé pa pren soméy son la two bon la Tou sa ki ka swé woté foula évè mété zot ka, mété zot ka Soté soté soté Saykiu !!!!!!! Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin'ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!!! Couplet 3 Hey oh ambians la o maximun sélekta là pa ka moli on may Tout moun krié Hey oh limé lé briké jistan gaz là finn an vlé tann zot scream Yo!!! Hey oh yo ka swé kon glason ti'fi kon ti'gason yo ka fonn si plas Hey oh o swé la pa ni goumé an sal la fo i ni disiplin Refrain Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout' moun' la ka wayné OK!! Métew ka soté Nou pa la pou plézanté Ni son a volonté OK!!! Platin' ka touné Sélékta ka mixé Tout'moun'la ka wayné OK!!! Ou pé an baggy, pantalon, chot ou bewmida Trico, polo, chimiz, débadè ou kosta Sandal, ténis, pawsiat , ou bien mika O swé la nou tout'paré pou fé en fiesta</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A pa sa'w ka kwè la mwen téka gadé An té sèten kè'w téké di mwen gadé Baby sé vou tousèl kè mwen ka gadé Sa ka fan'an ri mè mwen paka manti ba'w Mwen sèten kè lè mwen pala'w ka gadé Pa fè konsi dapré'w ou paka gadé Anplis an sèten kè'y vwè ou gadé'y Fanm kay pli vit ki nonm mè sa an tèt aw Ok mwen ka avoué kè mwen gadé Kon vou mèm gadé Si bondyé ban nou zyé sé pou nou gadé Mè baby ou sav byen kè sa pa vé di ayen Alò pa boudé Fò pa kè sa mèt pwoblèm antrè nou dé baby Mwen té sav sa Ou vwè ki jan'w té ja ka manti ban mwen Ou pépa anpéché'w gadé Mèm an prézans an mwen Sé pa jalouz mwen jalouz Mè sa ka énèwvé mwen Lè'w vwè nou adé pa gadé moun Rèspekté mwen Si mwen téka fè kon vou ka ou téké di mwen An plis lè mwen diw sa ou ka rèdi mwen You might also like Mwen pa konèt pon nonm ki paka gadé Sé konsa dèpi l'homme de Néandertal Jis gadé mwen ka gadé, pa fè ayen dè mal Dayè fanm piw ki nonm, yo ni dé lidé bèstyal Sé pa pou lé mèm rézon kè nou ka gadé Antrè fanm sa toutafè nòwmal Nou ka gadé vètman, kwafiw, lé détay Zòt, zòt ka gadé fès lé pawti jénital Ou ka rensé zyé aw Kayè an pa asé byen ba'w Ou ka dévoré fanm du regard Chéri ou kay two lwen Pa fè kòlè vini'w an bwa an mwen Pon yon pépa test sèw ki pli bèl ban mwen A pa dèsa kè mwen ka palé Ou ka éséyé chanjé sijè dapré'w Mè si mwen sa paka maché An ka vwè'y ka gadé mè'y ka ozé di mwen Chak fanm kika pasé Ou ka gadé'y surtout si'y an fòwm Pa di mwen non Mwen sav jan saka pasé Zòt fanm surtout lè zòt ansanm Ka palé dè nonm Pou on ti ayen zòt vlé kasé Pa janmen vlé kwè Adan inosans a on nonm Fin èvè sa mwen ni asé Zòt tout mèm jan la Douvan fanm on nonm ka rété on nonm Hé ki wòl aw èvè misyé Poukwa'w ka gadé misyé konsa J'le regardais pas An vwè'w ka gadé'y Ou ka di mwen ou pa gadé'y Ben j'te dis que non Ou branché si misyé ou kwa Vas y pense ce que tu veux Awa an pa'a dakò, an Sé on tèbè a Je t'ai dit que non Pa gadé pon Moun, Pa gadé'y Je t'ai dit que je ne le regardais pas !</t>
+          <t>A pa sa'w ka kwè la mwen téka gadé An té sèten kè'w téké di mwen gadé Baby sé vou tousèl kè mwen ka gadé Sa ka fan'an ri mè mwen paka manti ba'w Mwen sèten kè lè mwen pala'w ka gadé Pa fè konsi dapré'w ou paka gadé Anplis an sèten kè'y vwè ou gadé'y Fanm kay pli vit ki nonm mè sa an tèt aw Ok mwen ka avoué kè mwen gadé Kon vou mèm gadé Si bondyé ban nou zyé sé pou nou gadé Mè baby ou sav byen kè sa pa vé di ayen Alò pa boudé Fò pa kè sa mèt pwoblèm antrè nou dé baby Mwen té sav sa Ou vwè ki jan'w té ja ka manti ban mwen Ou pépa anpéché'w gadé Mèm an prézans an mwen Sé pa jalouz mwen jalouz Mè sa ka énèwvé mwen Lè'w vwè nou adé pa gadé moun Rèspekté mwen Si mwen téka fè kon vou ka ou téké di mwen An plis lè mwen diw sa ou ka rèdi mwen Mwen pa konèt pon nonm ki paka gadé Sé konsa dèpi l'homme de Néandertal Jis gadé mwen ka gadé, pa fè ayen dè mal Dayè fanm piw ki nonm, yo ni dé lidé bèstyal Sé pa pou lé mèm rézon kè nou ka gadé Antrè fanm sa toutafè nòwmal Nou ka gadé vètman, kwafiw, lé détay Zòt, zòt ka gadé fès lé pawti jénital Ou ka rensé zyé aw Kayè an pa asé byen ba'w Ou ka dévoré fanm du regard Chéri ou kay two lwen Pa fè kòlè vini'w an bwa an mwen Pon yon pépa test sèw ki pli bèl ban mwen A pa dèsa kè mwen ka palé Ou ka éséyé chanjé sijè dapré'w Mè si mwen sa paka maché An ka vwè'y ka gadé mè'y ka ozé di mwen Chak fanm kika pasé Ou ka gadé'y surtout si'y an fòwm Pa di mwen non Mwen sav jan saka pasé Zòt fanm surtout lè zòt ansanm Ka palé dè nonm Pou on ti ayen zòt vlé kasé Pa janmen vlé kwè Adan inosans a on nonm Fin èvè sa mwen ni asé Zòt tout mèm jan la Douvan fanm on nonm ka rété on nonm Hé ki wòl aw èvè misyé Poukwa'w ka gadé misyé konsa J'le regardais pas An vwè'w ka gadé'y Ou ka di mwen ou pa gadé'y Ben j'te dis que non Ou branché si misyé ou kwa Vas y pense ce que tu veux Awa an pa'a dakò, an Sé on tèbè a Je t'ai dit que non Pa gadé pon Moun, Pa gadé'y Je t'ai dit que je ne le regardais pas !</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! Je passe mon temps à travailler, m'occuper de mon foyer De temps en temps jober pour payer le loyer Je n'ai pas de temps pour les futilités J'en profite jusqu'à ce que mon cur n'ait plus de tonalité Trop de violence à la télé, ça rend certains jeunes fêlés Donc résultat, dans la rue PAPAA.. yo ka chèché lélé Joue pas avec ta vie Tu n'as rien à prouver si tu veux mon avis Faut penser à demain tout en vivant l'instant présent Profiter de ce beau cadeau que nous a fait le Tout Puissant Tu n'en a pas deux et qu'elle seule et tu le sais La vie n'est qu'une aventure éphémère Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! You might also likeDe temps en temps je prends du bon temps Profite du beau temps, j'attends que le temps passe Quand on passe tant de temps à travailler faut un passe-temps Sa vie à batailler faut un passe-temps ten ten ten Car c'est important, même si t'es bien portant Tu ne vivras pas longtemps avec ce qu'on boit, ce qu'on mange, on vivra pas cent ans Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! La vie est une belle femme et je l'aime Je n'attendrai pas un drame pour lui avouer Je la préserve et prends soin d'elle Car elle est sensible et fragile x2 Tou lé maten lè mwen lévé obligé rèmewsié bondié Pou santé pou prospérité Diy kè mwen content dè la vi E menm lé jou sa pa ka lé, mwen paka janmé déprimé Mwen pa ka lagé pass tini pir ki mwen an dot koté Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! Je passe mon temps à travailler, m'occuper de mon foyer De temps en temps jober pour payer le loyer Je n'ai pas de temps pour les futilités J'en profite jusqu'à ce que mon cur n'ait plus de tonalité Trop de violence à la télé, ça rend certains jeunes fêlés Donc résultat, dans la rue PAPAA.. yo ka chèché lélé Joue pas avec ta vie Tu n'as rien à prouver si tu veux mon avis Faut penser à demain tout en vivant l'instant présent Profiter de ce beau cadeau que nous a fait le Tout Puissant Tu n'en a pas deux et qu'elle seule et tu le sais La vie n'est qu'une aventure éphémère Refrain</t>
+          <t>Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! Je passe mon temps à travailler, m'occuper de mon foyer De temps en temps jober pour payer le loyer Je n'ai pas de temps pour les futilités J'en profite jusqu'à ce que mon cur n'ait plus de tonalité Trop de violence à la télé, ça rend certains jeunes fêlés Donc résultat, dans la rue PAPAA.. yo ka chèché lélé Joue pas avec ta vie Tu n'as rien à prouver si tu veux mon avis Faut penser à demain tout en vivant l'instant présent Profiter de ce beau cadeau que nous a fait le Tout Puissant Tu n'en a pas deux et qu'elle seule et tu le sais La vie n'est qu'une aventure éphémère Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! De temps en temps je prends du bon temps Profite du beau temps, j'attends que le temps passe Quand on passe tant de temps à travailler faut un passe-temps Sa vie à batailler faut un passe-temps ten ten ten Car c'est important, même si t'es bien portant Tu ne vivras pas longtemps avec ce qu'on boit, ce qu'on mange, on vivra pas cent ans Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! La vie est une belle femme et je l'aime Je n'attendrai pas un drame pour lui avouer Je la préserve et prends soin d'elle Car elle est sensible et fragile x2 Tou lé maten lè mwen lévé obligé rèmewsié bondié Pou santé pou prospérité Diy kè mwen content dè la vi E menm lé jou sa pa ka lé, mwen paka janmé déprimé Mwen pa ka lagé pass tini pir ki mwen an dot koté Refrain Le temps m'est précieux Comme pour un homme atteint d'un cancer La vie n'est qu'une aventure éphémère Je n'ai pas de temps a perdre hey!, pas de temps à perdre hey! Le temps file garçon aussi vite que l'éclair Il nous attendra pas c'est clair Je n'ai pas de temps à perdre hey! , pas de temps à perdre hey! Je passe mon temps à travailler, m'occuper de mon foyer De temps en temps jober pour payer le loyer Je n'ai pas de temps pour les futilités J'en profite jusqu'à ce que mon cur n'ait plus de tonalité Trop de violence à la télé, ça rend certains jeunes fêlés Donc résultat, dans la rue PAPAA.. yo ka chèché lélé Joue pas avec ta vie Tu n'as rien à prouver si tu veux mon avis Faut penser à demain tout en vivant l'instant présent Profiter de ce beau cadeau que nous a fait le Tout Puissant Tu n'en a pas deux et qu'elle seule et tu le sais La vie n'est qu'une aventure éphémère Refrain</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Admiral t pavarotty Admiral t againnnnnnnnnnnnnnnne Celle-ci est pour toi baby Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Baby girl t'es magnifique, t'es belle, t'es jolie comme on dit t'es bouénew Tu mérites un homme sérieux, un homme viril comme moi un Shaka Zoulou T'as besoin d'un vrai mâle surtout par d'un homme relou pour prendre soin de toi doudou doudou Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Tu me donnes mal à la tête girl quand tu me touches surtout je ne veux par que tu arrêtes girl Tu me rends fou, me donnes des frissons partout baby girl ta présence m'est vitale Je pense à toi la journée et chaque nuit tu es là dans mes rêves girl presque qu'aussi vrai qu'en vrai girl Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue You might also likeJe me sens seul au monde dès que tu t'absentes baby Chaque minute et chaque seconde que je passe en ton absence me paraissent dix fois plus longues Baby girl sans toi tout est sombre t'es ma lumière, t'es mon soleil, t'es mon ciel bleu lorsque l'orage gronde aussi vrai que la terre est ronde je t'aime plus que tous que tous baby girl Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue bis</t>
+          <t>Admiral t pavarotty Admiral t againnnnnnnnnnnnnnnne Celle-ci est pour toi baby Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Baby girl t'es magnifique, t'es belle, t'es jolie comme on dit t'es bouénew Tu mérites un homme sérieux, un homme viril comme moi un Shaka Zoulou T'as besoin d'un vrai mâle surtout par d'un homme relou pour prendre soin de toi doudou doudou Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Tu me donnes mal à la tête girl quand tu me touches surtout je ne veux par que tu arrêtes girl Tu me rends fou, me donnes des frissons partout baby girl ta présence m'est vitale Je pense à toi la journée et chaque nuit tu es là dans mes rêves girl presque qu'aussi vrai qu'en vrai girl Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Je me sens seul au monde dès que tu t'absentes baby Chaque minute et chaque seconde que je passe en ton absence me paraissent dix fois plus longues Baby girl sans toi tout est sombre t'es ma lumière, t'es mon soleil, t'es mon ciel bleu lorsque l'orage gronde aussi vrai que la terre est ronde je t'aime plus que tous que tous baby girl Et je chante comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue Comme pavarotty devant ta beauté tu me rends dingue Ta peau sent bon l'fruit et douce comme le Nil elle me rend dingue bis</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ki wòl a yo Admiral T ki si plas la Ou sav ola mwen sòti si ghetto Yow Moody mike reality well Pawòl sal pli fasil a ékri ki pawòl sansé Ou ka kritiké mè séw prèmyé ka dansé Ipokrizi la sa mwen désidé dè dénonsé Alè la sé sé son la sa ka krazé pas Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Me say money pull up Polémik an top tweet Ou vwè mwen dizwit Donk ou kliké toutswit Yo enmé sèks épi san Lè vwè ou ka lansé pik Lè sé mizik konsyan yo ka zapé Yo ka swipe ahh Gadé ka ki ka fè milyon vi si Youtube Moun ka palé palé Mè dè slackness yo fanatic Toutlajouné jouné asi WhatsApp Di mwen kay ka touné touné Bomboklat You might also likeYo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Démilven sé tijenn la pani pon limit Donk yo ka mandé sa Lèw vwè sé nwèl oubyen kannaval Toutmouna anlèsa Mè lè bouyon yo lé kè CSA sansiré sa Mè kom toutmoun ka kifé sa Djs ka jouwé yenki sa karmos Démilven sé tijenn la pani pon limit Démilven sé tijenn la pani pon limit Vilgarité sèwten choké Donk sa ka fè polémik Alè la sé sé son la sa ka krazé pas Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Pawòl sal pli fasil a ékri ki pawòl sansé Ou ka kritiké mè séw prèmyé ka dansé Ipokrizi la sa mwen désidé dè dénonsé Alè la sé sé son la sa ka krazé pas Yo enmé lèw vwè son la ka palé dè Son ki ka palé dè Pum pum Ka palé dè Yo enmé lèw vwè son la Ka palé dè Pum karmos Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Polémik an top tweet Ou vwè mwen dizwit Donk ou kliké toutswit Yo enmé sèks épi san Lè vwè ou ka lansé pik Lè sé mizik konsyan yo ka zapé Yo ka swipe ahh Gadé ka ki ka fè milyon vi si Youtube Moun ka palé palé Mè dè slackness yo fanatic Toutlajouné jouné asi WhatsApp Di mwen kay ka touné touné Bomboklat Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Me say money pull up</t>
+          <t>Ki wòl a yo Admiral T ki si plas la Ou sav ola mwen sòti si ghetto Yow Moody mike reality well Pawòl sal pli fasil a ékri ki pawòl sansé Ou ka kritiké mè séw prèmyé ka dansé Ipokrizi la sa mwen désidé dè dénonsé Alè la sé sé son la sa ka krazé pas Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Me say money pull up Polémik an top tweet Ou vwè mwen dizwit Donk ou kliké toutswit Yo enmé sèks épi san Lè vwè ou ka lansé pik Lè sé mizik konsyan yo ka zapé Yo ka swipe ahh Gadé ka ki ka fè milyon vi si Youtube Moun ka palé palé Mè dè slackness yo fanatic Toutlajouné jouné asi WhatsApp Di mwen kay ka touné touné Bomboklat Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Démilven sé tijenn la pani pon limit Donk yo ka mandé sa Lèw vwè sé nwèl oubyen kannaval Toutmouna anlèsa Mè lè bouyon yo lé kè CSA sansiré sa Mè kom toutmoun ka kifé sa Djs ka jouwé yenki sa karmos Démilven sé tijenn la pani pon limit Démilven sé tijenn la pani pon limit Vilgarité sèwten choké Donk sa ka fè polémik Alè la sé sé son la sa ka krazé pas Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Pawòl sal pli fasil a ékri ki pawòl sansé Ou ka kritiké mè séw prèmyé ka dansé Ipokrizi la sa mwen désidé dè dénonsé Alè la sé sé son la sa ka krazé pas Yo enmé lèw vwè son la ka palé dè Son ki ka palé dè Pum pum Ka palé dè Yo enmé lèw vwè son la Ka palé dè Pum karmos Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Polémik an top tweet Ou vwè mwen dizwit Donk ou kliké toutswit Yo enmé sèks épi san Lè vwè ou ka lansé pik Lè sé mizik konsyan yo ka zapé Yo ka swipe ahh Gadé ka ki ka fè milyon vi si Youtube Moun ka palé palé Mè dè slackness yo fanatic Toutlajouné jouné asi WhatsApp Di mwen kay ka touné touné Bomboklat Yo enmé lèw vwè son la Ka palé dè Pum pum ka palé dè Pum pum Jiré manman Jiré manman Jiré manman Pull up Son ki ka palé dè Pum pum Ka palé dè Pum pum Jiré manman Jiré manman Me say money pull up</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 2x Donne-moi le microphone que je le test One two Hey Hey One Two test Ça Va chauffer donc retire ta veste Admiral T you know Is the Best C'est du lourd lourd lourd louloulourd Augmente le son de la caisse Fais péter les Watts fais bouger les tête Obligé que tes amis dans la Téce font ... Obligé que tes poto font ... C'n'est pas leur de la sieste Admiral T Admiral T Admiral T De retour pour les Tigres et les tigresses Toujours plus dynamique pour la jeunesse Pas de ... ni de redbull ... Phenomenal Phenomenal Phenomenal Phenomenal nal nal nal Pheno no no Phenome na nal Pheno no no Come Again! You might also likePheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 2x Waowwww Admiral Admiral Admiral L'animal Mange le riddim comme un cannibale Avec un nouveau flow Flow original Le lion est de retour Plus sauvage qu'avant sur l'instrumentale Beaucoup plus féroce qu'avant sur l'instrumentale Beaucoup plus rapide qu'avant sur l'instrumentale Hey hey hey hey hey! Déstressé Tous les jeunes de foule Tout le monde est malade tout le monde est cool Comme un cyclone je déchaîne la houle Fais bouger la foule comme un ma un maboule Le lion est de retour dans larène dans larène et c'est c'est c'est c'est c'est c'est c'est c'est Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 2x Yo yo yo yo yo yo Si t'aime pas sors sors sors Est ce que la cour dors? Nonnnn! Vous êtes mort vous ... One shot ... Changez le décor Si vous êtes d'accord criez fort fort fort HEY! C'est qui qui vient d'arriver dans larène? C'est le Layaaa Je fais bouger les corps Fais transpirer les corps T'oblige à faire du sport Améliorer ton score Te fais faire des efforts Te fais perdre le Nord Et t'en demandes encore Tes yeux brillent comme de l'or A.D.M.I.R.A.L A.K.A Christy Campbell Tu sais que je Suis P.H.E.N.O.M.E.N.A.L Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 4x1</t>
+          <t>Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 2x Donne-moi le microphone que je le test One two Hey Hey One Two test Ça Va chauffer donc retire ta veste Admiral T you know Is the Best C'est du lourd lourd lourd louloulourd Augmente le son de la caisse Fais péter les Watts fais bouger les tête Obligé que tes amis dans la Téce font ... Obligé que tes poto font ... C'n'est pas leur de la sieste Admiral T Admiral T Admiral T De retour pour les Tigres et les tigresses Toujours plus dynamique pour la jeunesse Pas de ... ni de redbull ... Phenomenal Phenomenal Phenomenal Phenomenal nal nal nal Pheno no no Phenome na nal Pheno no no Come Again! Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 2x Waowwww Admiral Admiral Admiral L'animal Mange le riddim comme un cannibale Avec un nouveau flow Flow original Le lion est de retour Plus sauvage qu'avant sur l'instrumentale Beaucoup plus féroce qu'avant sur l'instrumentale Beaucoup plus rapide qu'avant sur l'instrumentale Hey hey hey hey hey! Déstressé Tous les jeunes de foule Tout le monde est malade tout le monde est cool Comme un cyclone je déchaîne la houle Fais bouger la foule comme un ma un maboule Le lion est de retour dans larène dans larène et c'est c'est c'est c'est c'est c'est c'est c'est Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 2x Yo yo yo yo yo yo Si t'aime pas sors sors sors Est ce que la cour dors? Nonnnn! Vous êtes mort vous ... One shot ... Changez le décor Si vous êtes d'accord criez fort fort fort HEY! C'est qui qui vient d'arriver dans larène? C'est le Layaaa Je fais bouger les corps Fais transpirer les corps T'oblige à faire du sport Améliorer ton score Te fais faire des efforts Te fais perdre le Nord Et t'en demandes encore Tes yeux brillent comme de l'or A.D.M.I.R.A.L A.K.A Christy Campbell Tu sais que je Suis P.H.E.N.O.M.E.N.A.L Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Phenome na nal Pheno no no Pheno no no Phe no phe no Phenomenal Pheno no no Phenome na nal Pheno no no Phenome na nal 4x1</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nous nous nous nous nous, nous on abandonne jamais On est déterminés, déterminés, et ça tu lsais Nous nous nous nous nous, nous on abandonne jamais Nous promis à la victoire, pas à léchec Nous nous nous nous nous, nous on abandonne jamais Plus que déterminé, déterminé, et ça tu lsais Nous nous nous nous nous, nous on abandonne jamais Y'a Admiral T et Kery James combiné toutes les mains en lair Depuis mon enfance, j'joue en défense Mais je marque des buts, j'me dépense Défonce les plans de la Première France Plus rien nme fait vaciller, mental dacier Jai meme dû faire face au canon scié, yeah Jsuis venu en France pour banquer Croquer, dans le gâteau, sans être invité au banquet Mintroduire sans toquer et choquer Cque jaime voir cest les fils dimmigré devenir plus riche que leurs banquiers Cest pas lrap de lUMP Cest le rap éveillé des banlieusards émancipés Cest pour les frères qui jouent en équipe, solidaire Veulent marquer lhistoire comme Mafia K'1 Fry, légendaire ! Mais pour ça faut insister, persister, résister Violenter ta chance sans te désister Timposer, topposer, sexposer au danger, puis lexploser Promis à la victoire, faut oser You might also like Yeah Kery J et Admiral T, ok Tu peux allumer ton briquet Ligth again, si ta perdu faut t'figth again Quils tentendent dire Im back again Jaime le V de la victoire, pas le V de la GAV Mais le V du poing levé pour uvrer Jaime le V de la bravoure, et dès que jcommence un truc vrai Il m'faut le V du travail achevé Il n's'agit pas de ne pas tomber, mais de srelever Cqu'on fait on ne le fait pas que pour flamber, mais pour sélever Bosser, cest le plan A, brasser cest le plan B A trop penser au plan B, beaucoup se sont fait plomber On donne la force aux frères qui sommeillent Tu dois encaisser lhiver, s'tu veux voir venir le soleil On veut vivre nos rêves et non rêver nos vie et notre histoire à envier Promis à la victoire Nous nous nous nous nous, nous on abandonne jamais On est déterminé, déterminé, et ça tu lsais Nous nous nous nous nous, nous on abandonne jamais Nous promis à la victoire, pas à léchec On ne lâche pas, se relâche pas, ne crache pas, ne se cache pas On ne mâche pas nos mots et cela mémé si on ne nous ménage pas Là jparle de détermination, de volonté de passion Être dattaque mais sa ne marche pas On ne lâche pas, se relâche pas, ne crache pas, ne se cache pas On ne mâche pas nos mots et cela mémé si on ne nous ménage pas Là jparle de détermination, de volonté de passion Être dattaque mais sa ne marche pas Paroles rédigées et expliquées par la communauté Rap Genius France</t>
+          <t>Nous nous nous nous nous, nous on abandonne jamais On est déterminés, déterminés, et ça tu lsais Nous nous nous nous nous, nous on abandonne jamais Nous promis à la victoire, pas à léchec Nous nous nous nous nous, nous on abandonne jamais Plus que déterminé, déterminé, et ça tu lsais Nous nous nous nous nous, nous on abandonne jamais Y'a Admiral T et Kery James combiné toutes les mains en lair Depuis mon enfance, j'joue en défense Mais je marque des buts, j'me dépense Défonce les plans de la Première France Plus rien nme fait vaciller, mental dacier Jai meme dû faire face au canon scié, yeah Jsuis venu en France pour banquer Croquer, dans le gâteau, sans être invité au banquet Mintroduire sans toquer et choquer Cque jaime voir cest les fils dimmigré devenir plus riche que leurs banquiers Cest pas lrap de lUMP Cest le rap éveillé des banlieusards émancipés Cest pour les frères qui jouent en équipe, solidaire Veulent marquer lhistoire comme Mafia K'1 Fry, légendaire ! Mais pour ça faut insister, persister, résister Violenter ta chance sans te désister Timposer, topposer, sexposer au danger, puis lexploser Promis à la victoire, faut oser Yeah Kery J et Admiral T, ok Tu peux allumer ton briquet Ligth again, si ta perdu faut t'figth again Quils tentendent dire Im back again Jaime le V de la victoire, pas le V de la GAV Mais le V du poing levé pour uvrer Jaime le V de la bravoure, et dès que jcommence un truc vrai Il m'faut le V du travail achevé Il n's'agit pas de ne pas tomber, mais de srelever Cqu'on fait on ne le fait pas que pour flamber, mais pour sélever Bosser, cest le plan A, brasser cest le plan B A trop penser au plan B, beaucoup se sont fait plomber On donne la force aux frères qui sommeillent Tu dois encaisser lhiver, s'tu veux voir venir le soleil On veut vivre nos rêves et non rêver nos vie et notre histoire à envier Promis à la victoire Nous nous nous nous nous, nous on abandonne jamais On est déterminé, déterminé, et ça tu lsais Nous nous nous nous nous, nous on abandonne jamais Nous promis à la victoire, pas à léchec On ne lâche pas, se relâche pas, ne crache pas, ne se cache pas On ne mâche pas nos mots et cela mémé si on ne nous ménage pas Là jparle de détermination, de volonté de passion Être dattaque mais sa ne marche pas On ne lâche pas, se relâche pas, ne crache pas, ne se cache pas On ne mâche pas nos mots et cela mémé si on ne nous ménage pas Là jparle de détermination, de volonté de passion Être dattaque mais sa ne marche pas Paroles rédigées et expliquées par la communauté Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Refrain C'est cette musique qu'on aime Malgré leurs stratagèmes Pour faire faner cette fleur du ghetto Celle qui remplit nos curs de joie Exprime nos souffrances, nos émois Elle restera toujours number one Dans les années 60, une graine magique Germe dans l'un des ghettos de la Jamaïque Rapidement elle voit pousser sa première tige Quelle réjouissance pour des groupes comme Toots the Maytals Aswad, Steel Pulse la cultivèrent Outre-Atlantique Arrosée par ses nombreux fanatiques L'éclosion de sa fleur se fit par la suite Début 80 avec Jimmy Cliff, Burning Spear Le rub-a-dub style fait les gens wine dans toute les soirées Dans les années 90, Yellowman Charlie Chaplin font les gens parler C'est la venue d'un nouveau style, celui des DJ's refrain Bob Marley l'a rendu international Elle pousse à Tokyo, London New York et même en Allemagne Pour les opprimés et les classes sociales Elle apaise les maux et pour tous elle est vitale Quand le selector joue tout le monde crie Fire La basse résonne, le public s'enflamme car ses dubplates sont murda Tout le monde devient fou quand on passe le son du Don Dada Dans la dance, il y a des noirs, il y a des blancs, il y a des jaunes Tous réunis au même endroit Et tu sais pourquoi... You might also likerefrain Elle pousse dans les DOM peu à peu Début 90, Daddy Yod met le feu De Gwada à Madinina, les jeunes ont la même flamme dans les yeux Le parfum de cette jolie fleur réveille quelque chose en eux Et tout de suite cette nouvelle génération du nouveau millénium Est séduite par le raggae dancehall Plus dansante, plus hardcore Plus explicite que sa foundation Qui sera toujours le number one</t>
+          <t>Refrain C'est cette musique qu'on aime Malgré leurs stratagèmes Pour faire faner cette fleur du ghetto Celle qui remplit nos curs de joie Exprime nos souffrances, nos émois Elle restera toujours number one Dans les années 60, une graine magique Germe dans l'un des ghettos de la Jamaïque Rapidement elle voit pousser sa première tige Quelle réjouissance pour des groupes comme Toots the Maytals Aswad, Steel Pulse la cultivèrent Outre-Atlantique Arrosée par ses nombreux fanatiques L'éclosion de sa fleur se fit par la suite Début 80 avec Jimmy Cliff, Burning Spear Le rub-a-dub style fait les gens wine dans toute les soirées Dans les années 90, Yellowman Charlie Chaplin font les gens parler C'est la venue d'un nouveau style, celui des DJ's refrain Bob Marley l'a rendu international Elle pousse à Tokyo, London New York et même en Allemagne Pour les opprimés et les classes sociales Elle apaise les maux et pour tous elle est vitale Quand le selector joue tout le monde crie Fire La basse résonne, le public s'enflamme car ses dubplates sont murda Tout le monde devient fou quand on passe le son du Don Dada Dans la dance, il y a des noirs, il y a des blancs, il y a des jaunes Tous réunis au même endroit Et tu sais pourquoi... refrain Elle pousse dans les DOM peu à peu Début 90, Daddy Yod met le feu De Gwada à Madinina, les jeunes ont la même flamme dans les yeux Le parfum de cette jolie fleur réveille quelque chose en eux Et tout de suite cette nouvelle génération du nouveau millénium Est séduite par le raggae dancehall Plus dansante, plus hardcore Plus explicite que sa foundation Qui sera toujours le number one</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>YES Je boirai de son eau limpide Profiterai de sa nature Hummmmm Ça fait trop longtemps que je vis Loin d'elle, je t'assure Hummmmm Car à mon retour je Prendrai plaisir yeahhh À respirer son air pur J'espère qu'elle n'a pas changé,qu'elle est toujours... Belle de nature...son ciel bleu azur Elle est caribean et c'est tout ce qu' j'aime Elle, elle pour Île,elle pour Île Elle m'enivre ...île J'aime son charme subtil, son style Refrain Retour au Pays Natal Voyager sans escales Retour au Pays Natal Tout quitter ça m'est égal Retour au Pays Natal Loin de mon île je me sens mal Retour au Nays Natal YEAH.... You might also likePourtant j'ai décoré ma maison de telle sorte qu'elle soit toujours présente malgré tout Ça ne suffit pas, elle me manque quand même À un point que certains jours J'me sens devenir fou La nostalgie me malmène Cé lè nou ensem'yeah Mwen ka senti mwen byen Lè nou ensem' Mwen konten toute lè Cé lè nou ensem' mwen konten yeah eah Lè nou ensem' hooooooo yeah Chanson... Refrain Retour au Pays Natal Voyager sans escales Retour au Pays Natal Tout quitter ça m'est égal Retour au Pays Natal Loin de mon île je me sens mal Retour au Nays Natal YEAH.... J'étais venu ici pour travailler, améliorer mon nivoté Je me rends compte aujourd'hui Que je n'ai fait que m'éloigner de mes racines yeah Jou apwè jou Année apwè année hummmumm Ça fait longtemps que j'attends ma mutation au pays Mais là c'est décidé Refrain Retour au Pays Natal Voyager sans escales Retour au Pays Natal Tout quitter ça m'est égal Retour au Pays Natal Loin de mon île je me sens mal Retour au Pays Natalll YEAH.... Retour au Pays Natal Hannnnnnnnnnnnnn yeah hannnnnnnnnnnnnn yeah Retour au Pays Natal Hannnnnnnnnnnnnn yeah Hannnnnnnnnn yeah Retour au Pays Natal yeah Hannnnnnnnnnnn yeah..........</t>
+          <t>YES Je boirai de son eau limpide Profiterai de sa nature Hummmmm Ça fait trop longtemps que je vis Loin d'elle, je t'assure Hummmmm Car à mon retour je Prendrai plaisir yeahhh À respirer son air pur J'espère qu'elle n'a pas changé,qu'elle est toujours... Belle de nature...son ciel bleu azur Elle est caribean et c'est tout ce qu' j'aime Elle, elle pour Île,elle pour Île Elle m'enivre ...île J'aime son charme subtil, son style Refrain Retour au Pays Natal Voyager sans escales Retour au Pays Natal Tout quitter ça m'est égal Retour au Pays Natal Loin de mon île je me sens mal Retour au Nays Natal YEAH.... Pourtant j'ai décoré ma maison de telle sorte qu'elle soit toujours présente malgré tout Ça ne suffit pas, elle me manque quand même À un point que certains jours J'me sens devenir fou La nostalgie me malmène Cé lè nou ensem'yeah Mwen ka senti mwen byen Lè nou ensem' Mwen konten toute lè Cé lè nou ensem' mwen konten yeah eah Lè nou ensem' hooooooo yeah Chanson... Refrain Retour au Pays Natal Voyager sans escales Retour au Pays Natal Tout quitter ça m'est égal Retour au Pays Natal Loin de mon île je me sens mal Retour au Nays Natal YEAH.... J'étais venu ici pour travailler, améliorer mon nivoté Je me rends compte aujourd'hui Que je n'ai fait que m'éloigner de mes racines yeah Jou apwè jou Année apwè année hummmumm Ça fait longtemps que j'attends ma mutation au pays Mais là c'est décidé Refrain Retour au Pays Natal Voyager sans escales Retour au Pays Natal Tout quitter ça m'est égal Retour au Pays Natal Loin de mon île je me sens mal Retour au Pays Natalll YEAH.... Retour au Pays Natal Hannnnnnnnnnnnnn yeah hannnnnnnnnnnnnn yeah Retour au Pays Natal Hannnnnnnnnnnnnn yeah Hannnnnnnnnn yeah Retour au Pays Natal yeah Hannnnnnnnnnnn yeah..........</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>An ti réyon a solèy asi figi an mwen Ka fè mwen sav kè sé lè a révèy okay okay Syèl la byen blé On ti van ka chichoté an zorèy an mwen An nou alé pwofité de la vi Séon tou piti péyi Mè sé an paradi refrain Ti gwada la mwen enmé-y,okay Papiyon jah désiné-y,okay Pa pli ta ki yè swa an révé-y Gwada sé an ti mervèy,okay couplet 1 Fout rèv la sa té bèl Adan-y gason gwada bèl kon ak an syèl Politisyen an nou pa magouyè,yo sé réyel ro-y Pa ni rich ni pôv ni pon débièl Anco mwens manman ky ka lévé ti moun a yo tou sèl Pon moun pa ka fè pon moun socyé,tout moun enm' létwnèl Kon avan tout moun té ka pasé a ka tout moun pou nowèl Timoun an nou ké konnet kilti a yo Lékol aprann yo istwa a yo You might also likerefrain couplet 2 Vyolans,délinkans,maltrétans nou pa té konèt gason Adan rèv an mwen pa té ni lambylans dè tout lé fason Jou a travay ou té ké di sé vakans menm pou on mason Bon ambyans tou patou sé son,gason Pon pa ka fawdé lèv Pas bondyé kréyé adan é ève Tout bitin kay, pa ti ni pon grèv Pon san pa ka koulé,ni sèv Jèn an nou fè la trèv Dè tout sa ki zam,dè tout sa ki ni glèv Mè bondyé poukoi mwen fè on tèl rèv refrain couplet 3 Blan,nèg zendyen ou bien milat,on pot Sa bèl dè vwè timoun a yo joué ansanm,yo tout sé pot Boté pa té ka konté menm si ou bèl kon kléopat Yo ka pran-w dépi ou sa travay ,pé enpot Pa té ni pon problèm gwada té ka pwodui non stop Tout lé lizin a kann pa janmè stop Biguine,zouk,gwo-ka,reggae,ragga é hip-hop Tout moun té ka pwan pyé a yo non stop refrain</t>
+          <t>An ti réyon a solèy asi figi an mwen Ka fè mwen sav kè sé lè a révèy okay okay Syèl la byen blé On ti van ka chichoté an zorèy an mwen An nou alé pwofité de la vi Séon tou piti péyi Mè sé an paradi refrain Ti gwada la mwen enmé-y,okay Papiyon jah désiné-y,okay Pa pli ta ki yè swa an révé-y Gwada sé an ti mervèy,okay couplet 1 Fout rèv la sa té bèl Adan-y gason gwada bèl kon ak an syèl Politisyen an nou pa magouyè,yo sé réyel ro-y Pa ni rich ni pôv ni pon débièl Anco mwens manman ky ka lévé ti moun a yo tou sèl Pon moun pa ka fè pon moun socyé,tout moun enm' létwnèl Kon avan tout moun té ka pasé a ka tout moun pou nowèl Timoun an nou ké konnet kilti a yo Lékol aprann yo istwa a yo refrain couplet 2 Vyolans,délinkans,maltrétans nou pa té konèt gason Adan rèv an mwen pa té ni lambylans dè tout lé fason Jou a travay ou té ké di sé vakans menm pou on mason Bon ambyans tou patou sé son,gason Pon pa ka fawdé lèv Pas bondyé kréyé adan é ève Tout bitin kay, pa ti ni pon grèv Pon san pa ka koulé,ni sèv Jèn an nou fè la trèv Dè tout sa ki zam,dè tout sa ki ni glèv Mè bondyé poukoi mwen fè on tèl rèv refrain couplet 3 Blan,nèg zendyen ou bien milat,on pot Sa bèl dè vwè timoun a yo joué ansanm,yo tout sé pot Boté pa té ka konté menm si ou bèl kon kléopat Yo ka pran-w dépi ou sa travay ,pé enpot Pa té ni pon problèm gwada té ka pwodui non stop Tout lé lizin a kann pa janmè stop Biguine,zouk,gwo-ka,reggae,ragga é hip-hop Tout moun té ka pwan pyé a yo non stop refrain</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Secret Lover Wyclef Admiral T again Secret Lover Hey Lynnsha Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Here's my number on a When you home gimme a call No one gotta know oh oh, oh oh You R. Kelly In the jacuzzi oh oh, oh oh I'm kissin' but I'm kissin' In a you oh oh, oh oh Now we both we know that we gotta go Cause I love this hoe oh oh, oh oh Pas besoin du mec d'un soir Du beau gosse blindé qui me délaisse Encore moins d'une histoire à trois Ça ne vaut pas la peine, moi j'ai mon prince à moi You might also like Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tant de promesses, tu voudrais qu'on s'éclate Tu veux mon phone et me balance tes tchatches Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Admiral T again tout savoir timal Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tant de promesses, tu voudrais qu'on s'éclate Tu veux mon phone et me balance tes tchatches Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Je n'ai qu'une envie une seule envie Mon cur est à lui Je n'ai qu'une envie yeah, the only one I need Mon cur est à lui faut passer outre réel matériel ou ni belles paroles mais mamzel Tes e-mails, ton phone-tel, l'amour virtuel C'n'est pas pour elle Mademoiselle te dit qu'elle est fidèle officiel Secret Lover Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tant de promesses, tu voudrais qu'on s'éclate Tu veux mon phone et me balance tes tchatches Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Admiral T again Wyclef Jean from Haiti On the way to Paris Wyclef Jean Dis l'heure 2 ragga Secret Lover Spéciale combinaison Listen to the big</t>
+          <t>Secret Lover Wyclef Admiral T again Secret Lover Hey Lynnsha Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Here's my number on a When you home gimme a call No one gotta know oh oh, oh oh You R. Kelly In the jacuzzi oh oh, oh oh I'm kissin' but I'm kissin' In a you oh oh, oh oh Now we both we know that we gotta go Cause I love this hoe oh oh, oh oh Pas besoin du mec d'un soir Du beau gosse blindé qui me délaisse Encore moins d'une histoire à trois Ça ne vaut pas la peine, moi j'ai mon prince à moi Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tant de promesses, tu voudrais qu'on s'éclate Tu veux mon phone et me balance tes tchatches Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Admiral T again tout savoir timal Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tant de promesses, tu voudrais qu'on s'éclate Tu veux mon phone et me balance tes tchatches Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Je n'ai qu'une envie une seule envie Mon cur est à lui Je n'ai qu'une envie yeah, the only one I need Mon cur est à lui faut passer outre réel matériel ou ni belles paroles mais mamzel Tes e-mails, ton phone-tel, l'amour virtuel C'n'est pas pour elle Mademoiselle te dit qu'elle est fidèle officiel Secret Lover Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tant de promesses, tu voudrais qu'on s'éclate Tu veux mon phone et me balance tes tchatches Secret Lover j'ai compris tes actes Secret Lover non je ne veux pas Tu veux un rendez-vous, révise tes tchatches Oui j'ai mon homme, mon love, mon mec, mon amour Admiral T again Wyclef Jean from Haiti On the way to Paris Wyclef Jean Dis l'heure 2 ragga Secret Lover Spéciale combinaison Listen to the big</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hmmm Sé vou tchè an mwen chwazi Doudou mwen vlé'w pou la vi Ou sé pli bel, pli bel bitin ki rivé mwen Vini vini vini an bras an mwen Kolé po aw si mwen séré mwen fo Si'w enmé mwen, pa fan soufè mwen ké chérir tout' vi an mwen! Non, si'w enmé mwen, pa blésé mwen ou ké vwè jan nou ké viv on bel vi Pi lanné ka pasé, pli mwen di mési bondyé Lè dé fè nou joinn ti doudou an mwen Sa mwen vlé ba'w sé dousè Karésé po aw kon papiyon ka posé'y asi flè Hmm Si'w enmé mwen, pa fan soufè Mwen ké chérir, chérir, chérir dou! Non, si'w enmé mwen, pa blésé mwen Pa fè mwen mal, pa fè mwen mal! Mwen ni konfians adan'w mwen pa vlé ki on jou doute vinn instalé si ou sé moitié an mwen An nou kolé pou nou fè yonn Dansé moso la sa ensenm An nou lové, an nou lové, an nou lov An nou vibré ensenm! You might also likeSi'w enmé mwen, pa fan soufè mwen ké chérir, mwen ké chérir jisk a la fin! Si'w enmé mwen doudou, pa blésé mwen ou ké vwè jan nou ké viv on bel vi Sé vou tchè an mwen chwazi Doudou mwen vlé'w pou la vi Ou sé pli bel, pli bel bitin ki rivé mwen Vini vini vini owa an mwen owa an mwen Kolé po aw si mwen si mwen séré mwen fo! Si'w enmé mwen, enlacé mwen Si'w enmé mwen, vinn vlopé mwen Yeaaaaah Si'w enmé mwen, hmm enlacé mwen enlacé mwen Pa ni pli bel, pa ni bel ki'w si la tè Non non non Si'w enmé mwen, oui doudou, kolé si mwen Hmmm Si'w enmé mwen. Si'w enmé mwen. Si'w enmé mwen</t>
+          <t>Hmmm Sé vou tchè an mwen chwazi Doudou mwen vlé'w pou la vi Ou sé pli bel, pli bel bitin ki rivé mwen Vini vini vini an bras an mwen Kolé po aw si mwen séré mwen fo Si'w enmé mwen, pa fan soufè mwen ké chérir tout' vi an mwen! Non, si'w enmé mwen, pa blésé mwen ou ké vwè jan nou ké viv on bel vi Pi lanné ka pasé, pli mwen di mési bondyé Lè dé fè nou joinn ti doudou an mwen Sa mwen vlé ba'w sé dousè Karésé po aw kon papiyon ka posé'y asi flè Hmm Si'w enmé mwen, pa fan soufè Mwen ké chérir, chérir, chérir dou! Non, si'w enmé mwen, pa blésé mwen Pa fè mwen mal, pa fè mwen mal! Mwen ni konfians adan'w mwen pa vlé ki on jou doute vinn instalé si ou sé moitié an mwen An nou kolé pou nou fè yonn Dansé moso la sa ensenm An nou lové, an nou lové, an nou lov An nou vibré ensenm! Si'w enmé mwen, pa fan soufè mwen ké chérir, mwen ké chérir jisk a la fin! Si'w enmé mwen doudou, pa blésé mwen ou ké vwè jan nou ké viv on bel vi Sé vou tchè an mwen chwazi Doudou mwen vlé'w pou la vi Ou sé pli bel, pli bel bitin ki rivé mwen Vini vini vini owa an mwen owa an mwen Kolé po aw si mwen si mwen séré mwen fo! Si'w enmé mwen, enlacé mwen Si'w enmé mwen, vinn vlopé mwen Yeaaaaah Si'w enmé mwen, hmm enlacé mwen enlacé mwen Pa ni pli bel, pa ni bel ki'w si la tè Non non non Si'w enmé mwen, oui doudou, kolé si mwen Hmmm Si'w enmé mwen. Si'w enmé mwen. Si'w enmé mwen</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nou kay an sond system pa fann La sélekta ka joué bon son La tout ras ka pwan pyé a yo ansann Tèlman yo ansann, gadé yo près ka sann 33 47T, dubplates épi raga Tout swaré animé pa on mové sélekta On son majik si-w kolé ka fè-w changé léta Bas la ka wonflé, kès klè ka pété kon béréta Si ou pa ni asé ni dé dj ka pasé pli ta Evé dé tèks angagé si dé tem délika Dé dj kè yo ka pull up up ka fè déga Nou ka défoulé nou pwan pyé an nou sé pou sa Refrain Vyolans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann Bon son bon vibe dé nouvo dans Ka mèt tou moun an trans Dancehall quenn ni an tèl prézans on tèl ézans Pou fè nonm la bréné an tout sans Refrain An ay an sond system si ou poko alé si ou poko Si-w vé pa pèd fil-aw anko ennyèm anko Ki ou sé jenn ki ou sé vyéko é si ou dako Pou amizé-w kon poko Joustan kok kryé cocorico Défoulman i tin tout sot Mè sila vréman spécial, sila pa kon lè zot Ki zot rich ki zot pow, zot pé vinn pwan pyé a zot E surtou kouté mésaj ké dj ka voyé ba zot You might also likeRefrain 1couplet Voylans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann</t>
+          <t>Nou kay an sond system pa fann La sélekta ka joué bon son La tout ras ka pwan pyé a yo ansann Tèlman yo ansann, gadé yo près ka sann 33 47T, dubplates épi raga Tout swaré animé pa on mové sélekta On son majik si-w kolé ka fè-w changé léta Bas la ka wonflé, kès klè ka pété kon béréta Si ou pa ni asé ni dé dj ka pasé pli ta Evé dé tèks angagé si dé tem délika Dé dj kè yo ka pull up up ka fè déga Nou ka défoulé nou pwan pyé an nou sé pou sa Refrain Vyolans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann Bon son bon vibe dé nouvo dans Ka mèt tou moun an trans Dancehall quenn ni an tèl prézans on tèl ézans Pou fè nonm la bréné an tout sans Refrain An ay an sond system si ou poko alé si ou poko Si-w vé pa pèd fil-aw anko ennyèm anko Ki ou sé jenn ki ou sé vyéko é si ou dako Pou amizé-w kon poko Joustan kok kryé cocorico Défoulman i tin tout sot Mè sila vréman spécial, sila pa kon lè zot Ki zot rich ki zot pow, zot pé vinn pwan pyé a zot E surtou kouté mésaj ké dj ka voyé ba zot Refrain 1couplet Voylans an sound system ou sav sé pwopagand Inité lanmou rèspé ké nou ka défann</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C'est comme un jour de famine Une journée sans toi ma darlin' Je t'écris pour te dire ma peine Et quand tombe la nuit, tout est en sourdine Je n'arrive pas à m'endormir Une souffrance de longue haleine Darling c'est sûr que Dieu t'a inventée pour moi Dessinée pour moi, façonnée pour moi Sculptée pour moi de ses doigts Liés par les liens du seigneur et c'est pourquoi Ca va aussi mal dès que je m'éloigne de toi Refrain Ces quelques lignes sont pour mion sucre d'orge Que j'aime Ma belle fleur de lys, ma déesse, ma miss Tu me manques Ensemble pour la vie Partager toute une vie sans se quitter Faire une seule et même personne Jusqu'à ce que notre dernière heure sonne Comme Bonnie Clyde, il faut que ça fonctionne Ensemble pour la vie Partager toute une vie sans se quitter Veiller à ce qu'il n'y ait jamais de maldonne Ne pas avoir peur de se pardonner Jurer de ne jamais s'abandonner You might also likeRester loin de toi me rend fou J'abandonne tout là-bas je m'en fous Je veux que tu sois mon épouse c'est tout Pour vivre à tes côtés, être ton époux Peu importe si on n'a pas de sous Ce qui importe c'est notre amour Sans toi je t'avoue que je vois flou Je veux être à tes côtés pour toujours</t>
+          <t>C'est comme un jour de famine Une journée sans toi ma darlin' Je t'écris pour te dire ma peine Et quand tombe la nuit, tout est en sourdine Je n'arrive pas à m'endormir Une souffrance de longue haleine Darling c'est sûr que Dieu t'a inventée pour moi Dessinée pour moi, façonnée pour moi Sculptée pour moi de ses doigts Liés par les liens du seigneur et c'est pourquoi Ca va aussi mal dès que je m'éloigne de toi Refrain Ces quelques lignes sont pour mion sucre d'orge Que j'aime Ma belle fleur de lys, ma déesse, ma miss Tu me manques Ensemble pour la vie Partager toute une vie sans se quitter Faire une seule et même personne Jusqu'à ce que notre dernière heure sonne Comme Bonnie Clyde, il faut que ça fonctionne Ensemble pour la vie Partager toute une vie sans se quitter Veiller à ce qu'il n'y ait jamais de maldonne Ne pas avoir peur de se pardonner Jurer de ne jamais s'abandonner Rester loin de toi me rend fou J'abandonne tout là-bas je m'en fous Je veux que tu sois mon épouse c'est tout Pour vivre à tes côtés, être ton époux Peu importe si on n'a pas de sous Ce qui importe c'est notre amour Sans toi je t'avoue que je vois flou Je veux être à tes côtés pour toujours</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Découvre le dernier clip vidéo de Admiral T intitulé Ti Milo. Tu peux également retrouver tous les clips vidéo de Admiral T ainsi que toute l'actualité du Reggae Dancehall sur Muzik Spirit Clique sur le bouton , ci-dessous, pour découvrir les paroles du titre Ti Milo Rejoins la page facebook muzikspirit.officiel et suis nous sur Twitter muzikspirit pour être informé des dernières actualités de Admiral T et du Reggae DancehallYou might also like</t>
+          <t>Découvre le dernier clip vidéo de Admiral T intitulé Ti Milo. Tu peux également retrouver tous les clips vidéo de Admiral T ainsi que toute l'actualité du Reggae Dancehall sur Muzik Spirit Clique sur le bouton , ci-dessous, pour découvrir les paroles du titre Ti Milo Rejoins la page facebook muzikspirit.officiel et suis nous sur Twitter muzikspirit pour être informé des dernières actualités de Admiral T et du Reggae Dancehall</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dépi tou piti mwen la mwen ka tchenbé fô Dépi tout piti ka travay mwen ka fé éffô Jis dé main an mwen trapé ko Tou senpleman paské Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan Gason, mwen anvi alé lwen E ayen pakay pé fréné mwen Anpéché mwen trasé chimen an mwen Détewminé, sé sa mwen yé Lévé franjin an nou alé paské Lasistana engendré loisivté a lespri Sé pousa ké fo pa ou rété kouché ka domi Donc an nou alé Menm si chimen la pa fasil Ké tini mone ké tini twou Fow tin volonté Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan You might also likePousa sé vré ké yo pa fé ayen baw Ké sé an ba sité la kéw ka passé ten-aw Ké yo dégoutèw ki fé jod la ou kwe adanw Mé la pa pén attan si pon moun pran courage aw a dé men Pa janmen oublié ké sé vou ki ké gran démen Siw ni anbision épi kompétans Pani pon rézon po vou oa ay lwen Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan Fo kèw toujou rété optimis et insisté, pewsisté Résisté, fo pa ka dézisté Pé pa rété tou vi-aw asisté Tou simpleman existé Montré-y saké ou vo E jis la ou pé ay An nou alé my friend fow kèw sav ka ou vé fréro E ola ou vlé ay Ou ni pou ete fo an têt-aw Détewniné, ni an bit a atann Pa attan si pon moun ni si pon kalite systém Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan</t>
+          <t>Dépi tou piti mwen la mwen ka tchenbé fô Dépi tout piti ka travay mwen ka fé éffô Jis dé main an mwen trapé ko Tou senpleman paské Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan Gason, mwen anvi alé lwen E ayen pakay pé fréné mwen Anpéché mwen trasé chimen an mwen Détewminé, sé sa mwen yé Lévé franjin an nou alé paské Lasistana engendré loisivté a lespri Sé pousa ké fo pa ou rété kouché ka domi Donc an nou alé Menm si chimen la pa fasil Ké tini mone ké tini twou Fow tin volonté Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan Pousa sé vré ké yo pa fé ayen baw Ké sé an ba sité la kéw ka passé ten-aw Ké yo dégoutèw ki fé jod la ou kwe adanw Mé la pa pén attan si pon moun pran courage aw a dé men Pa janmen oublié ké sé vou ki ké gran démen Siw ni anbision épi kompétans Pani pon rézon po vou oa ay lwen Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan Fo kèw toujou rété optimis et insisté, pewsisté Résisté, fo pa ka dézisté Pé pa rété tou vi-aw asisté Tou simpleman existé Montré-y saké ou vo E jis la ou pé ay An nou alé my friend fow kèw sav ka ou vé fréro E ola ou vlé ay Ou ni pou ete fo an têt-aw Détewniné, ni an bit a atann Pa attan si pon moun ni si pon kalite systém Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan Mwen anvi touché l'horizon épi bout a dwet an mwen Lontan mwen ja paré sak an mwen ja en do an mwen Fos an mwen kilti an mwen Tout riches an mwen adan-y Anvi nou rivé pli lwen, é sa menm si sa pran tan</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Antillais des orteils jusquà la tête Thomas Lemar Alexandre Lacazette Di mwen ka la France téké fè san le 97 Bomboklat hey Paka blagé mè nou fò Briyé kon lò Fyè dèt blackman é sa jiska la mò Rasis pa enmé nou But we dont give a fuck Kon polis yonn apré lòt Nou ka défonsé pòt Paka palé twòp Solid kon wòk Fyè kon kòk nou pa enmé lèche-bottes Fanm kréyòl dous menm jan i pé jòk Si èvèy ou fè fòt ou pé pwan yonn dé tjòk Me sing again Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Maryse condé pa vini la fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey You might also likeNou ka palé kréyòl kon Domota 50 dègré piw ki sona Lè nou sanblé yo ka krenn nou Kon corona Donk pou désimé yo simé Chlordécone Pran nou kona pou kanna Mè nou doubout dwèt pikèt kon kann An venn an nou tini ronm Épi san a nèg mawon Ignace boulé kanon Vlé pa mandé padon mè sé nou ki pabon Sèwten pou pran galon Ka pòté masque blanc mandé Fanon Big up ba tout liyon Ki paka myolé kon chaton chaton héy Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Claudy Siard pa vini la pou fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey Génocide épi homicide Yo pani dwa manké nou dè rèspé Menm lè ronm ka koulé toujou rèsté lisid Paskè dè rasis la France enfèsté Man a blackman till mi well World war z Man a blackman blackman till mi dead Fransé yenki asi papyé Contrôle de police au volant de la 3 reg Prèmyé biten yo ka vwè sékèw nèg Come on Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Claudio Beauvue pa vini la fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey Paka blagé mè nou fò Briyé kon lò Fyè dèt blackman é sa jiska la mò Rasis pa enmé nou But we dont give a fuck Kon polis yonn apré lòt Nou ka défonsé pòt Paka palé twòp Solid kon wòk Fyè kon kòk nou pa enmé lèche-bottes Fanm kréyòl dous menm jan i pé jòk Si èvèy ou fè fòt ou pé pwan yonn dé tjòk Me sing again Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Marielle Cafafa pa vin la fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey</t>
+          <t>Antillais des orteils jusquà la tête Thomas Lemar Alexandre Lacazette Di mwen ka la France téké fè san le 97 Bomboklat hey Paka blagé mè nou fò Briyé kon lò Fyè dèt blackman é sa jiska la mò Rasis pa enmé nou But we dont give a fuck Kon polis yonn apré lòt Nou ka défonsé pòt Paka palé twòp Solid kon wòk Fyè kon kòk nou pa enmé lèche-bottes Fanm kréyòl dous menm jan i pé jòk Si èvèy ou fè fòt ou pé pwan yonn dé tjòk Me sing again Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Maryse condé pa vini la fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey Nou ka palé kréyòl kon Domota 50 dègré piw ki sona Lè nou sanblé yo ka krenn nou Kon corona Donk pou désimé yo simé Chlordécone Pran nou kona pou kanna Mè nou doubout dwèt pikèt kon kann An venn an nou tini ronm Épi san a nèg mawon Ignace boulé kanon Vlé pa mandé padon mè sé nou ki pabon Sèwten pou pran galon Ka pòté masque blanc mandé Fanon Big up ba tout liyon Ki paka myolé kon chaton chaton héy Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Claudy Siard pa vini la pou fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey Génocide épi homicide Yo pani dwa manké nou dè rèspé Menm lè ronm ka koulé toujou rèsté lisid Paskè dè rasis la France enfèsté Man a blackman till mi well World war z Man a blackman blackman till mi dead Fransé yenki asi papyé Contrôle de police au volant de la 3 reg Prèmyé biten yo ka vwè sékèw nèg Come on Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Claudio Beauvue pa vini la fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey Paka blagé mè nou fò Briyé kon lò Fyè dèt blackman é sa jiska la mò Rasis pa enmé nou But we dont give a fuck Kon polis yonn apré lòt Nou ka défonsé pòt Paka palé twòp Solid kon wòk Fyè kon kòk nou pa enmé lèche-bottes Fanm kréyòl dous menm jan i pé jòk Si èvèy ou fè fòt ou pé pwan yonn dé tjòk Me sing again Antillais des orteils jusquà la tête Blackman mwen pa vini la fè kèt Di mwen ka la France téké fè san le 97 Di mwen ka la France téké fè san le 97 hé Antillais des orteils jusquà la tête Marielle Cafafa pa vin la fè kèt Di mwen ka la France téké fè san le 97 Bomboklat hey</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Africa West Indies Man le son est wicked Ma belle écarte les cuisses et paie nous en liquide C'est une histoire d'zeill-o, c'est une histoire d'zeille-o Et si c'est gros bâtard font trop les malins tchouyéyo ! Soit tu pars en bécane, soit tu te fais tirer dessus Normal qu'ils nous portent l'oeil Regarde les millions de vues 974 zamalia, t'inquiètes gangsta lé la Gwada, Mada, Yana, frère sé nous ki boss inchallah ! Kam ! WEST INDIES RrrrEMIX ! V? Ba yo-y !!! kalllllrrrr Ou pé woué nou an fon kay la Boutèy chanpagne Nou ka mét samboy la hat hat a la batman A mada sé nou ki boss a mada sé nou ki boss a mada sé nou ki boss a mada sé nou ki boss Ou pé wou nou an fon kay la Gwo chèn an lò Sé jalou-a ka palé mè yo déwo kon dé pò Si ou pani time, nou pani time Madinina ka pati épi sa ki ta-y Nou ni bon style nou ni bon flow bon vibz Énemi-ya nou ka di yo boom bye bye ! Kriyé lé ponpié pas man ka brilé paris La fouine di mwen lafouineX-man pa fouté panik ! Nou ka chanjé prosédé ! Love and peace nou ka posédé Brilé yo kon O.C.B An h??a kon ta si an CD MANNN ! man paka woué-w ou translusid Tala sé M.E.T mé non di extremement tranmisib ! You might also like Gangsta! Mi come from mada badman-na An la vi-a a high grad ka brilé kon kan-na Biznèss money fè l'es????t soti da??sie Big up LETCHIMI ! Difé Ring Di Alarm !!!! DOM-TOM fi mi ??i Haterz ka an nou bat guél a yo non-stop Ban mwen brilé yo adan an one-shot ! Fouwmi a pa sigal Flow kriminal ! Ka minin-w tribunal Nou pa dé ???al La mwen soti joli ??? brutal Fod-Fwans kapital! Mada gwada reunion yana haiti ??? ! An lé an ringue BOSS ! Karmos toupatou ke le mwen pale le mwen pren le mic yo ka de Pan de panse se ke tala se li li ki boss Si? gwada sete on padre mwen te ke di family se Akiyo se King me tout moun sav ki moun ki boss Gwadada se nou ka mene tou patou en gwadada mi yo ka pale de Bitin pa ka ten on de bitin jame egale jouna b la nou pa Tende siclon la nou instale le jaloulou ka chiale Me yo sav se nou ki boss boss well Louis vuitton, Wok Line, Dolce Gabbana Flex si plaj? boite la kon o pa kabana Big big big boss Blak Jack kon Diana Si foug si tex e technik lyrics flow patou nou ni fana Pi nou frape fo pi yo ka vin kon Rihanna Se nou ki pi fo hey Nou pa ka mache en ray nou ka fly se fly ke nou ka fly Nou pa ka mache yo kon pa ni ten me nou ka shine Toupatou nou ay se rispect fo? nou ka bay Clek clek clek pi move ki acte hollywood Clek clek deroulez deroulez moi le tapi rouge Admiarl t toujou clas style ghetto bouj Pi l anne ka passe pi nou ka fin ou pini sa ki vé plas en Nou Karmos</t>
+          <t>Africa West Indies Man le son est wicked Ma belle écarte les cuisses et paie nous en liquide C'est une histoire d'zeill-o, c'est une histoire d'zeille-o Et si c'est gros bâtard font trop les malins tchouyéyo ! Soit tu pars en bécane, soit tu te fais tirer dessus Normal qu'ils nous portent l'oeil Regarde les millions de vues 974 zamalia, t'inquiètes gangsta lé la Gwada, Mada, Yana, frère sé nous ki boss inchallah ! Kam ! WEST INDIES RrrrEMIX ! V? Ba yo-y !!! kalllllrrrr Ou pé woué nou an fon kay la Boutèy chanpagne Nou ka mét samboy la hat hat a la batman A mada sé nou ki boss a mada sé nou ki boss a mada sé nou ki boss a mada sé nou ki boss Ou pé wou nou an fon kay la Gwo chèn an lò Sé jalou-a ka palé mè yo déwo kon dé pò Si ou pani time, nou pani time Madinina ka pati épi sa ki ta-y Nou ni bon style nou ni bon flow bon vibz Énemi-ya nou ka di yo boom bye bye ! Kriyé lé ponpié pas man ka brilé paris La fouine di mwen lafouineX-man pa fouté panik ! Nou ka chanjé prosédé ! Love and peace nou ka posédé Brilé yo kon O.C.B An h??a kon ta si an CD MANNN ! man paka woué-w ou translusid Tala sé M.E.T mé non di extremement tranmisib ! Gangsta! Mi come from mada badman-na An la vi-a a high grad ka brilé kon kan-na Biznèss money fè l'es????t soti da??sie Big up LETCHIMI ! Difé Ring Di Alarm !!!! DOM-TOM fi mi ??i Haterz ka an nou bat guél a yo non-stop Ban mwen brilé yo adan an one-shot ! Fouwmi a pa sigal Flow kriminal ! Ka minin-w tribunal Nou pa dé ???al La mwen soti joli ??? brutal Fod-Fwans kapital! Mada gwada reunion yana haiti ??? ! An lé an ringue BOSS ! Karmos toupatou ke le mwen pale le mwen pren le mic yo ka de Pan de panse se ke tala se li li ki boss Si? gwada sete on padre mwen te ke di family se Akiyo se King me tout moun sav ki moun ki boss Gwadada se nou ka mene tou patou en gwadada mi yo ka pale de Bitin pa ka ten on de bitin jame egale jouna b la nou pa Tende siclon la nou instale le jaloulou ka chiale Me yo sav se nou ki boss boss well Louis vuitton, Wok Line, Dolce Gabbana Flex si plaj? boite la kon o pa kabana Big big big boss Blak Jack kon Diana Si foug si tex e technik lyrics flow patou nou ni fana Pi nou frape fo pi yo ka vin kon Rihanna Se nou ki pi fo hey Nou pa ka mache en ray nou ka fly se fly ke nou ka fly Nou pa ka mache yo kon pa ni ten me nou ka shine Toupatou nou ay se rispect fo? nou ka bay Clek clek clek pi move ki acte hollywood Clek clek deroulez deroulez moi le tapi rouge Admiarl t toujou clas style ghetto bouj Pi l anne ka passe pi nou ka fin ou pini sa ki vé plas en Nou Karmos</t>
         </is>
       </c>
     </row>
